--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_16_36.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_16_36.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1464317.859840319</v>
+        <v>1461420.347705187</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4492125.085872245</v>
+        <v>4492125.085872243</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5271098.888045343</v>
+        <v>5271098.888045344</v>
       </c>
     </row>
     <row r="11">
@@ -1369,19 +1369,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>415.6498806486147</v>
+        <v>19.84681480976747</v>
       </c>
       <c r="C11" t="n">
-        <v>204.6102747007519</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>63.75766707213</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -1429,16 +1429,16 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1466,7 +1466,7 @@
         <v>92.18423124419718</v>
       </c>
       <c r="H12" t="n">
-        <v>43.87012085590377</v>
+        <v>43.87012085590378</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>63.25518503327256</v>
+        <v>63.25518503327257</v>
       </c>
       <c r="T12" t="n">
         <v>136.716603047384</v>
@@ -1527,25 +1527,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C13" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>152.5870923566466</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>49.48758523998789</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1578,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>154.8605570070767</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>237.5781630603024</v>
@@ -1590,13 +1590,13 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="14">
@@ -1606,13 +1606,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>19.84681480976747</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
         <v>421.717170453621</v>
@@ -1621,7 +1621,7 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
-        <v>178.9539422479104</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>63.75766707213001</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -1666,10 +1666,10 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -1703,7 +1703,7 @@
         <v>92.18423124419718</v>
       </c>
       <c r="H15" t="n">
-        <v>43.87012085590377</v>
+        <v>43.87012085590378</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1736,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>63.25518503327256</v>
+        <v>63.25518503327257</v>
       </c>
       <c r="T15" t="n">
         <v>136.716603047384</v>
@@ -1767,10 +1767,10 @@
         <v>188.264309024945</v>
       </c>
       <c r="C16" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1779,7 +1779,7 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.714312316425635</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1812,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>11.54853472536695</v>
       </c>
       <c r="S16" t="n">
-        <v>154.8605570070767</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>237.5781630603024</v>
+        <v>113.8336084304264</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>277.3401215733874</v>
       </c>
       <c r="V16" t="n">
         <v>278.8943527180514</v>
@@ -1843,19 +1843,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>52.32274257760199</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>153.9605020539606</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G17" t="n">
         <v>398.559371002531</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>63.75766707213</v>
+        <v>63.75766707213001</v>
       </c>
       <c r="T17" t="n">
         <v>211.1156585642257</v>
@@ -1903,13 +1903,13 @@
         <v>255.6324562468386</v>
       </c>
       <c r="V17" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>401.2838973446586</v>
@@ -1940,7 +1940,7 @@
         <v>92.18423124419718</v>
       </c>
       <c r="H18" t="n">
-        <v>43.87012085590377</v>
+        <v>43.87012085590378</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>63.25518503327256</v>
+        <v>63.25518503327257</v>
       </c>
       <c r="T18" t="n">
         <v>136.716603047384</v>
@@ -2086,19 +2086,19 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D20" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>158.5143504134723</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>202.4617326227066</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>63.75766707213001</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -2140,13 +2140,13 @@
         <v>255.6324562468386</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y20" t="n">
         <v>401.2838973446586</v>
@@ -2177,7 +2177,7 @@
         <v>92.18423124419718</v>
       </c>
       <c r="H21" t="n">
-        <v>43.87012085590377</v>
+        <v>43.87012085590378</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2210,7 +2210,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>63.25518503327256</v>
+        <v>63.25518503327257</v>
       </c>
       <c r="T21" t="n">
         <v>136.716603047384</v>
@@ -2247,7 +2247,7 @@
         <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
-        <v>153.876877436368</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F22" t="n">
         <v>170.1431564831852</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>11.54853472536694</v>
+        <v>0.879288373060408</v>
       </c>
       <c r="S22" t="n">
         <v>154.8605570070767</v>
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>415.2023601647255</v>
+        <v>243.3827502264181</v>
       </c>
       <c r="C23" t="n">
         <v>422.1842022029436</v>
@@ -2368,10 +2368,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>63.31014658824073</v>
       </c>
       <c r="T23" t="n">
-        <v>102.1586747302665</v>
+        <v>210.6681380803364</v>
       </c>
       <c r="U23" t="n">
         <v>255.1849357629494</v>
@@ -2414,7 +2414,7 @@
         <v>92.18423124419718</v>
       </c>
       <c r="H24" t="n">
-        <v>43.87012085590377</v>
+        <v>43.87012085590378</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2447,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>63.25518503327256</v>
+        <v>63.25518503327257</v>
       </c>
       <c r="T24" t="n">
         <v>136.716603047384</v>
@@ -2496,7 +2496,7 @@
         <v>134.9861473892861</v>
       </c>
       <c r="I25" t="n">
-        <v>74.90137611690784</v>
+        <v>74.90137611690778</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>11.10101424147769</v>
+        <v>11.10101424147768</v>
       </c>
       <c r="S25" t="n">
         <v>154.4130365231875</v>
@@ -2605,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>63.31014658824076</v>
+        <v>63.31014658824073</v>
       </c>
       <c r="T26" t="n">
-        <v>38.8485281420254</v>
+        <v>38.848528142029</v>
       </c>
       <c r="U26" t="n">
         <v>255.1849357629494</v>
@@ -2651,7 +2651,7 @@
         <v>92.18423124419718</v>
       </c>
       <c r="H27" t="n">
-        <v>43.87012085590377</v>
+        <v>43.87012085590378</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2684,7 +2684,7 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>63.25518503327256</v>
+        <v>63.25518503327257</v>
       </c>
       <c r="T27" t="n">
         <v>136.716603047384</v>
@@ -2730,10 +2730,10 @@
         <v>163.368034767446</v>
       </c>
       <c r="H28" t="n">
-        <v>134.9861473892861</v>
+        <v>134.9861473892865</v>
       </c>
       <c r="I28" t="n">
-        <v>74.90137611690734</v>
+        <v>74.90137611690733</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>11.10101424147836</v>
+        <v>11.10101424147768</v>
       </c>
       <c r="S28" t="n">
         <v>154.4130365231875</v>
@@ -2794,7 +2794,7 @@
         <v>415.2023601647255</v>
       </c>
       <c r="C29" t="n">
-        <v>250.3645922646323</v>
+        <v>422.1842022029436</v>
       </c>
       <c r="D29" t="n">
         <v>418.6121741229604</v>
@@ -2809,7 +2809,7 @@
         <v>398.1118505186417</v>
       </c>
       <c r="H29" t="n">
-        <v>276.6602838535477</v>
+        <v>104.8406739152398</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>63.31014658824076</v>
+        <v>63.31014658824073</v>
       </c>
       <c r="T29" t="n">
         <v>210.6681380803364</v>
@@ -2888,7 +2888,7 @@
         <v>92.18423124419718</v>
       </c>
       <c r="H30" t="n">
-        <v>43.87012085590377</v>
+        <v>43.87012085590378</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2921,7 +2921,7 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>63.25518503327256</v>
+        <v>63.25518503327257</v>
       </c>
       <c r="T30" t="n">
         <v>136.716603047384</v>
@@ -2970,7 +2970,7 @@
         <v>134.9861473892861</v>
       </c>
       <c r="I31" t="n">
-        <v>74.90137611690734</v>
+        <v>74.90137611690733</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>11.10101424147836</v>
+        <v>11.10101424147768</v>
       </c>
       <c r="S31" t="n">
         <v>154.4130365231875</v>
       </c>
       <c r="T31" t="n">
-        <v>237.1306425764132</v>
+        <v>237.1306425764137</v>
       </c>
       <c r="U31" t="n">
         <v>276.8926010894982</v>
@@ -3046,7 +3046,7 @@
         <v>398.1118505186417</v>
       </c>
       <c r="H32" t="n">
-        <v>104.8406739152362</v>
+        <v>276.6602838535477</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,10 +3079,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>63.31014658824076</v>
+        <v>63.31014658824073</v>
       </c>
       <c r="T32" t="n">
-        <v>210.6681380803364</v>
+        <v>38.848528142029</v>
       </c>
       <c r="U32" t="n">
         <v>255.1849357629494</v>
@@ -3125,7 +3125,7 @@
         <v>92.18423124419718</v>
       </c>
       <c r="H33" t="n">
-        <v>43.87012085590377</v>
+        <v>43.87012085590378</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3158,7 +3158,7 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>63.25518503327256</v>
+        <v>63.25518503327257</v>
       </c>
       <c r="T33" t="n">
         <v>136.716603047384</v>
@@ -3207,7 +3207,7 @@
         <v>134.9861473892861</v>
       </c>
       <c r="I34" t="n">
-        <v>74.9013761169074</v>
+        <v>74.90137611690731</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>11.10101424147769</v>
+        <v>11.10101424147768</v>
       </c>
       <c r="S34" t="n">
         <v>154.4130365231875</v>
@@ -3243,7 +3243,7 @@
         <v>237.1306425764132</v>
       </c>
       <c r="U34" t="n">
-        <v>276.8926010894985</v>
+        <v>276.892601089498</v>
       </c>
       <c r="V34" t="n">
         <v>278.4468322341621</v>
@@ -3268,19 +3268,19 @@
         <v>415.2023601647255</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>422.1842022029436</v>
       </c>
       <c r="D35" t="n">
-        <v>190.8762557985935</v>
+        <v>418.6121741229604</v>
       </c>
       <c r="E35" t="n">
-        <v>421.2696499697317</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>420.4254195086045</v>
       </c>
       <c r="G35" t="n">
-        <v>398.1118505186417</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>276.6602838535477</v>
@@ -3316,19 +3316,19 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>63.31014658824073</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>210.6681380803364</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>255.1849357629494</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>32.27807524830425</v>
       </c>
       <c r="W35" t="n">
-        <v>391.9799157187673</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -3362,7 +3362,7 @@
         <v>92.18423124419718</v>
       </c>
       <c r="H36" t="n">
-        <v>43.87012085590377</v>
+        <v>43.87012085590378</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3395,7 +3395,7 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>63.25518503327256</v>
+        <v>63.25518503327257</v>
       </c>
       <c r="T36" t="n">
         <v>136.716603047384</v>
@@ -3429,7 +3429,7 @@
         <v>169.8053170059839</v>
       </c>
       <c r="D37" t="n">
-        <v>161.2360846606077</v>
+        <v>157.7271660505296</v>
       </c>
       <c r="E37" t="n">
         <v>164.0986033047857</v>
@@ -3441,10 +3441,10 @@
         <v>163.368034767446</v>
       </c>
       <c r="H37" t="n">
-        <v>131.4772287792076</v>
+        <v>134.9861473892861</v>
       </c>
       <c r="I37" t="n">
-        <v>74.90137611690734</v>
+        <v>74.90137611690733</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>11.10101424147769</v>
+        <v>11.10101424147768</v>
       </c>
       <c r="S37" t="n">
         <v>154.4130365231875</v>
@@ -3508,19 +3508,19 @@
         <v>422.6317226868329</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E38" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F38" t="n">
-        <v>92.55133431400976</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>398.559371002531</v>
       </c>
       <c r="H38" t="n">
-        <v>277.107804337437</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,25 +3553,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>63.75766707213</v>
+        <v>9.268534158508164</v>
       </c>
       <c r="T38" t="n">
-        <v>211.1156585642257</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>255.6324562468386</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y38" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3599,7 +3599,7 @@
         <v>92.18423124419718</v>
       </c>
       <c r="H39" t="n">
-        <v>43.87012085590377</v>
+        <v>43.87012085590378</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3632,7 +3632,7 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>63.25518503327256</v>
+        <v>63.25518503327257</v>
       </c>
       <c r="T39" t="n">
         <v>136.716603047384</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0.879288373060408</v>
+        <v>0.8792883730608582</v>
       </c>
       <c r="S40" t="n">
         <v>154.8605570070767</v>
@@ -3739,25 +3739,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>150.9219965818347</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>398.559371002531</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>277.107804337437</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>63.75766707213001</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>211.1156585642257</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>2.286349755882177</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -3805,10 +3805,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3836,7 +3836,7 @@
         <v>92.18423124419718</v>
       </c>
       <c r="H42" t="n">
-        <v>43.87012085590377</v>
+        <v>43.87012085590378</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3869,7 +3869,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>63.25518503327256</v>
+        <v>63.25518503327257</v>
       </c>
       <c r="T42" t="n">
         <v>136.716603047384</v>
@@ -3903,7 +3903,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
         <v>164.546123788675</v>
@@ -3912,10 +3912,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>163.8155552513352</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>135.4336678731754</v>
       </c>
       <c r="I43" t="n">
         <v>75.34889660079659</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>11.54853472536694</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>154.8605570070767</v>
+        <v>1.141643822262715</v>
       </c>
       <c r="T43" t="n">
         <v>237.5781630603024</v>
@@ -3963,10 +3963,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X43" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>55.52712277017311</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3976,22 +3976,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C44" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E44" t="n">
-        <v>56.27475540942117</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>398.559371002531</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>63.75766707213</v>
+        <v>63.75766707213001</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -4039,13 +4039,13 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>60.53207110551205</v>
       </c>
       <c r="X44" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="45">
@@ -4073,7 +4073,7 @@
         <v>92.18423124419718</v>
       </c>
       <c r="H45" t="n">
-        <v>43.87012085590377</v>
+        <v>43.87012085590378</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>63.25518503327256</v>
+        <v>63.25518503327257</v>
       </c>
       <c r="T45" t="n">
         <v>136.716603047384</v>
@@ -4137,16 +4137,16 @@
         <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
-        <v>49.48758523998789</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4185,22 +4185,22 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>154.8605570070767</v>
       </c>
       <c r="T46" t="n">
-        <v>237.5781630603024</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>277.3401215733874</v>
+        <v>255.1617273382365</v>
       </c>
       <c r="V46" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W46" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>224.0793406271554</v>
@@ -5017,16 +5017,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>243.1207889086485</v>
+        <v>1737.738216220816</v>
       </c>
       <c r="C11" t="n">
-        <v>36.44374375637384</v>
+        <v>1310.837486234116</v>
       </c>
       <c r="D11" t="n">
-        <v>36.44374375637384</v>
+        <v>887.5448654191161</v>
       </c>
       <c r="E11" t="n">
-        <v>36.44374375637384</v>
+        <v>461.5679255669737</v>
       </c>
       <c r="F11" t="n">
         <v>36.44374375637384</v>
@@ -5038,7 +5038,7 @@
         <v>36.44374375637384</v>
       </c>
       <c r="I11" t="n">
-        <v>68.51066885001069</v>
+        <v>68.5106688500108</v>
       </c>
       <c r="J11" t="n">
         <v>185.2776040314901</v>
@@ -5047,10 +5047,10 @@
         <v>368.5259803781258</v>
       </c>
       <c r="L11" t="n">
-        <v>601.8583314679046</v>
+        <v>601.8583314679045</v>
       </c>
       <c r="M11" t="n">
-        <v>866.6318139708299</v>
+        <v>866.6318139708294</v>
       </c>
       <c r="N11" t="n">
         <v>1136.439352094366</v>
@@ -5068,25 +5068,25 @@
         <v>1822.187187818692</v>
       </c>
       <c r="S11" t="n">
-        <v>1822.187187818692</v>
+        <v>1757.78550390745</v>
       </c>
       <c r="T11" t="n">
-        <v>1822.187187818692</v>
+        <v>1757.78550390745</v>
       </c>
       <c r="U11" t="n">
-        <v>1822.187187818692</v>
+        <v>1757.78550390745</v>
       </c>
       <c r="V11" t="n">
-        <v>1464.697772944941</v>
+        <v>1757.78550390745</v>
       </c>
       <c r="W11" t="n">
-        <v>1068.306423245288</v>
+        <v>1757.78550390745</v>
       </c>
       <c r="X11" t="n">
-        <v>1068.306423245288</v>
+        <v>1757.78550390745</v>
       </c>
       <c r="Y11" t="n">
-        <v>662.9691532001785</v>
+        <v>1757.78550390745</v>
       </c>
     </row>
     <row r="12">
@@ -5111,34 +5111,34 @@
         <v>173.8723822413243</v>
       </c>
       <c r="G12" t="n">
-        <v>80.75699714617564</v>
+        <v>80.75699714617565</v>
       </c>
       <c r="H12" t="n">
         <v>36.44374375637384</v>
       </c>
       <c r="I12" t="n">
-        <v>52.09863095520342</v>
+        <v>75.55593679961527</v>
       </c>
       <c r="J12" t="n">
-        <v>410.6888099547843</v>
+        <v>434.1461157991962</v>
       </c>
       <c r="K12" t="n">
-        <v>537.027015255238</v>
+        <v>560.4843210996498</v>
       </c>
       <c r="L12" t="n">
-        <v>714.431736322319</v>
+        <v>737.8890421667307</v>
       </c>
       <c r="M12" t="n">
-        <v>1011.825849185002</v>
+        <v>948.0574750898966</v>
       </c>
       <c r="N12" t="n">
-        <v>1229.898219950763</v>
+        <v>1166.129845855658</v>
       </c>
       <c r="O12" t="n">
-        <v>1425.781118585875</v>
+        <v>1362.01274449077</v>
       </c>
       <c r="P12" t="n">
-        <v>1579.852790817417</v>
+        <v>1516.084416722312</v>
       </c>
       <c r="Q12" t="n">
         <v>1674.733754066362</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>863.931435941098</v>
+        <v>86.43120359474545</v>
       </c>
       <c r="C13" t="n">
-        <v>691.958872820014</v>
+        <v>86.43120359474545</v>
       </c>
       <c r="D13" t="n">
-        <v>528.6420999467847</v>
+        <v>86.43120359474545</v>
       </c>
       <c r="E13" t="n">
-        <v>362.4338940996382</v>
+        <v>86.43120359474545</v>
       </c>
       <c r="F13" t="n">
-        <v>190.5721198741986</v>
+        <v>86.43120359474545</v>
       </c>
       <c r="G13" t="n">
-        <v>36.44374375637384</v>
+        <v>86.43120359474545</v>
       </c>
       <c r="H13" t="n">
         <v>36.44374375637384</v>
@@ -5202,19 +5202,19 @@
         <v>70.52703643525555</v>
       </c>
       <c r="K13" t="n">
-        <v>139.3547525203369</v>
+        <v>386.637361634359</v>
       </c>
       <c r="L13" t="n">
-        <v>590.3460815054632</v>
+        <v>751.180678525767</v>
       </c>
       <c r="M13" t="n">
-        <v>688.8629773756379</v>
+        <v>849.6975743959417</v>
       </c>
       <c r="N13" t="n">
-        <v>1139.854306360764</v>
+        <v>947.1488066381296</v>
       </c>
       <c r="O13" t="n">
-        <v>1590.845635345891</v>
+        <v>1398.140135623256</v>
       </c>
       <c r="P13" t="n">
         <v>1781.995103414203</v>
@@ -5226,25 +5226,25 @@
         <v>1822.187187818692</v>
       </c>
       <c r="S13" t="n">
-        <v>1665.762382761039</v>
+        <v>1822.187187818692</v>
       </c>
       <c r="T13" t="n">
-        <v>1425.784440275885</v>
+        <v>1582.209245333538</v>
       </c>
       <c r="U13" t="n">
-        <v>1145.642903333069</v>
+        <v>1302.067708390722</v>
       </c>
       <c r="V13" t="n">
-        <v>863.931435941098</v>
+        <v>1020.356240998751</v>
       </c>
       <c r="W13" t="n">
-        <v>863.931435941098</v>
+        <v>745.503837171264</v>
       </c>
       <c r="X13" t="n">
-        <v>863.931435941098</v>
+        <v>502.9399406170691</v>
       </c>
       <c r="Y13" t="n">
-        <v>863.931435941098</v>
+        <v>276.5971723068111</v>
       </c>
     </row>
     <row r="14">
@@ -5254,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1068.306423245288</v>
+        <v>1737.738216220816</v>
       </c>
       <c r="C14" t="n">
-        <v>1068.306423245288</v>
+        <v>1310.837486234116</v>
       </c>
       <c r="D14" t="n">
-        <v>1068.306423245288</v>
+        <v>887.5448654191161</v>
       </c>
       <c r="E14" t="n">
-        <v>642.3294833931458</v>
+        <v>461.5679255669737</v>
       </c>
       <c r="F14" t="n">
-        <v>217.205301582546</v>
+        <v>36.44374375637384</v>
       </c>
       <c r="G14" t="n">
         <v>36.44374375637384</v>
@@ -5281,7 +5281,7 @@
         <v>185.27760403149</v>
       </c>
       <c r="K14" t="n">
-        <v>368.5259803781257</v>
+        <v>368.5259803781256</v>
       </c>
       <c r="L14" t="n">
         <v>601.8583314679043</v>
@@ -5305,25 +5305,25 @@
         <v>1822.187187818692</v>
       </c>
       <c r="S14" t="n">
-        <v>1822.187187818692</v>
+        <v>1757.78550390745</v>
       </c>
       <c r="T14" t="n">
-        <v>1822.187187818692</v>
+        <v>1757.78550390745</v>
       </c>
       <c r="U14" t="n">
-        <v>1822.187187818692</v>
+        <v>1757.78550390745</v>
       </c>
       <c r="V14" t="n">
-        <v>1464.697772944941</v>
+        <v>1757.78550390745</v>
       </c>
       <c r="W14" t="n">
-        <v>1068.306423245288</v>
+        <v>1757.78550390745</v>
       </c>
       <c r="X14" t="n">
-        <v>1068.306423245288</v>
+        <v>1757.78550390745</v>
       </c>
       <c r="Y14" t="n">
-        <v>1068.306423245288</v>
+        <v>1757.78550390745</v>
       </c>
     </row>
     <row r="15">
@@ -5348,34 +5348,34 @@
         <v>173.8723822413243</v>
       </c>
       <c r="G15" t="n">
-        <v>80.75699714617564</v>
+        <v>80.75699714617565</v>
       </c>
       <c r="H15" t="n">
         <v>36.44374375637384</v>
       </c>
       <c r="I15" t="n">
-        <v>52.09863095520342</v>
+        <v>75.55593679961525</v>
       </c>
       <c r="J15" t="n">
-        <v>118.5863174851933</v>
+        <v>434.1461157991962</v>
       </c>
       <c r="K15" t="n">
-        <v>244.9245227856469</v>
+        <v>560.4843210996498</v>
       </c>
       <c r="L15" t="n">
-        <v>422.3292438527279</v>
+        <v>737.8890421667307</v>
       </c>
       <c r="M15" t="n">
-        <v>632.4976767758938</v>
+        <v>948.0574750898966</v>
       </c>
       <c r="N15" t="n">
-        <v>1083.48900576102</v>
+        <v>1166.129845855658</v>
       </c>
       <c r="O15" t="n">
-        <v>1279.371904396133</v>
+        <v>1362.01274449077</v>
       </c>
       <c r="P15" t="n">
-        <v>1433.443576627674</v>
+        <v>1516.084416722312</v>
       </c>
       <c r="Q15" t="n">
         <v>1674.733754066362</v>
@@ -5412,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>210.147935479908</v>
+        <v>199.7605166296031</v>
       </c>
       <c r="C16" t="n">
-        <v>38.17537235882398</v>
+        <v>199.7605166296031</v>
       </c>
       <c r="D16" t="n">
-        <v>38.17537235882398</v>
+        <v>36.44374375637384</v>
       </c>
       <c r="E16" t="n">
-        <v>38.17537235882398</v>
+        <v>36.44374375637384</v>
       </c>
       <c r="F16" t="n">
-        <v>38.17537235882398</v>
+        <v>36.44374375637384</v>
       </c>
       <c r="G16" t="n">
         <v>36.44374375637384</v>
@@ -5445,13 +5445,13 @@
         <v>590.3460815054632</v>
       </c>
       <c r="M16" t="n">
-        <v>808.913682226311</v>
+        <v>688.8629773756379</v>
       </c>
       <c r="N16" t="n">
-        <v>1259.905011211437</v>
+        <v>947.1488066381296</v>
       </c>
       <c r="O16" t="n">
-        <v>1710.896340196564</v>
+        <v>1398.140135623256</v>
       </c>
       <c r="P16" t="n">
         <v>1781.995103414203</v>
@@ -5460,28 +5460,28 @@
         <v>1822.187187818692</v>
       </c>
       <c r="R16" t="n">
-        <v>1822.187187818692</v>
+        <v>1810.522001227412</v>
       </c>
       <c r="S16" t="n">
-        <v>1665.762382761039</v>
+        <v>1810.522001227412</v>
       </c>
       <c r="T16" t="n">
-        <v>1425.784440275885</v>
+        <v>1695.538558368396</v>
       </c>
       <c r="U16" t="n">
-        <v>1425.784440275885</v>
+        <v>1415.39702142558</v>
       </c>
       <c r="V16" t="n">
-        <v>1144.072972883914</v>
+        <v>1133.685554033609</v>
       </c>
       <c r="W16" t="n">
-        <v>869.2205690564265</v>
+        <v>858.8331502061217</v>
       </c>
       <c r="X16" t="n">
-        <v>626.6566725022316</v>
+        <v>616.2692536519268</v>
       </c>
       <c r="Y16" t="n">
-        <v>400.3139041919736</v>
+        <v>389.9264853416688</v>
       </c>
     </row>
     <row r="17">
@@ -5491,16 +5491,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>898.1059225870105</v>
+        <v>1643.858321701137</v>
       </c>
       <c r="C17" t="n">
-        <v>898.1059225870105</v>
+        <v>1591.007066572246</v>
       </c>
       <c r="D17" t="n">
-        <v>898.1059225870105</v>
+        <v>1167.714445757246</v>
       </c>
       <c r="E17" t="n">
-        <v>898.1059225870105</v>
+        <v>1167.714445757246</v>
       </c>
       <c r="F17" t="n">
         <v>742.5902639466462</v>
@@ -5512,28 +5512,28 @@
         <v>60.09816764364835</v>
       </c>
       <c r="I17" t="n">
-        <v>92.16509273728522</v>
+        <v>92.16509273728519</v>
       </c>
       <c r="J17" t="n">
-        <v>208.9320279187646</v>
+        <v>600.6612466263907</v>
       </c>
       <c r="K17" t="n">
-        <v>392.1804042654003</v>
+        <v>783.9096229730263</v>
       </c>
       <c r="L17" t="n">
-        <v>625.512755355179</v>
+        <v>1017.241974062805</v>
       </c>
       <c r="M17" t="n">
-        <v>890.2862378581042</v>
+        <v>1282.01545656573</v>
       </c>
       <c r="N17" t="n">
-        <v>1160.093775981641</v>
+        <v>1551.822994689267</v>
       </c>
       <c r="O17" t="n">
-        <v>1412.698403437961</v>
+        <v>1885.797483726299</v>
       </c>
       <c r="P17" t="n">
-        <v>2137.663400953711</v>
+        <v>2629.512308316447</v>
       </c>
       <c r="Q17" t="n">
         <v>2779.374822224096</v>
@@ -5551,16 +5551,16 @@
         <v>2469.043956037776</v>
       </c>
       <c r="V17" t="n">
-        <v>2111.554541164026</v>
+        <v>2469.043956037776</v>
       </c>
       <c r="W17" t="n">
-        <v>1715.163191464373</v>
+        <v>2469.043956037776</v>
       </c>
       <c r="X17" t="n">
-        <v>1303.44319263212</v>
+        <v>2469.043956037776</v>
       </c>
       <c r="Y17" t="n">
-        <v>898.1059225870105</v>
+        <v>2063.706685992667</v>
       </c>
     </row>
     <row r="18">
@@ -5591,31 +5591,31 @@
         <v>60.09816764364835</v>
       </c>
       <c r="I18" t="n">
-        <v>75.75305484247794</v>
+        <v>99.21036068688977</v>
       </c>
       <c r="J18" t="n">
-        <v>142.2407413724678</v>
+        <v>457.8005396864707</v>
       </c>
       <c r="K18" t="n">
-        <v>268.5789466729215</v>
+        <v>647.9071190820298</v>
       </c>
       <c r="L18" t="n">
-        <v>445.9836677400024</v>
+        <v>825.3118401491107</v>
       </c>
       <c r="M18" t="n">
-        <v>656.1521006631683</v>
+        <v>1035.480273072277</v>
       </c>
       <c r="N18" t="n">
-        <v>874.2244714289293</v>
+        <v>1253.552643838038</v>
       </c>
       <c r="O18" t="n">
-        <v>1070.107370064042</v>
+        <v>1449.43554247315</v>
       </c>
       <c r="P18" t="n">
-        <v>1224.179042295584</v>
+        <v>1603.507214704692</v>
       </c>
       <c r="Q18" t="n">
-        <v>1803.843678238542</v>
+        <v>1698.388177953637</v>
       </c>
       <c r="R18" t="n">
         <v>1837.510357713665</v>
@@ -5673,16 +5673,16 @@
         <v>60.09816764364835</v>
       </c>
       <c r="J19" t="n">
-        <v>172.1031769707512</v>
+        <v>172.1031769707509</v>
       </c>
       <c r="K19" t="n">
-        <v>488.2135021698546</v>
+        <v>488.2135021698543</v>
       </c>
       <c r="L19" t="n">
-        <v>957.5378679232641</v>
+        <v>957.5378679232638</v>
       </c>
       <c r="M19" t="n">
-        <v>1469.590244256261</v>
+        <v>1469.59024425626</v>
       </c>
       <c r="N19" t="n">
         <v>1965.074399340328</v>
@@ -5728,34 +5728,34 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1921.508145576244</v>
+        <v>691.5056982593449</v>
       </c>
       <c r="C20" t="n">
-        <v>1494.607415589544</v>
+        <v>264.604968272645</v>
       </c>
       <c r="D20" t="n">
-        <v>1071.314794774544</v>
+        <v>264.604968272645</v>
       </c>
       <c r="E20" t="n">
-        <v>645.337854922402</v>
+        <v>264.604968272645</v>
       </c>
       <c r="F20" t="n">
-        <v>220.2136731118022</v>
+        <v>264.604968272645</v>
       </c>
       <c r="G20" t="n">
-        <v>60.09816764364835</v>
+        <v>264.604968272645</v>
       </c>
       <c r="H20" t="n">
         <v>60.09816764364835</v>
       </c>
       <c r="I20" t="n">
-        <v>92.16509273728522</v>
+        <v>92.16509273728519</v>
       </c>
       <c r="J20" t="n">
         <v>600.6612466263907</v>
       </c>
       <c r="K20" t="n">
-        <v>783.9096229730264</v>
+        <v>783.9096229730263</v>
       </c>
       <c r="L20" t="n">
         <v>1017.241974062805</v>
@@ -5767,10 +5767,10 @@
         <v>1551.822994689267</v>
       </c>
       <c r="O20" t="n">
-        <v>1804.427622145588</v>
+        <v>1804.427622145587</v>
       </c>
       <c r="P20" t="n">
-        <v>2137.663400953711</v>
+        <v>2137.663400953712</v>
       </c>
       <c r="Q20" t="n">
         <v>2779.374822224096</v>
@@ -5779,25 +5779,25 @@
         <v>3004.908382182417</v>
       </c>
       <c r="S20" t="n">
-        <v>3004.908382182417</v>
+        <v>2940.506698271175</v>
       </c>
       <c r="T20" t="n">
-        <v>3004.908382182417</v>
+        <v>2940.506698271175</v>
       </c>
       <c r="U20" t="n">
-        <v>2746.693779912884</v>
+        <v>2682.292096001641</v>
       </c>
       <c r="V20" t="n">
-        <v>2746.693779912884</v>
+        <v>2324.802681127891</v>
       </c>
       <c r="W20" t="n">
-        <v>2746.693779912884</v>
+        <v>1928.411331428237</v>
       </c>
       <c r="X20" t="n">
-        <v>2746.693779912884</v>
+        <v>1516.691332595985</v>
       </c>
       <c r="Y20" t="n">
-        <v>2341.356509867774</v>
+        <v>1111.354062550875</v>
       </c>
     </row>
     <row r="21">
@@ -5828,31 +5828,31 @@
         <v>60.09816764364835</v>
       </c>
       <c r="I21" t="n">
-        <v>75.75305484247794</v>
+        <v>99.21036068688977</v>
       </c>
       <c r="J21" t="n">
-        <v>142.2407413724678</v>
+        <v>457.8005396864707</v>
       </c>
       <c r="K21" t="n">
-        <v>268.5789466729215</v>
+        <v>753.3626193669356</v>
       </c>
       <c r="L21" t="n">
-        <v>445.9836677400024</v>
+        <v>930.7673404340165</v>
       </c>
       <c r="M21" t="n">
-        <v>656.1521006631683</v>
+        <v>1140.935773357182</v>
       </c>
       <c r="N21" t="n">
-        <v>874.2244714289293</v>
+        <v>1359.008144122943</v>
       </c>
       <c r="O21" t="n">
-        <v>1070.107370064042</v>
+        <v>1554.891042758056</v>
       </c>
       <c r="P21" t="n">
-        <v>1224.179042295584</v>
+        <v>1708.962714989598</v>
       </c>
       <c r="Q21" t="n">
-        <v>1803.843678238542</v>
+        <v>1803.843678238543</v>
       </c>
       <c r="R21" t="n">
         <v>1837.510357713665</v>
@@ -5886,13 +5886,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1101.062406309538</v>
+        <v>1111.83942282702</v>
       </c>
       <c r="C22" t="n">
-        <v>929.0898431884539</v>
+        <v>939.8668597059357</v>
       </c>
       <c r="D22" t="n">
-        <v>765.7730703152246</v>
+        <v>776.5500868327064</v>
       </c>
       <c r="E22" t="n">
         <v>610.3418809855599</v>
@@ -5910,19 +5910,19 @@
         <v>60.09816764364835</v>
       </c>
       <c r="J22" t="n">
-        <v>172.1031769707511</v>
+        <v>172.1031769707515</v>
       </c>
       <c r="K22" t="n">
         <v>488.2135021698546</v>
       </c>
       <c r="L22" t="n">
-        <v>957.537867923264</v>
+        <v>957.5378679232642</v>
       </c>
       <c r="M22" t="n">
         <v>1469.590244256261</v>
       </c>
       <c r="N22" t="n">
-        <v>1965.074399340328</v>
+        <v>1965.074399340329</v>
       </c>
       <c r="O22" t="n">
         <v>2429.487832609082</v>
@@ -5934,28 +5934,28 @@
         <v>3004.908382182417</v>
       </c>
       <c r="R22" t="n">
-        <v>2993.243195591137</v>
+        <v>3004.020212108619</v>
       </c>
       <c r="S22" t="n">
-        <v>2836.818390533484</v>
+        <v>2847.595407050966</v>
       </c>
       <c r="T22" t="n">
-        <v>2596.84044804833</v>
+        <v>2607.617464565812</v>
       </c>
       <c r="U22" t="n">
-        <v>2316.698911105515</v>
+        <v>2327.475927622996</v>
       </c>
       <c r="V22" t="n">
-        <v>2034.987443713543</v>
+        <v>2045.764460231025</v>
       </c>
       <c r="W22" t="n">
-        <v>1760.135039886056</v>
+        <v>1770.912056403538</v>
       </c>
       <c r="X22" t="n">
-        <v>1517.571143331862</v>
+        <v>1528.348159849343</v>
       </c>
       <c r="Y22" t="n">
-        <v>1291.228375021604</v>
+        <v>1302.005391539085</v>
       </c>
     </row>
     <row r="23">
@@ -5983,7 +5983,7 @@
         <v>375.9967435753229</v>
       </c>
       <c r="H23" t="n">
-        <v>96.54191140002212</v>
+        <v>96.54191140002219</v>
       </c>
       <c r="I23" t="n">
         <v>128.608836493659</v>
@@ -5992,49 +5992,49 @@
         <v>637.1049903827645</v>
       </c>
       <c r="K23" t="n">
-        <v>874.5155103959671</v>
+        <v>1571.26862949176</v>
       </c>
       <c r="L23" t="n">
-        <v>1107.847861485746</v>
+        <v>1804.600980581539</v>
       </c>
       <c r="M23" t="n">
-        <v>2302.55401506102</v>
+        <v>2069.374463084464</v>
       </c>
       <c r="N23" t="n">
-        <v>3497.260168636293</v>
+        <v>2339.182001208</v>
       </c>
       <c r="O23" t="n">
-        <v>3749.864796092614</v>
+        <v>3473.948328577597</v>
       </c>
       <c r="P23" t="n">
-        <v>3959.8505887724</v>
+        <v>3959.850588772404</v>
       </c>
       <c r="Q23" t="n">
-        <v>4601.562010042784</v>
+        <v>4601.562010042788</v>
       </c>
       <c r="R23" t="n">
-        <v>4827.095570001105</v>
+        <v>4827.095570001109</v>
       </c>
       <c r="S23" t="n">
-        <v>4827.095570001105</v>
+        <v>4763.145926982684</v>
       </c>
       <c r="T23" t="n">
-        <v>4723.904989465483</v>
+        <v>4550.349827911637</v>
       </c>
       <c r="U23" t="n">
-        <v>4466.142428088766</v>
+        <v>4292.58726653492</v>
       </c>
       <c r="V23" t="n">
-        <v>4109.105054107833</v>
+        <v>3935.549892553987</v>
       </c>
       <c r="W23" t="n">
-        <v>3713.165745300997</v>
+        <v>3539.610583747151</v>
       </c>
       <c r="X23" t="n">
-        <v>3301.897787361562</v>
+        <v>3128.342625807716</v>
       </c>
       <c r="Y23" t="n">
-        <v>2897.01255820927</v>
+        <v>2723.457396655424</v>
       </c>
     </row>
     <row r="24">
@@ -6044,52 +6044,52 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>653.6641758963414</v>
+        <v>653.6641758963415</v>
       </c>
       <c r="C24" t="n">
-        <v>536.1582724138461</v>
+        <v>536.1582724138462</v>
       </c>
       <c r="D24" t="n">
-        <v>432.3183139291312</v>
+        <v>432.3183139291313</v>
       </c>
       <c r="E24" t="n">
-        <v>327.6163802020684</v>
+        <v>327.6163802020685</v>
       </c>
       <c r="F24" t="n">
-        <v>233.9705498849726</v>
+        <v>233.9705498849727</v>
       </c>
       <c r="G24" t="n">
-        <v>140.8551647898239</v>
+        <v>140.855164789824</v>
       </c>
       <c r="H24" t="n">
-        <v>96.54191140002212</v>
+        <v>96.54191140002219</v>
       </c>
       <c r="I24" t="n">
-        <v>112.1967985988517</v>
+        <v>135.6541044432636</v>
       </c>
       <c r="J24" t="n">
-        <v>178.6844851288416</v>
+        <v>494.2442834428446</v>
       </c>
       <c r="K24" t="n">
-        <v>305.0226904292952</v>
+        <v>620.5824887432982</v>
       </c>
       <c r="L24" t="n">
-        <v>482.4274114963762</v>
+        <v>797.9872098103791</v>
       </c>
       <c r="M24" t="n">
-        <v>692.5958444195421</v>
+        <v>1008.155642733545</v>
       </c>
       <c r="N24" t="n">
-        <v>910.6682151853031</v>
+        <v>1289.996387594411</v>
       </c>
       <c r="O24" t="n">
-        <v>1106.551113820416</v>
+        <v>1485.879286229524</v>
       </c>
       <c r="P24" t="n">
-        <v>1745.406458745971</v>
+        <v>1639.950958461066</v>
       </c>
       <c r="Q24" t="n">
-        <v>1840.287421994916</v>
+        <v>1734.831921710011</v>
       </c>
       <c r="R24" t="n">
         <v>1873.954101470039</v>
@@ -6110,10 +6110,10 @@
         <v>1085.761420196449</v>
       </c>
       <c r="X24" t="n">
-        <v>922.2840739631117</v>
+        <v>922.2840739631118</v>
       </c>
       <c r="Y24" t="n">
-        <v>782.5911853164041</v>
+        <v>782.5911853164042</v>
       </c>
     </row>
     <row r="25">
@@ -6144,7 +6144,7 @@
         <v>172.1998670736664</v>
       </c>
       <c r="I25" t="n">
-        <v>96.54191140002212</v>
+        <v>96.54191140002219</v>
       </c>
       <c r="J25" t="n">
         <v>208.9899660061751</v>
@@ -6220,40 +6220,40 @@
         <v>375.9967435753229</v>
       </c>
       <c r="H26" t="n">
-        <v>96.54191140002212</v>
+        <v>96.54191140002219</v>
       </c>
       <c r="I26" t="n">
         <v>128.608836493659</v>
       </c>
       <c r="J26" t="n">
-        <v>245.3757716751384</v>
+        <v>637.1049903827645</v>
       </c>
       <c r="K26" t="n">
-        <v>428.624148021774</v>
+        <v>1571.26862949176</v>
       </c>
       <c r="L26" t="n">
-        <v>869.7737272129566</v>
+        <v>1804.600980581539</v>
       </c>
       <c r="M26" t="n">
-        <v>2064.47988078823</v>
+        <v>2481.973743162705</v>
       </c>
       <c r="N26" t="n">
-        <v>3259.186034363504</v>
+        <v>2751.781281286241</v>
       </c>
       <c r="O26" t="n">
-        <v>4393.952361733101</v>
+        <v>3004.385908742562</v>
       </c>
       <c r="P26" t="n">
-        <v>4603.938154412886</v>
+        <v>3959.850588772404</v>
       </c>
       <c r="Q26" t="n">
-        <v>4753.800668320535</v>
+        <v>4601.562010042788</v>
       </c>
       <c r="R26" t="n">
-        <v>4827.095570001105</v>
+        <v>4827.095570001109</v>
       </c>
       <c r="S26" t="n">
-        <v>4763.14592698268</v>
+        <v>4763.145926982684</v>
       </c>
       <c r="T26" t="n">
         <v>4723.904989465483</v>
@@ -6281,52 +6281,52 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>653.6641758963414</v>
+        <v>653.6641758963415</v>
       </c>
       <c r="C27" t="n">
-        <v>536.1582724138461</v>
+        <v>536.1582724138462</v>
       </c>
       <c r="D27" t="n">
-        <v>432.3183139291312</v>
+        <v>432.3183139291313</v>
       </c>
       <c r="E27" t="n">
-        <v>327.6163802020684</v>
+        <v>327.6163802020685</v>
       </c>
       <c r="F27" t="n">
-        <v>233.9705498849726</v>
+        <v>233.9705498849727</v>
       </c>
       <c r="G27" t="n">
-        <v>140.8551647898239</v>
+        <v>140.855164789824</v>
       </c>
       <c r="H27" t="n">
-        <v>96.54191140002212</v>
+        <v>96.54191140002219</v>
       </c>
       <c r="I27" t="n">
-        <v>112.1967985988517</v>
+        <v>135.6541044432636</v>
       </c>
       <c r="J27" t="n">
-        <v>178.6844851288416</v>
+        <v>494.2442834428446</v>
       </c>
       <c r="K27" t="n">
-        <v>305.0226904292952</v>
+        <v>620.5824887432982</v>
       </c>
       <c r="L27" t="n">
-        <v>482.4274114963762</v>
+        <v>797.9872098103791</v>
       </c>
       <c r="M27" t="n">
-        <v>692.5958444195421</v>
+        <v>1008.155642733545</v>
       </c>
       <c r="N27" t="n">
-        <v>910.6682151853031</v>
+        <v>1289.996387594411</v>
       </c>
       <c r="O27" t="n">
-        <v>1591.33478651443</v>
+        <v>1485.879286229524</v>
       </c>
       <c r="P27" t="n">
-        <v>1745.406458745971</v>
+        <v>1639.950958461066</v>
       </c>
       <c r="Q27" t="n">
-        <v>1840.287421994916</v>
+        <v>1734.831921710011</v>
       </c>
       <c r="R27" t="n">
         <v>1873.954101470039</v>
@@ -6347,10 +6347,10 @@
         <v>1085.761420196449</v>
       </c>
       <c r="X27" t="n">
-        <v>922.2840739631117</v>
+        <v>922.2840739631118</v>
       </c>
       <c r="Y27" t="n">
-        <v>782.5911853164041</v>
+        <v>782.5911853164042</v>
       </c>
     </row>
     <row r="28">
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1145.118880333671</v>
+        <v>1145.118880333672</v>
       </c>
       <c r="C28" t="n">
-        <v>973.5983581054048</v>
+        <v>973.5983581054054</v>
       </c>
       <c r="D28" t="n">
-        <v>810.733626124993</v>
+        <v>810.7336261249935</v>
       </c>
       <c r="E28" t="n">
-        <v>644.9774611706639</v>
+        <v>644.9774611706645</v>
       </c>
       <c r="F28" t="n">
-        <v>473.5677278380417</v>
+        <v>473.5677278380423</v>
       </c>
       <c r="G28" t="n">
-        <v>308.5495109012276</v>
+        <v>308.5495109012281</v>
       </c>
       <c r="H28" t="n">
-        <v>172.1998670736659</v>
+        <v>172.199867073666</v>
       </c>
       <c r="I28" t="n">
-        <v>96.54191140002212</v>
+        <v>96.54191140002219</v>
       </c>
       <c r="J28" t="n">
         <v>208.9899660061751</v>
@@ -6408,25 +6408,25 @@
         <v>3044.896488171194</v>
       </c>
       <c r="R28" t="n">
-        <v>3033.683342472731</v>
+        <v>3033.683342472732</v>
       </c>
       <c r="S28" t="n">
-        <v>2877.710578307895</v>
+        <v>2877.710578307896</v>
       </c>
       <c r="T28" t="n">
-        <v>2638.184676715558</v>
+        <v>2638.184676715559</v>
       </c>
       <c r="U28" t="n">
-        <v>2358.49518066556</v>
+        <v>2358.495180665561</v>
       </c>
       <c r="V28" t="n">
-        <v>2077.235754166407</v>
+        <v>2077.235754166408</v>
       </c>
       <c r="W28" t="n">
         <v>1802.835391231738</v>
       </c>
       <c r="X28" t="n">
-        <v>1560.72353557036</v>
+        <v>1560.723535570361</v>
       </c>
       <c r="Y28" t="n">
         <v>1334.83280815292</v>
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2304.061073256707</v>
+        <v>2304.061073256711</v>
       </c>
       <c r="C29" t="n">
-        <v>2051.167545716675</v>
+        <v>1877.612384162829</v>
       </c>
       <c r="D29" t="n">
-        <v>1628.326965794492</v>
+        <v>1454.771804240646</v>
       </c>
       <c r="E29" t="n">
-        <v>1202.802066835168</v>
+        <v>1029.246905281321</v>
       </c>
       <c r="F29" t="n">
-        <v>778.1299259173852</v>
+        <v>604.5747643635389</v>
       </c>
       <c r="G29" t="n">
-        <v>375.9967435753229</v>
+        <v>202.4415820214765</v>
       </c>
       <c r="H29" t="n">
-        <v>96.54191140002212</v>
+        <v>96.54191140002219</v>
       </c>
       <c r="I29" t="n">
         <v>128.608836493659</v>
       </c>
       <c r="J29" t="n">
-        <v>245.3757716751384</v>
+        <v>637.1049903827645</v>
       </c>
       <c r="K29" t="n">
-        <v>428.624148021774</v>
+        <v>820.3533667294001</v>
       </c>
       <c r="L29" t="n">
-        <v>1623.330301597048</v>
+        <v>1053.685717819179</v>
       </c>
       <c r="M29" t="n">
-        <v>2064.47988078823</v>
+        <v>2248.391871394453</v>
       </c>
       <c r="N29" t="n">
-        <v>3259.186034363504</v>
+        <v>2518.199409517989</v>
       </c>
       <c r="O29" t="n">
-        <v>4393.952361733101</v>
+        <v>3004.385908742562</v>
       </c>
       <c r="P29" t="n">
-        <v>4603.938154412886</v>
+        <v>3959.850588772404</v>
       </c>
       <c r="Q29" t="n">
-        <v>4753.800668320535</v>
+        <v>4601.562010042788</v>
       </c>
       <c r="R29" t="n">
-        <v>4827.095570001105</v>
+        <v>4827.095570001109</v>
       </c>
       <c r="S29" t="n">
-        <v>4763.14592698268</v>
+        <v>4763.145926982684</v>
       </c>
       <c r="T29" t="n">
-        <v>4550.349827911633</v>
+        <v>4550.349827911637</v>
       </c>
       <c r="U29" t="n">
-        <v>4292.587266534916</v>
+        <v>4292.58726653492</v>
       </c>
       <c r="V29" t="n">
-        <v>3935.549892553983</v>
+        <v>3935.549892553987</v>
       </c>
       <c r="W29" t="n">
-        <v>3539.610583747148</v>
+        <v>3539.610583747151</v>
       </c>
       <c r="X29" t="n">
-        <v>3128.342625807712</v>
+        <v>3128.342625807716</v>
       </c>
       <c r="Y29" t="n">
-        <v>2723.45739665542</v>
+        <v>2723.457396655424</v>
       </c>
     </row>
     <row r="30">
@@ -6518,52 +6518,52 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>653.6641758963414</v>
+        <v>653.6641758963415</v>
       </c>
       <c r="C30" t="n">
-        <v>536.1582724138461</v>
+        <v>536.1582724138462</v>
       </c>
       <c r="D30" t="n">
-        <v>432.3183139291312</v>
+        <v>432.3183139291313</v>
       </c>
       <c r="E30" t="n">
-        <v>327.6163802020684</v>
+        <v>327.6163802020685</v>
       </c>
       <c r="F30" t="n">
-        <v>233.9705498849726</v>
+        <v>233.9705498849727</v>
       </c>
       <c r="G30" t="n">
-        <v>140.8551647898239</v>
+        <v>140.855164789824</v>
       </c>
       <c r="H30" t="n">
-        <v>96.54191140002212</v>
+        <v>96.54191140002219</v>
       </c>
       <c r="I30" t="n">
-        <v>112.1967985988517</v>
+        <v>135.6541044432636</v>
       </c>
       <c r="J30" t="n">
-        <v>178.6844851288416</v>
+        <v>494.2442834428446</v>
       </c>
       <c r="K30" t="n">
-        <v>305.0226904292952</v>
+        <v>620.5824887432982</v>
       </c>
       <c r="L30" t="n">
-        <v>482.4274114963762</v>
+        <v>797.9872098103791</v>
       </c>
       <c r="M30" t="n">
-        <v>1177.379517113556</v>
+        <v>1008.155642733545</v>
       </c>
       <c r="N30" t="n">
-        <v>1395.451887879317</v>
+        <v>1226.228013499306</v>
       </c>
       <c r="O30" t="n">
-        <v>1591.33478651443</v>
+        <v>1422.110912134419</v>
       </c>
       <c r="P30" t="n">
-        <v>1745.406458745971</v>
+        <v>1576.18258436596</v>
       </c>
       <c r="Q30" t="n">
-        <v>1840.287421994916</v>
+        <v>1734.831921710011</v>
       </c>
       <c r="R30" t="n">
         <v>1873.954101470039</v>
@@ -6584,10 +6584,10 @@
         <v>1085.761420196449</v>
       </c>
       <c r="X30" t="n">
-        <v>922.2840739631117</v>
+        <v>922.2840739631118</v>
       </c>
       <c r="Y30" t="n">
-        <v>782.5911853164041</v>
+        <v>782.5911853164042</v>
       </c>
     </row>
     <row r="31">
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1145.118880333671</v>
+        <v>1145.118880333672</v>
       </c>
       <c r="C31" t="n">
-        <v>973.5983581054048</v>
+        <v>973.5983581054049</v>
       </c>
       <c r="D31" t="n">
-        <v>810.733626124993</v>
+        <v>810.7336261249931</v>
       </c>
       <c r="E31" t="n">
-        <v>644.9774611706639</v>
+        <v>644.977461170664</v>
       </c>
       <c r="F31" t="n">
-        <v>473.5677278380417</v>
+        <v>473.5677278380418</v>
       </c>
       <c r="G31" t="n">
-        <v>308.5495109012276</v>
+        <v>308.5495109012277</v>
       </c>
       <c r="H31" t="n">
-        <v>172.1998670736659</v>
+        <v>172.199867073666</v>
       </c>
       <c r="I31" t="n">
-        <v>96.54191140002212</v>
+        <v>96.54191140002219</v>
       </c>
       <c r="J31" t="n">
         <v>208.9899660061751</v>
@@ -6645,16 +6645,16 @@
         <v>3044.896488171194</v>
       </c>
       <c r="R31" t="n">
-        <v>3033.683342472731</v>
+        <v>3033.683342472732</v>
       </c>
       <c r="S31" t="n">
-        <v>2877.710578307895</v>
+        <v>2877.710578307896</v>
       </c>
       <c r="T31" t="n">
-        <v>2638.184676715558</v>
+        <v>2638.184676715559</v>
       </c>
       <c r="U31" t="n">
-        <v>2358.49518066556</v>
+        <v>2358.495180665561</v>
       </c>
       <c r="V31" t="n">
         <v>2077.235754166407</v>
@@ -6676,31 +6676,31 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2304.061073256707</v>
+        <v>2477.616234810557</v>
       </c>
       <c r="C32" t="n">
-        <v>1877.612384162825</v>
+        <v>2051.167545716675</v>
       </c>
       <c r="D32" t="n">
-        <v>1454.771804240643</v>
+        <v>1628.326965794492</v>
       </c>
       <c r="E32" t="n">
-        <v>1029.246905281318</v>
+        <v>1202.802066835168</v>
       </c>
       <c r="F32" t="n">
-        <v>604.5747643635352</v>
+        <v>778.1299259173852</v>
       </c>
       <c r="G32" t="n">
-        <v>202.4415820214729</v>
+        <v>375.9967435753229</v>
       </c>
       <c r="H32" t="n">
-        <v>96.54191140002212</v>
+        <v>96.54191140002219</v>
       </c>
       <c r="I32" t="n">
         <v>128.608836493659</v>
       </c>
       <c r="J32" t="n">
-        <v>245.3757716751384</v>
+        <v>245.3757716751383</v>
       </c>
       <c r="K32" t="n">
         <v>1179.539410784134</v>
@@ -6709,43 +6709,43 @@
         <v>1412.871761873913</v>
       </c>
       <c r="M32" t="n">
-        <v>2607.577915449187</v>
+        <v>1677.645244376838</v>
       </c>
       <c r="N32" t="n">
-        <v>3395.868846926723</v>
+        <v>1947.452782500374</v>
       </c>
       <c r="O32" t="n">
-        <v>3648.473474383044</v>
+        <v>3082.219109869971</v>
       </c>
       <c r="P32" t="n">
-        <v>4603.938154412886</v>
+        <v>4037.683789899813</v>
       </c>
       <c r="Q32" t="n">
-        <v>4753.800668320535</v>
+        <v>4679.395211170197</v>
       </c>
       <c r="R32" t="n">
-        <v>4827.095570001105</v>
+        <v>4827.095570001109</v>
       </c>
       <c r="S32" t="n">
-        <v>4763.14592698268</v>
+        <v>4763.145926982684</v>
       </c>
       <c r="T32" t="n">
-        <v>4550.349827911633</v>
+        <v>4723.904989465483</v>
       </c>
       <c r="U32" t="n">
-        <v>4292.587266534916</v>
+        <v>4466.142428088766</v>
       </c>
       <c r="V32" t="n">
-        <v>3935.549892553983</v>
+        <v>4109.105054107833</v>
       </c>
       <c r="W32" t="n">
-        <v>3539.610583747148</v>
+        <v>3713.165745300997</v>
       </c>
       <c r="X32" t="n">
-        <v>3128.342625807712</v>
+        <v>3301.897787361562</v>
       </c>
       <c r="Y32" t="n">
-        <v>2723.45739665542</v>
+        <v>2897.01255820927</v>
       </c>
     </row>
     <row r="33">
@@ -6755,52 +6755,52 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>653.6641758963414</v>
+        <v>653.6641758963415</v>
       </c>
       <c r="C33" t="n">
-        <v>536.1582724138461</v>
+        <v>536.1582724138462</v>
       </c>
       <c r="D33" t="n">
-        <v>432.3183139291312</v>
+        <v>432.3183139291313</v>
       </c>
       <c r="E33" t="n">
-        <v>327.6163802020684</v>
+        <v>327.6163802020685</v>
       </c>
       <c r="F33" t="n">
-        <v>233.9705498849726</v>
+        <v>233.9705498849727</v>
       </c>
       <c r="G33" t="n">
-        <v>140.8551647898239</v>
+        <v>140.855164789824</v>
       </c>
       <c r="H33" t="n">
-        <v>96.54191140002212</v>
+        <v>96.54191140002219</v>
       </c>
       <c r="I33" t="n">
-        <v>112.1967985988517</v>
+        <v>135.6541044432636</v>
       </c>
       <c r="J33" t="n">
-        <v>178.6844851288416</v>
+        <v>494.2442834428446</v>
       </c>
       <c r="K33" t="n">
-        <v>305.0226904292952</v>
+        <v>620.5824887432982</v>
       </c>
       <c r="L33" t="n">
-        <v>482.4274114963762</v>
+        <v>797.9872098103791</v>
       </c>
       <c r="M33" t="n">
-        <v>692.5958444195421</v>
+        <v>1008.155642733545</v>
       </c>
       <c r="N33" t="n">
-        <v>1395.451887879317</v>
+        <v>1289.996387594411</v>
       </c>
       <c r="O33" t="n">
-        <v>1591.33478651443</v>
+        <v>1485.879286229524</v>
       </c>
       <c r="P33" t="n">
-        <v>1745.406458745971</v>
+        <v>1639.950958461066</v>
       </c>
       <c r="Q33" t="n">
-        <v>1840.287421994916</v>
+        <v>1734.831921710011</v>
       </c>
       <c r="R33" t="n">
         <v>1873.954101470039</v>
@@ -6821,10 +6821,10 @@
         <v>1085.761420196449</v>
       </c>
       <c r="X33" t="n">
-        <v>922.2840739631117</v>
+        <v>922.2840739631118</v>
       </c>
       <c r="Y33" t="n">
-        <v>782.5911853164041</v>
+        <v>782.5911853164042</v>
       </c>
     </row>
     <row r="34">
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1145.118880333671</v>
+        <v>1145.118880333672</v>
       </c>
       <c r="C34" t="n">
-        <v>973.5983581054048</v>
+        <v>973.5983581054053</v>
       </c>
       <c r="D34" t="n">
-        <v>810.733626124993</v>
+        <v>810.7336261249934</v>
       </c>
       <c r="E34" t="n">
-        <v>644.9774611706639</v>
+        <v>644.9774611706644</v>
       </c>
       <c r="F34" t="n">
-        <v>473.5677278380417</v>
+        <v>473.5677278380422</v>
       </c>
       <c r="G34" t="n">
         <v>308.5495109012277</v>
       </c>
       <c r="H34" t="n">
-        <v>172.199867073666</v>
+        <v>172.1998670736659</v>
       </c>
       <c r="I34" t="n">
-        <v>96.54191140002212</v>
+        <v>96.54191140002217</v>
       </c>
       <c r="J34" t="n">
         <v>208.9899660061751</v>
@@ -6867,7 +6867,7 @@
         <v>995.3107475167888</v>
       </c>
       <c r="M34" t="n">
-        <v>1507.806169128836</v>
+        <v>1507.806169128835</v>
       </c>
       <c r="N34" t="n">
         <v>2003.733369491954</v>
@@ -6879,7 +6879,7 @@
         <v>2852.887861109756</v>
       </c>
       <c r="Q34" t="n">
-        <v>3044.896488171195</v>
+        <v>3044.896488171194</v>
       </c>
       <c r="R34" t="n">
         <v>3033.683342472732</v>
@@ -6897,7 +6897,7 @@
         <v>2077.235754166407</v>
       </c>
       <c r="W34" t="n">
-        <v>1802.835391231737</v>
+        <v>1802.835391231738</v>
       </c>
       <c r="X34" t="n">
         <v>1560.72353557036</v>
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1784.687520824577</v>
+        <v>1613.514409752796</v>
       </c>
       <c r="C35" t="n">
-        <v>1784.687520824577</v>
+        <v>1187.065720658914</v>
       </c>
       <c r="D35" t="n">
-        <v>1591.883222038119</v>
+        <v>764.2251407367314</v>
       </c>
       <c r="E35" t="n">
-        <v>1166.358323078794</v>
+        <v>764.2251407367314</v>
       </c>
       <c r="F35" t="n">
-        <v>741.6861821610114</v>
+        <v>339.5529998189491</v>
       </c>
       <c r="G35" t="n">
         <v>339.5529998189491</v>
       </c>
       <c r="H35" t="n">
-        <v>60.09816764364835</v>
+        <v>60.09816764364836</v>
       </c>
       <c r="I35" t="n">
-        <v>92.16509273728522</v>
+        <v>92.16509273728521</v>
       </c>
       <c r="J35" t="n">
-        <v>600.6612466263907</v>
+        <v>262.91151156363</v>
       </c>
       <c r="K35" t="n">
-        <v>783.9096229730264</v>
+        <v>446.1598879102656</v>
       </c>
       <c r="L35" t="n">
-        <v>1017.241974062805</v>
+        <v>679.4922390000444</v>
       </c>
       <c r="M35" t="n">
-        <v>1282.01545656573</v>
+        <v>1423.207063590193</v>
       </c>
       <c r="N35" t="n">
-        <v>1551.822994689267</v>
+        <v>2166.921888180341</v>
       </c>
       <c r="O35" t="n">
-        <v>1927.677608273926</v>
+        <v>2419.526515636662</v>
       </c>
       <c r="P35" t="n">
-        <v>2137.663400953711</v>
+        <v>2629.512308316448</v>
       </c>
       <c r="Q35" t="n">
-        <v>2779.374822224096</v>
+        <v>2779.374822224097</v>
       </c>
       <c r="R35" t="n">
-        <v>3004.908382182417</v>
+        <v>3004.908382182418</v>
       </c>
       <c r="S35" t="n">
-        <v>3004.908382182417</v>
+        <v>2940.958739163993</v>
       </c>
       <c r="T35" t="n">
-        <v>3004.908382182417</v>
+        <v>2728.162640092946</v>
       </c>
       <c r="U35" t="n">
-        <v>3004.908382182417</v>
+        <v>2470.400078716229</v>
       </c>
       <c r="V35" t="n">
-        <v>3004.908382182417</v>
+        <v>2437.795962303801</v>
       </c>
       <c r="W35" t="n">
-        <v>2608.969073375582</v>
+        <v>2437.795962303801</v>
       </c>
       <c r="X35" t="n">
-        <v>2608.969073375582</v>
+        <v>2437.795962303801</v>
       </c>
       <c r="Y35" t="n">
-        <v>2204.083844223289</v>
+        <v>2032.910733151509</v>
       </c>
     </row>
     <row r="36">
@@ -7010,34 +7010,34 @@
         <v>104.4114210334502</v>
       </c>
       <c r="H36" t="n">
-        <v>60.09816764364835</v>
+        <v>60.09816764364836</v>
       </c>
       <c r="I36" t="n">
-        <v>75.75305484247794</v>
+        <v>99.21036068688977</v>
       </c>
       <c r="J36" t="n">
-        <v>142.2407413724678</v>
+        <v>457.8005396864707</v>
       </c>
       <c r="K36" t="n">
-        <v>268.5789466729215</v>
+        <v>584.1387449869243</v>
       </c>
       <c r="L36" t="n">
-        <v>445.9836677400024</v>
+        <v>761.5434660540052</v>
       </c>
       <c r="M36" t="n">
-        <v>656.1521006631683</v>
+        <v>971.711898977171</v>
       </c>
       <c r="N36" t="n">
-        <v>874.2244714289293</v>
+        <v>1189.784269742932</v>
       </c>
       <c r="O36" t="n">
-        <v>1070.107370064042</v>
+        <v>1385.667168378045</v>
       </c>
       <c r="P36" t="n">
-        <v>1224.179042295584</v>
+        <v>1539.738840609586</v>
       </c>
       <c r="Q36" t="n">
-        <v>1803.843678238542</v>
+        <v>1698.388177953637</v>
       </c>
       <c r="R36" t="n">
         <v>1837.510357713665</v>
@@ -7071,58 +7071,58 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1105.130774344895</v>
+        <v>1105.130774344896</v>
       </c>
       <c r="C37" t="n">
-        <v>933.6102521166285</v>
+        <v>933.610252116629</v>
       </c>
       <c r="D37" t="n">
-        <v>770.7455201362167</v>
+        <v>774.2898823686193</v>
       </c>
       <c r="E37" t="n">
-        <v>604.9893551818876</v>
+        <v>608.5337174142902</v>
       </c>
       <c r="F37" t="n">
-        <v>433.5796218492654</v>
+        <v>437.123984081668</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5614049124513</v>
+        <v>272.1057671448539</v>
       </c>
       <c r="H37" t="n">
         <v>135.7561233172921</v>
       </c>
       <c r="I37" t="n">
-        <v>60.09816764364835</v>
+        <v>60.09816764364836</v>
       </c>
       <c r="J37" t="n">
-        <v>172.1031769707512</v>
+        <v>172.1031769707509</v>
       </c>
       <c r="K37" t="n">
-        <v>488.2135021698546</v>
+        <v>488.2135021698543</v>
       </c>
       <c r="L37" t="n">
-        <v>957.5378679232641</v>
+        <v>957.5378679232646</v>
       </c>
       <c r="M37" t="n">
         <v>1469.590244256261</v>
       </c>
       <c r="N37" t="n">
-        <v>1965.074399340328</v>
+        <v>1965.074399340329</v>
       </c>
       <c r="O37" t="n">
-        <v>2429.487832609082</v>
+        <v>2429.487832609083</v>
       </c>
       <c r="P37" t="n">
         <v>2813.34280040003</v>
       </c>
       <c r="Q37" t="n">
-        <v>3004.908382182417</v>
+        <v>3004.908382182418</v>
       </c>
       <c r="R37" t="n">
-        <v>2993.695236483955</v>
+        <v>2993.695236483956</v>
       </c>
       <c r="S37" t="n">
-        <v>2837.722472319119</v>
+        <v>2837.72247231912</v>
       </c>
       <c r="T37" t="n">
         <v>2598.196570726783</v>
@@ -7134,13 +7134,13 @@
         <v>2037.247648177631</v>
       </c>
       <c r="W37" t="n">
-        <v>1762.847285242961</v>
+        <v>1762.847285242962</v>
       </c>
       <c r="X37" t="n">
         <v>1520.735429581584</v>
       </c>
       <c r="Y37" t="n">
-        <v>1294.844702164143</v>
+        <v>1294.844702164144</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1286.368906827386</v>
+        <v>2163.97786334297</v>
       </c>
       <c r="C38" t="n">
-        <v>859.4681768406865</v>
+        <v>1737.07713335627</v>
       </c>
       <c r="D38" t="n">
-        <v>859.4681768406865</v>
+        <v>1313.78451254127</v>
       </c>
       <c r="E38" t="n">
-        <v>433.4912369885441</v>
+        <v>887.8075726891279</v>
       </c>
       <c r="F38" t="n">
-        <v>340.0050407117665</v>
+        <v>462.6833908785281</v>
       </c>
       <c r="G38" t="n">
-        <v>340.0050407117665</v>
+        <v>60.09816764364836</v>
       </c>
       <c r="H38" t="n">
-        <v>60.09816764364835</v>
+        <v>60.09816764364836</v>
       </c>
       <c r="I38" t="n">
-        <v>92.16509273728522</v>
+        <v>92.16509273728521</v>
       </c>
       <c r="J38" t="n">
         <v>600.6612466263907</v>
       </c>
       <c r="K38" t="n">
-        <v>783.9096229730264</v>
+        <v>907.159609101366</v>
       </c>
       <c r="L38" t="n">
-        <v>1017.241974062805</v>
+        <v>1140.491960191145</v>
       </c>
       <c r="M38" t="n">
-        <v>1282.01545656573</v>
+        <v>1405.26544269407</v>
       </c>
       <c r="N38" t="n">
-        <v>1675.072980817605</v>
+        <v>1675.072980817606</v>
       </c>
       <c r="O38" t="n">
-        <v>1927.677608273926</v>
+        <v>1927.677608273927</v>
       </c>
       <c r="P38" t="n">
-        <v>2137.663400953711</v>
+        <v>2137.663400953712</v>
       </c>
       <c r="Q38" t="n">
-        <v>2779.374822224096</v>
+        <v>2779.374822224097</v>
       </c>
       <c r="R38" t="n">
-        <v>3004.908382182417</v>
+        <v>3004.908382182418</v>
       </c>
       <c r="S38" t="n">
-        <v>2940.506698271175</v>
+        <v>2995.546226466753</v>
       </c>
       <c r="T38" t="n">
-        <v>2727.258558307311</v>
+        <v>2995.546226466753</v>
       </c>
       <c r="U38" t="n">
-        <v>2469.043956037776</v>
+        <v>2995.546226466753</v>
       </c>
       <c r="V38" t="n">
-        <v>2111.554541164026</v>
+        <v>2995.546226466753</v>
       </c>
       <c r="W38" t="n">
-        <v>2111.554541164026</v>
+        <v>2995.546226466753</v>
       </c>
       <c r="X38" t="n">
-        <v>2111.554541164026</v>
+        <v>2583.8262276345</v>
       </c>
       <c r="Y38" t="n">
-        <v>1706.217271118916</v>
+        <v>2583.8262276345</v>
       </c>
     </row>
     <row r="39">
@@ -7247,34 +7247,34 @@
         <v>104.4114210334502</v>
       </c>
       <c r="H39" t="n">
-        <v>60.09816764364835</v>
+        <v>60.09816764364836</v>
       </c>
       <c r="I39" t="n">
-        <v>75.75305484247794</v>
+        <v>99.21036068688977</v>
       </c>
       <c r="J39" t="n">
-        <v>142.2407413724678</v>
+        <v>457.8005396864707</v>
       </c>
       <c r="K39" t="n">
-        <v>753.3626193669352</v>
+        <v>647.9071190820298</v>
       </c>
       <c r="L39" t="n">
-        <v>930.7673404340162</v>
+        <v>825.3118401491107</v>
       </c>
       <c r="M39" t="n">
-        <v>1140.935773357182</v>
+        <v>1035.480273072277</v>
       </c>
       <c r="N39" t="n">
-        <v>1359.008144122943</v>
+        <v>1253.552643838038</v>
       </c>
       <c r="O39" t="n">
-        <v>1554.891042758056</v>
+        <v>1449.43554247315</v>
       </c>
       <c r="P39" t="n">
-        <v>1708.962714989597</v>
+        <v>1603.507214704692</v>
       </c>
       <c r="Q39" t="n">
-        <v>1803.843678238542</v>
+        <v>1698.388177953637</v>
       </c>
       <c r="R39" t="n">
         <v>1837.510357713665</v>
@@ -7326,34 +7326,34 @@
         <v>273.0098489304887</v>
       </c>
       <c r="H40" t="n">
-        <v>136.2081642101095</v>
+        <v>136.2081642101096</v>
       </c>
       <c r="I40" t="n">
-        <v>60.09816764364835</v>
+        <v>60.09816764364836</v>
       </c>
       <c r="J40" t="n">
-        <v>172.1031769707506</v>
+        <v>172.1031769707515</v>
       </c>
       <c r="K40" t="n">
-        <v>488.2135021698541</v>
+        <v>488.213502169855</v>
       </c>
       <c r="L40" t="n">
-        <v>957.5378679232637</v>
+        <v>957.5378679232646</v>
       </c>
       <c r="M40" t="n">
-        <v>1469.59024425626</v>
+        <v>1469.590244256261</v>
       </c>
       <c r="N40" t="n">
-        <v>1965.074399340328</v>
+        <v>1965.074399340329</v>
       </c>
       <c r="O40" t="n">
-        <v>2429.487832609082</v>
+        <v>2429.487832609083</v>
       </c>
       <c r="P40" t="n">
         <v>2813.34280040003</v>
       </c>
       <c r="Q40" t="n">
-        <v>3004.908382182417</v>
+        <v>3004.908382182418</v>
       </c>
       <c r="R40" t="n">
         <v>3004.020212108619</v>
@@ -7387,40 +7387,40 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>188.8902049501463</v>
+        <v>1145.836570046072</v>
       </c>
       <c r="C41" t="n">
-        <v>188.8902049501463</v>
+        <v>718.9358400593718</v>
       </c>
       <c r="D41" t="n">
-        <v>188.8902049501463</v>
+        <v>718.9358400593718</v>
       </c>
       <c r="E41" t="n">
-        <v>36.44374375637384</v>
+        <v>718.9358400593718</v>
       </c>
       <c r="F41" t="n">
-        <v>36.44374375637384</v>
+        <v>718.9358400593718</v>
       </c>
       <c r="G41" t="n">
-        <v>36.44374375637384</v>
+        <v>316.350616824492</v>
       </c>
       <c r="H41" t="n">
-        <v>36.44374375637384</v>
+        <v>36.44374375637385</v>
       </c>
       <c r="I41" t="n">
-        <v>68.51066885001072</v>
+        <v>68.51066885001069</v>
       </c>
       <c r="J41" t="n">
-        <v>185.2776040314901</v>
+        <v>185.27760403149</v>
       </c>
       <c r="K41" t="n">
-        <v>368.5259803781257</v>
+        <v>368.5259803781256</v>
       </c>
       <c r="L41" t="n">
-        <v>601.8583314679045</v>
+        <v>601.8583314679043</v>
       </c>
       <c r="M41" t="n">
-        <v>866.6318139708296</v>
+        <v>866.6318139708294</v>
       </c>
       <c r="N41" t="n">
         <v>1136.439352094366</v>
@@ -7432,31 +7432,31 @@
         <v>1599.029772230472</v>
       </c>
       <c r="Q41" t="n">
-        <v>1748.892286138122</v>
+        <v>1748.892286138121</v>
       </c>
       <c r="R41" t="n">
         <v>1822.187187818692</v>
       </c>
       <c r="S41" t="n">
-        <v>1822.187187818692</v>
+        <v>1757.78550390745</v>
       </c>
       <c r="T41" t="n">
-        <v>1822.187187818692</v>
+        <v>1544.537363943586</v>
       </c>
       <c r="U41" t="n">
-        <v>1822.187187818692</v>
+        <v>1542.227919745725</v>
       </c>
       <c r="V41" t="n">
-        <v>1822.187187818692</v>
+        <v>1542.227919745725</v>
       </c>
       <c r="W41" t="n">
-        <v>1425.795838119039</v>
+        <v>1145.836570046072</v>
       </c>
       <c r="X41" t="n">
-        <v>1014.075839286786</v>
+        <v>1145.836570046072</v>
       </c>
       <c r="Y41" t="n">
-        <v>608.7385692416764</v>
+        <v>1145.836570046072</v>
       </c>
     </row>
     <row r="42">
@@ -7481,10 +7481,10 @@
         <v>173.8723822413243</v>
       </c>
       <c r="G42" t="n">
-        <v>80.75699714617564</v>
+        <v>80.75699714617565</v>
       </c>
       <c r="H42" t="n">
-        <v>36.44374375637384</v>
+        <v>36.44374375637385</v>
       </c>
       <c r="I42" t="n">
         <v>75.55593679961527</v>
@@ -7496,22 +7496,22 @@
         <v>560.4843210996498</v>
       </c>
       <c r="L42" t="n">
-        <v>737.8890421667309</v>
+        <v>737.8890421667307</v>
       </c>
       <c r="M42" t="n">
-        <v>948.0574750898968</v>
+        <v>948.0574750898966</v>
       </c>
       <c r="N42" t="n">
         <v>1166.129845855658</v>
       </c>
       <c r="O42" t="n">
-        <v>1362.012744490771</v>
+        <v>1362.01274449077</v>
       </c>
       <c r="P42" t="n">
         <v>1516.084416722312</v>
       </c>
       <c r="Q42" t="n">
-        <v>1780.189254351268</v>
+        <v>1674.733754066362</v>
       </c>
       <c r="R42" t="n">
         <v>1813.85593382639</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>278.7619461699815</v>
+        <v>744.3506615932215</v>
       </c>
       <c r="C43" t="n">
-        <v>278.7619461699815</v>
+        <v>744.3506615932215</v>
       </c>
       <c r="D43" t="n">
-        <v>278.7619461699815</v>
+        <v>581.0338887199922</v>
       </c>
       <c r="E43" t="n">
-        <v>112.553740322835</v>
+        <v>414.8256828728458</v>
       </c>
       <c r="F43" t="n">
-        <v>112.553740322835</v>
+        <v>414.8256828728458</v>
       </c>
       <c r="G43" t="n">
-        <v>112.553740322835</v>
+        <v>249.3554250432142</v>
       </c>
       <c r="H43" t="n">
-        <v>112.553740322835</v>
+        <v>112.5537403228351</v>
       </c>
       <c r="I43" t="n">
-        <v>36.44374375637384</v>
+        <v>36.44374375637385</v>
       </c>
       <c r="J43" t="n">
-        <v>70.52703643525555</v>
+        <v>148.4487530834764</v>
       </c>
       <c r="K43" t="n">
-        <v>139.3547525203369</v>
+        <v>464.5590782825799</v>
       </c>
       <c r="L43" t="n">
-        <v>357.9223532411848</v>
+        <v>570.8290758828616</v>
       </c>
       <c r="M43" t="n">
-        <v>808.913682226311</v>
+        <v>1021.820404867988</v>
       </c>
       <c r="N43" t="n">
-        <v>1259.905011211437</v>
+        <v>1472.811733853114</v>
       </c>
       <c r="O43" t="n">
-        <v>1710.896340196564</v>
+        <v>1559.522842818665</v>
       </c>
       <c r="P43" t="n">
-        <v>1781.995103414203</v>
+        <v>1630.621606036305</v>
       </c>
       <c r="Q43" t="n">
         <v>1822.187187818692</v>
       </c>
       <c r="R43" t="n">
-        <v>1810.522001227412</v>
+        <v>1822.187187818692</v>
       </c>
       <c r="S43" t="n">
-        <v>1654.097196169759</v>
+        <v>1821.034012240649</v>
       </c>
       <c r="T43" t="n">
-        <v>1414.119253684605</v>
+        <v>1581.056069755495</v>
       </c>
       <c r="U43" t="n">
-        <v>1133.977716741789</v>
+        <v>1300.91453281268</v>
       </c>
       <c r="V43" t="n">
-        <v>852.2662493498181</v>
+        <v>1019.203065420709</v>
       </c>
       <c r="W43" t="n">
-        <v>577.413845522331</v>
+        <v>744.3506615932215</v>
       </c>
       <c r="X43" t="n">
-        <v>334.8499489681361</v>
+        <v>744.3506615932215</v>
       </c>
       <c r="Y43" t="n">
-        <v>278.7619461699815</v>
+        <v>744.3506615932215</v>
       </c>
     </row>
     <row r="44">
@@ -7624,49 +7624,49 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1346.065505075197</v>
+        <v>459.7363645713736</v>
       </c>
       <c r="C44" t="n">
-        <v>919.164775088497</v>
+        <v>459.7363645713736</v>
       </c>
       <c r="D44" t="n">
-        <v>495.8721542734972</v>
+        <v>36.44374375637385</v>
       </c>
       <c r="E44" t="n">
-        <v>439.0289669912536</v>
+        <v>36.44374375637385</v>
       </c>
       <c r="F44" t="n">
-        <v>439.0289669912536</v>
+        <v>36.44374375637385</v>
       </c>
       <c r="G44" t="n">
-        <v>36.44374375637384</v>
+        <v>36.44374375637385</v>
       </c>
       <c r="H44" t="n">
-        <v>36.44374375637384</v>
+        <v>36.44374375637385</v>
       </c>
       <c r="I44" t="n">
-        <v>68.51066885001072</v>
+        <v>68.51066885001069</v>
       </c>
       <c r="J44" t="n">
-        <v>185.2776040314903</v>
+        <v>185.2776040314913</v>
       </c>
       <c r="K44" t="n">
-        <v>368.525980378126</v>
+        <v>368.5259803781269</v>
       </c>
       <c r="L44" t="n">
-        <v>601.8583314679047</v>
+        <v>601.8583314679056</v>
       </c>
       <c r="M44" t="n">
-        <v>866.6318139708299</v>
+        <v>866.6318139708306</v>
       </c>
       <c r="N44" t="n">
-        <v>1136.439352094366</v>
+        <v>1136.439352094367</v>
       </c>
       <c r="O44" t="n">
-        <v>1389.043979550687</v>
+        <v>1389.043979550688</v>
       </c>
       <c r="P44" t="n">
-        <v>1599.029772230472</v>
+        <v>1599.029772230473</v>
       </c>
       <c r="Q44" t="n">
         <v>1748.892286138122</v>
@@ -7687,13 +7687,13 @@
         <v>1757.78550390745</v>
       </c>
       <c r="W44" t="n">
-        <v>1757.78550390745</v>
+        <v>1696.641997740266</v>
       </c>
       <c r="X44" t="n">
-        <v>1346.065505075197</v>
+        <v>1284.921998908013</v>
       </c>
       <c r="Y44" t="n">
-        <v>1346.065505075197</v>
+        <v>879.5847288629036</v>
       </c>
     </row>
     <row r="45">
@@ -7718,37 +7718,37 @@
         <v>173.8723822413243</v>
       </c>
       <c r="G45" t="n">
-        <v>80.75699714617564</v>
+        <v>80.75699714617565</v>
       </c>
       <c r="H45" t="n">
-        <v>36.44374375637384</v>
+        <v>36.44374375637385</v>
       </c>
       <c r="I45" t="n">
-        <v>52.09863095520342</v>
+        <v>75.55593679961527</v>
       </c>
       <c r="J45" t="n">
-        <v>118.5863174851933</v>
+        <v>434.1461157991962</v>
       </c>
       <c r="K45" t="n">
-        <v>373.5978297434795</v>
+        <v>624.2526951947553</v>
       </c>
       <c r="L45" t="n">
-        <v>551.0025508105605</v>
+        <v>801.6574162618363</v>
       </c>
       <c r="M45" t="n">
-        <v>761.1709837337264</v>
+        <v>1011.825849185002</v>
       </c>
       <c r="N45" t="n">
-        <v>979.2433544994874</v>
+        <v>1229.898219950763</v>
       </c>
       <c r="O45" t="n">
-        <v>1175.1262531346</v>
+        <v>1425.781118585876</v>
       </c>
       <c r="P45" t="n">
-        <v>1329.197925366142</v>
+        <v>1579.852790817417</v>
       </c>
       <c r="Q45" t="n">
-        <v>1780.189254351268</v>
+        <v>1674.733754066362</v>
       </c>
       <c r="R45" t="n">
         <v>1813.85593382639</v>
@@ -7782,49 +7782,49 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>86.43120359474545</v>
+        <v>709.8030598232732</v>
       </c>
       <c r="C46" t="n">
-        <v>86.43120359474545</v>
+        <v>537.8304967021892</v>
       </c>
       <c r="D46" t="n">
-        <v>86.43120359474545</v>
+        <v>374.5137238289599</v>
       </c>
       <c r="E46" t="n">
-        <v>36.44374375637384</v>
+        <v>208.3055179818134</v>
       </c>
       <c r="F46" t="n">
-        <v>36.44374375637384</v>
+        <v>36.44374375637385</v>
       </c>
       <c r="G46" t="n">
-        <v>36.44374375637384</v>
+        <v>36.44374375637385</v>
       </c>
       <c r="H46" t="n">
-        <v>36.44374375637384</v>
+        <v>36.44374375637385</v>
       </c>
       <c r="I46" t="n">
-        <v>36.44374375637384</v>
+        <v>36.44374375637385</v>
       </c>
       <c r="J46" t="n">
-        <v>70.52703643525555</v>
+        <v>148.4487530834764</v>
       </c>
       <c r="K46" t="n">
-        <v>139.3547525203369</v>
+        <v>464.5590782825799</v>
       </c>
       <c r="L46" t="n">
-        <v>357.9223532411848</v>
+        <v>915.5504072677063</v>
       </c>
       <c r="M46" t="n">
-        <v>808.913682226311</v>
+        <v>1014.067303137881</v>
       </c>
       <c r="N46" t="n">
-        <v>1259.905011211437</v>
+        <v>1111.518535380069</v>
       </c>
       <c r="O46" t="n">
-        <v>1710.896340196564</v>
+        <v>1246.766638245357</v>
       </c>
       <c r="P46" t="n">
-        <v>1781.995103414203</v>
+        <v>1630.621606036305</v>
       </c>
       <c r="Q46" t="n">
         <v>1822.187187818692</v>
@@ -7833,25 +7833,25 @@
         <v>1822.187187818692</v>
       </c>
       <c r="S46" t="n">
-        <v>1822.187187818692</v>
+        <v>1665.762382761039</v>
       </c>
       <c r="T46" t="n">
-        <v>1582.209245333538</v>
+        <v>1665.762382761039</v>
       </c>
       <c r="U46" t="n">
-        <v>1302.067708390722</v>
+        <v>1408.023264237568</v>
       </c>
       <c r="V46" t="n">
-        <v>1020.356240998751</v>
+        <v>1126.311796845597</v>
       </c>
       <c r="W46" t="n">
-        <v>745.503837171264</v>
+        <v>1126.311796845597</v>
       </c>
       <c r="X46" t="n">
-        <v>502.9399406170691</v>
+        <v>1126.311796845597</v>
       </c>
       <c r="Y46" t="n">
-        <v>276.5971723068111</v>
+        <v>899.9690285353388</v>
       </c>
     </row>
   </sheetData>
@@ -8765,7 +8765,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J12" t="n">
         <v>295.0530226965566</v>
@@ -8777,7 +8777,7 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>88.10674741365338</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -8789,7 +8789,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>64.41249908596502</v>
       </c>
       <c r="R12" t="n">
         <v>106.5207073584907</v>
@@ -8850,22 +8850,22 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L13" t="n">
-        <v>361.6725826493754</v>
+        <v>274.3513583122864</v>
       </c>
       <c r="M13" t="n">
         <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>357.1112088312509</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>367.9598182015914</v>
+        <v>367.9598182015915</v>
       </c>
       <c r="P13" t="n">
-        <v>121.2633382330031</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -9002,10 +9002,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -9017,7 +9017,7 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>235.2716749690558</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -9026,7 +9026,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>147.8880951411544</v>
+        <v>64.41249908596504</v>
       </c>
       <c r="R15" t="n">
         <v>106.5207073584907</v>
@@ -9090,19 +9090,19 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>361.6725826493754</v>
+        <v>361.6725826493755</v>
       </c>
       <c r="M16" t="n">
-        <v>121.2633382330032</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>357.1112088312509</v>
+        <v>162.4591889093979</v>
       </c>
       <c r="O16" t="n">
         <v>367.9598182015915</v>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -9178,13 +9178,13 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>82.19177937445613</v>
       </c>
       <c r="P17" t="n">
-        <v>520.1810149858226</v>
+        <v>539.120234252892</v>
       </c>
       <c r="Q17" t="n">
-        <v>496.8170781441769</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>153.7764225027789</v>
@@ -9239,13 +9239,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>64.41249908596515</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9263,10 +9263,10 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>489.6804774687006</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9321,7 +9321,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>78.70880469517283</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K19" t="n">
         <v>249.7804132464869</v>
@@ -9336,7 +9336,7 @@
         <v>402.0534574160406</v>
       </c>
       <c r="O19" t="n">
-        <v>381.5174992961649</v>
+        <v>381.5174992961654</v>
       </c>
       <c r="P19" t="n">
         <v>315.9153581548562</v>
@@ -9418,7 +9418,7 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>124.4949354831699</v>
+        <v>124.4949354831711</v>
       </c>
       <c r="Q20" t="n">
         <v>496.8170781441769</v>
@@ -9476,13 +9476,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>170.9332064444559</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -9500,7 +9500,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>489.6804774687006</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -9640,22 +9640,22 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K23" t="n">
-        <v>54.70923602683527</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>939.3259303761096</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>934.2410257088254</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>278.7035025404258</v>
       </c>
       <c r="Q23" t="n">
         <v>496.8170781441769</v>
@@ -9713,10 +9713,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -9728,19 +9728,19 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>64.41249908596515</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>489.6804774687007</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9874,31 +9874,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>758.5002654165255</v>
       </c>
       <c r="L26" t="n">
-        <v>209.91639202162</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>939.3259303761096</v>
+        <v>416.7669495739801</v>
       </c>
       <c r="N26" t="n">
-        <v>934.2410257088254</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>891.0724241548241</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9950,10 +9950,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -9965,10 +9965,10 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>64.41249908596515</v>
       </c>
       <c r="O27" t="n">
-        <v>489.6804774687008</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -9977,7 +9977,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10111,31 +10111,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>971.0846489752473</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>178.1576734224822</v>
+        <v>939.3259303761105</v>
       </c>
       <c r="N29" t="n">
-        <v>934.2410257088254</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>891.0724241548241</v>
+        <v>235.9412846143956</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>753.0089771212694</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10187,10 +10187,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -10199,7 +10199,7 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>489.6804774687009</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -10211,10 +10211,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>64.41249908596504</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10357,22 +10357,22 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>939.3259303761095</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>523.7205993474744</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>891.0724241548241</v>
       </c>
       <c r="P32" t="n">
         <v>753.0089771212694</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>75.15702742458714</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10424,10 +10424,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -10439,7 +10439,7 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>489.6804774687008</v>
+        <v>64.41249908596515</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
@@ -10451,7 +10451,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10585,7 +10585,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>395.6860795026527</v>
+        <v>54.52473095440962</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -10594,19 +10594,19 @@
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>483.7791334214376</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>478.6942287541536</v>
       </c>
       <c r="O35" t="n">
-        <v>124.4949354831697</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>496.8170781441769</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
         <v>153.7764225027789</v>
@@ -10661,10 +10661,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -10685,10 +10685,10 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>489.6804774687006</v>
+        <v>64.41249908596527</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10825,7 +10825,7 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>124.4949354831713</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
@@ -10834,7 +10834,7 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>124.4949354831699</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
@@ -10898,13 +10898,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K39" t="n">
-        <v>489.6804774687007</v>
+        <v>64.41249908596515</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10925,7 +10925,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11083,7 +11083,7 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>1.06581410364015e-12</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11159,10 +11159,10 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>170.9332064444553</v>
+        <v>64.41249908596504</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11217,28 +11217,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L43" t="n">
-        <v>126.9011399581852</v>
+        <v>13.46921761417899</v>
       </c>
       <c r="M43" t="n">
-        <v>356.0347809241935</v>
+        <v>356.0347809241936</v>
       </c>
       <c r="N43" t="n">
-        <v>357.1112088312509</v>
+        <v>357.1112088312511</v>
       </c>
       <c r="O43" t="n">
-        <v>367.9598182015915</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11296,7 +11296,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>1.264766069652978e-12</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -11372,13 +11372,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K45" t="n">
-        <v>129.973037331144</v>
+        <v>64.41249908596521</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11396,10 +11396,10 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>359.7074401375567</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -11454,28 +11454,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>78.70880469517259</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L46" t="n">
-        <v>126.9011399581852</v>
+        <v>361.6725826493756</v>
       </c>
       <c r="M46" t="n">
-        <v>356.0347809241935</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>357.1112088312509</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>367.9598182015915</v>
+        <v>49.02726656539147</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>152.9025226039384</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -23257,19 +23257,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>395.8030658388473</v>
       </c>
       <c r="C11" t="n">
-        <v>218.021447986081</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>398.559371002531</v>
@@ -23308,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>63.75766707213</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>211.1156585642257</v>
@@ -23317,16 +23317,16 @@
         <v>255.6324562468386</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="12">
@@ -23415,25 +23415,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>11.22846289468868</v>
+        <v>163.8155552513352</v>
       </c>
       <c r="H13" t="n">
-        <v>135.4336678731754</v>
+        <v>85.94608263318746</v>
       </c>
       <c r="I13" t="n">
         <v>75.34889660079659</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>11.54853472536694</v>
+        <v>11.54853472536695</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>154.8605570070767</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23478,13 +23478,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23494,13 +23494,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>415.6498806486147</v>
+        <v>395.8030658388473</v>
       </c>
       <c r="C14" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23509,7 +23509,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>219.6054287546205</v>
+        <v>398.559371002531</v>
       </c>
       <c r="H14" t="n">
         <v>277.107804337437</v>
@@ -23545,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>63.75766707213</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>211.1156585642257</v>
@@ -23554,10 +23554,10 @@
         <v>255.6324562468386</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X14" t="n">
         <v>407.6027988439302</v>
@@ -23655,10 +23655,10 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>164.546123788675</v>
@@ -23667,7 +23667,7 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>162.1012429349096</v>
+        <v>163.8155552513352</v>
       </c>
       <c r="H16" t="n">
         <v>135.4336678731754</v>
@@ -23700,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>11.54853472536694</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>154.8605570070767</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>123.744554629876</v>
       </c>
       <c r="U16" t="n">
-        <v>277.3401215733874</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23731,19 +23731,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>422.6317226868329</v>
+        <v>370.3089801092309</v>
       </c>
       <c r="D17" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F17" t="n">
-        <v>266.9124379385332</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -23791,13 +23791,13 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>10.66924635230653</v>
+        <v>10.66924635230654</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23974,19 +23974,19 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G20" t="n">
-        <v>240.0450205890587</v>
+        <v>398.559371002531</v>
       </c>
       <c r="H20" t="n">
-        <v>277.107804337437</v>
+        <v>74.64607171473034</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24019,7 +24019,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>63.75766707213</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>211.1156585642257</v>
@@ -24028,13 +24028,13 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24135,7 +24135,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>10.66924635230697</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>10.66924635230654</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24205,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>171.8196099383074</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -24256,10 +24256,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>63.31014658824076</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>108.5094633500699</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -24496,7 +24496,7 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>171.819609938311</v>
+        <v>171.8196099383074</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -24682,7 +24682,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>171.8196099383113</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -24697,7 +24697,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>171.8196099383079</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24934,7 +24934,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>171.8196099383115</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24970,7 +24970,7 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>171.8196099383074</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -25156,19 +25156,19 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>422.1842022029436</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>227.735918324367</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>421.2696499697317</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>398.1118505186417</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -25204,19 +25204,19 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>63.31014658824076</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>210.6681380803364</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>255.1849357629494</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>353.4670002411237</v>
+        <v>321.1889249928195</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>391.9799157187673</v>
       </c>
       <c r="X35" t="n">
         <v>407.1552783600409</v>
@@ -25317,7 +25317,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>3.508918610078098</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25329,7 +25329,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>3.508918610078524</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25396,19 +25396,19 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>328.321605678484</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>398.559371002531</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>277.107804337437</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25441,25 +25441,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>54.48913291362184</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>211.1156585642257</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>255.6324562468386</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W38" t="n">
         <v>392.4274362026566</v>
       </c>
       <c r="X38" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="39">
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>10.66924635230653</v>
+        <v>10.66924635230609</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25627,25 +25627,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C41" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E41" t="n">
-        <v>270.7951738717862</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F41" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
-        <v>398.559371002531</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>277.107804337437</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25678,13 +25678,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>63.75766707213</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>211.1156585642257</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>255.6324562468386</v>
+        <v>253.3461064909565</v>
       </c>
       <c r="V41" t="n">
         <v>353.914520725013</v>
@@ -25693,10 +25693,10 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="42">
@@ -25791,7 +25791,7 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25800,10 +25800,10 @@
         <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
-        <v>163.8155552513352</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>135.4336678731754</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>11.54853472536695</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>153.718913184814</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25851,10 +25851,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y43" t="n">
-        <v>168.5522178569823</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="44">
@@ -25864,22 +25864,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>365.4424150441998</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F44" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>398.559371002531</v>
       </c>
       <c r="H44" t="n">
         <v>277.107804337437</v>
@@ -25927,13 +25927,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
-        <v>392.4274362026566</v>
+        <v>331.8953650971445</v>
       </c>
       <c r="X44" t="n">
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26025,16 +26025,16 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>115.0585385486871</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>163.8155552513352</v>
@@ -26070,25 +26070,25 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>11.54853472536694</v>
+        <v>11.54853472536695</v>
       </c>
       <c r="S46" t="n">
-        <v>154.8605570070767</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>237.5781630603024</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>22.1783942351509</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>282049.3256490931</v>
+        <v>282049.3256490932</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>282049.3256490931</v>
+        <v>282049.3256490932</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>431612.9671869905</v>
+        <v>431612.9671869904</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>609302.0917377948</v>
+        <v>609302.0917377952</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>609302.0917377947</v>
+        <v>609302.0917377952</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>609302.0917377947</v>
+        <v>609302.0917377952</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>609302.0917377947</v>
+        <v>609302.091737795</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>432182.947176091</v>
+        <v>432182.9471760913</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>431612.9671869904</v>
+        <v>431612.9671869905</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>282049.3256490931</v>
+        <v>282049.3256490932</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>282049.3256490931</v>
+        <v>282049.3256490933</v>
       </c>
     </row>
   </sheetData>
@@ -26316,7 +26316,7 @@
         <v>516381.4902713696</v>
       </c>
       <c r="C2" t="n">
-        <v>516381.4902713695</v>
+        <v>516381.4902713696</v>
       </c>
       <c r="D2" t="n">
         <v>516381.4902713695</v>
@@ -26328,34 +26328,34 @@
         <v>277567.9179366048</v>
       </c>
       <c r="G2" t="n">
-        <v>384558.5897590369</v>
+        <v>384558.5897590368</v>
       </c>
       <c r="H2" t="n">
         <v>384558.589759037</v>
       </c>
       <c r="I2" t="n">
+        <v>511889.2443540667</v>
+      </c>
+      <c r="J2" t="n">
         <v>511889.2443540664</v>
       </c>
-      <c r="J2" t="n">
-        <v>511889.2443540659</v>
-      </c>
       <c r="K2" t="n">
-        <v>511889.2443540658</v>
+        <v>511889.2443540661</v>
       </c>
       <c r="L2" t="n">
-        <v>511889.244354066</v>
+        <v>511889.2443540661</v>
       </c>
       <c r="M2" t="n">
         <v>385162.0979827906</v>
       </c>
       <c r="N2" t="n">
-        <v>384558.589759037</v>
+        <v>384558.5897590371</v>
       </c>
       <c r="O2" t="n">
-        <v>277567.9179366048</v>
+        <v>277567.9179366049</v>
       </c>
       <c r="P2" t="n">
-        <v>277567.9179366048</v>
+        <v>277567.917936605</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>483009.8796426553</v>
+        <v>483009.8796426551</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>121497.4761800947</v>
+        <v>121497.476180095</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26420,46 +26420,46 @@
         <v>320775.5268176608</v>
       </c>
       <c r="C4" t="n">
-        <v>320775.5268176608</v>
+        <v>320775.5268176607</v>
       </c>
       <c r="D4" t="n">
         <v>320775.5268176608</v>
       </c>
       <c r="E4" t="n">
-        <v>20296.3404731035</v>
+        <v>20296.34047310351</v>
       </c>
       <c r="F4" t="n">
         <v>20296.34047310351</v>
       </c>
       <c r="G4" t="n">
-        <v>68995.17476065518</v>
+        <v>68995.17476065524</v>
       </c>
       <c r="H4" t="n">
-        <v>68995.17476065518</v>
+        <v>68995.17476065522</v>
       </c>
       <c r="I4" t="n">
-        <v>127074.8491403941</v>
+        <v>127074.8491403943</v>
       </c>
       <c r="J4" t="n">
-        <v>127074.8491403941</v>
+        <v>127074.8491403942</v>
       </c>
       <c r="K4" t="n">
-        <v>127074.8491403941</v>
+        <v>127074.8491403942</v>
       </c>
       <c r="L4" t="n">
-        <v>127074.849140394</v>
+        <v>127074.8491403942</v>
       </c>
       <c r="M4" t="n">
-        <v>69377.91100949212</v>
+        <v>69377.91100949219</v>
       </c>
       <c r="N4" t="n">
-        <v>68995.17476065518</v>
+        <v>68995.17476065524</v>
       </c>
       <c r="O4" t="n">
-        <v>20296.3404731035</v>
+        <v>20296.34047310355</v>
       </c>
       <c r="P4" t="n">
-        <v>20296.3404731035</v>
+        <v>20296.34047310356</v>
       </c>
     </row>
     <row r="5">
@@ -26478,28 +26478,28 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>37112.77033081869</v>
+        <v>37112.77033081868</v>
       </c>
       <c r="F5" t="n">
-        <v>37112.77033081869</v>
+        <v>37112.77033081868</v>
       </c>
       <c r="G5" t="n">
-        <v>55090.13248514732</v>
+        <v>55090.13248514731</v>
       </c>
       <c r="H5" t="n">
-        <v>55090.13248514732</v>
+        <v>55090.13248514731</v>
       </c>
       <c r="I5" t="n">
-        <v>82825.00033955145</v>
+        <v>82825.00033955151</v>
       </c>
       <c r="J5" t="n">
-        <v>82825.00033955145</v>
+        <v>82825.00033955151</v>
       </c>
       <c r="K5" t="n">
-        <v>82825.00033955145</v>
+        <v>82825.00033955151</v>
       </c>
       <c r="L5" t="n">
-        <v>82825.00033955145</v>
+        <v>82825.00033955151</v>
       </c>
       <c r="M5" t="n">
         <v>55127.7550847074</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>161978.3634537088</v>
+        <v>161956.6498122125</v>
       </c>
       <c r="C6" t="n">
-        <v>161978.3634537087</v>
+        <v>161956.6498122125</v>
       </c>
       <c r="D6" t="n">
-        <v>161978.3634537088</v>
+        <v>161956.6498122124</v>
       </c>
       <c r="E6" t="n">
-        <v>-262851.0725099726</v>
+        <v>-263536.1571857321</v>
       </c>
       <c r="F6" t="n">
-        <v>220158.8071326826</v>
+        <v>219473.722456923</v>
       </c>
       <c r="G6" t="n">
-        <v>179431.747873939</v>
+        <v>179043.8595087972</v>
       </c>
       <c r="H6" t="n">
-        <v>260473.2825132345</v>
+        <v>260085.3941480928</v>
       </c>
       <c r="I6" t="n">
-        <v>180491.9186940262</v>
+        <v>180457.7265916482</v>
       </c>
       <c r="J6" t="n">
-        <v>301989.3948741204</v>
+        <v>301955.202771743</v>
       </c>
       <c r="K6" t="n">
-        <v>301989.3948741202</v>
+        <v>301955.2027717427</v>
       </c>
       <c r="L6" t="n">
-        <v>301989.3948741205</v>
+        <v>301955.2027717427</v>
       </c>
       <c r="M6" t="n">
-        <v>260656.4318885911</v>
+        <v>260270.219935182</v>
       </c>
       <c r="N6" t="n">
-        <v>260473.2825132345</v>
+        <v>260085.3941480928</v>
       </c>
       <c r="O6" t="n">
-        <v>220158.8071326826</v>
+        <v>219473.7224569231</v>
       </c>
       <c r="P6" t="n">
-        <v>220158.8071326826</v>
+        <v>219473.7224569232</v>
       </c>
     </row>
   </sheetData>
@@ -26706,19 +26706,19 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4475204838892534</v>
+        <v>0.4475204838892725</v>
       </c>
       <c r="J2" t="n">
-        <v>0.4475204838892534</v>
+        <v>0.4475204838892725</v>
       </c>
       <c r="K2" t="n">
-        <v>0.4475204838892534</v>
+        <v>0.4475204838892725</v>
       </c>
       <c r="L2" t="n">
-        <v>0.4475204838892534</v>
+        <v>0.4475204838892725</v>
       </c>
       <c r="M2" t="n">
-        <v>0.4475204838892534</v>
+        <v>0.4475204838892725</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26749,37 +26749,37 @@
         <v>431.9048199988335</v>
       </c>
       <c r="F3" t="n">
-        <v>431.9048199988335</v>
+        <v>431.9048199988334</v>
       </c>
       <c r="G3" t="n">
-        <v>431.9048199988335</v>
+        <v>431.9048199988334</v>
       </c>
       <c r="H3" t="n">
-        <v>431.9048199988335</v>
+        <v>431.9048199988334</v>
       </c>
       <c r="I3" t="n">
-        <v>431.9048199988335</v>
+        <v>431.9048199988334</v>
       </c>
       <c r="J3" t="n">
-        <v>431.9048199988335</v>
+        <v>431.9048199988334</v>
       </c>
       <c r="K3" t="n">
-        <v>431.9048199988335</v>
+        <v>431.9048199988334</v>
       </c>
       <c r="L3" t="n">
-        <v>431.9048199988335</v>
+        <v>431.9048199988334</v>
       </c>
       <c r="M3" t="n">
-        <v>431.9048199988335</v>
+        <v>431.9048199988334</v>
       </c>
       <c r="N3" t="n">
-        <v>431.9048199988335</v>
+        <v>431.9048199988334</v>
       </c>
       <c r="O3" t="n">
-        <v>431.9048199988335</v>
+        <v>431.9048199988334</v>
       </c>
       <c r="P3" t="n">
-        <v>431.9048199988335</v>
+        <v>431.9048199988334</v>
       </c>
     </row>
     <row r="4">
@@ -26810,28 +26810,28 @@
         <v>751.2270955456044</v>
       </c>
       <c r="I4" t="n">
-        <v>1206.773892500276</v>
+        <v>1206.773892500277</v>
       </c>
       <c r="J4" t="n">
-        <v>1206.773892500276</v>
+        <v>1206.773892500277</v>
       </c>
       <c r="K4" t="n">
-        <v>1206.773892500276</v>
+        <v>1206.773892500277</v>
       </c>
       <c r="L4" t="n">
-        <v>1206.773892500276</v>
+        <v>1206.773892500277</v>
       </c>
       <c r="M4" t="n">
-        <v>751.2270955456044</v>
+        <v>751.2270955456045</v>
       </c>
       <c r="N4" t="n">
-        <v>751.2270955456044</v>
+        <v>751.2270955456045</v>
       </c>
       <c r="O4" t="n">
-        <v>455.546796954673</v>
+        <v>455.5467969546731</v>
       </c>
       <c r="P4" t="n">
-        <v>455.546796954673</v>
+        <v>455.5467969546731</v>
       </c>
     </row>
   </sheetData>
@@ -26928,7 +26928,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4475204838892534</v>
+        <v>0.4475204838892725</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>455.546796954673</v>
+        <v>455.5467969546729</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>455.546796954672</v>
+        <v>455.5467969546729</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27165,7 +27165,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0.4475204838892534</v>
+        <v>0.4475204838892725</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>455.546796954673</v>
+        <v>455.5467969546729</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -29037,25 +29037,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.4475204838892534</v>
+        <v>0.4475204838892725</v>
       </c>
       <c r="C23" t="n">
-        <v>0.4475204838892534</v>
+        <v>0.4475204838892725</v>
       </c>
       <c r="D23" t="n">
-        <v>0.4475204838892534</v>
+        <v>0.4475204838892725</v>
       </c>
       <c r="E23" t="n">
-        <v>0.4475204838892534</v>
+        <v>0.4475204838892725</v>
       </c>
       <c r="F23" t="n">
-        <v>0.4475204838892534</v>
+        <v>0.4475204838892725</v>
       </c>
       <c r="G23" t="n">
-        <v>0.4475204838892534</v>
+        <v>0.4475204838892725</v>
       </c>
       <c r="H23" t="n">
-        <v>0.4475204838892534</v>
+        <v>0.4475204838892725</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -29088,25 +29088,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0.4475204838892534</v>
+        <v>0.4475204838892725</v>
       </c>
       <c r="T23" t="n">
-        <v>0.4475204838892534</v>
+        <v>0.4475204838892725</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4475204838892534</v>
+        <v>0.4475204838892725</v>
       </c>
       <c r="V23" t="n">
-        <v>0.4475204838892534</v>
+        <v>0.4475204838892725</v>
       </c>
       <c r="W23" t="n">
-        <v>0.4475204838892534</v>
+        <v>0.4475204838892725</v>
       </c>
       <c r="X23" t="n">
-        <v>0.4475204838892534</v>
+        <v>0.4475204838892725</v>
       </c>
       <c r="Y23" t="n">
-        <v>0.4475204838892534</v>
+        <v>0.4475204838892725</v>
       </c>
     </row>
     <row r="24">
@@ -29195,76 +29195,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.4475204838892534</v>
+        <v>0.4475204838892725</v>
       </c>
       <c r="C25" t="n">
-        <v>0.4475204838892534</v>
+        <v>0.4475204838892725</v>
       </c>
       <c r="D25" t="n">
-        <v>0.4475204838892534</v>
+        <v>0.4475204838892725</v>
       </c>
       <c r="E25" t="n">
-        <v>0.4475204838892534</v>
+        <v>0.4475204838892725</v>
       </c>
       <c r="F25" t="n">
-        <v>0.4475204838892534</v>
+        <v>0.4475204838892725</v>
       </c>
       <c r="G25" t="n">
-        <v>0.4475204838892534</v>
+        <v>0.4475204838892725</v>
       </c>
       <c r="H25" t="n">
-        <v>0.4475204838892534</v>
+        <v>0.4475204838892725</v>
       </c>
       <c r="I25" t="n">
-        <v>0.4475204838892534</v>
+        <v>0.4475204838892725</v>
       </c>
       <c r="J25" t="n">
-        <v>0.4475204838892534</v>
+        <v>0.4475204838892725</v>
       </c>
       <c r="K25" t="n">
-        <v>0.4475204838892534</v>
+        <v>0.4475204838892725</v>
       </c>
       <c r="L25" t="n">
-        <v>0.4475204838892534</v>
+        <v>0.4475204838892725</v>
       </c>
       <c r="M25" t="n">
-        <v>0.4475204838892534</v>
+        <v>0.4475204838892725</v>
       </c>
       <c r="N25" t="n">
-        <v>0.4475204838892534</v>
+        <v>0.4475204838892725</v>
       </c>
       <c r="O25" t="n">
-        <v>0.4475204838892534</v>
+        <v>0.4475204838892725</v>
       </c>
       <c r="P25" t="n">
-        <v>0.4475204838892534</v>
+        <v>0.4475204838892725</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.4475204838892534</v>
+        <v>0.4475204838892725</v>
       </c>
       <c r="R25" t="n">
-        <v>0.4475204838892534</v>
+        <v>0.4475204838892725</v>
       </c>
       <c r="S25" t="n">
-        <v>0.4475204838892534</v>
+        <v>0.4475204838892725</v>
       </c>
       <c r="T25" t="n">
-        <v>0.4475204838892534</v>
+        <v>0.4475204838892725</v>
       </c>
       <c r="U25" t="n">
-        <v>0.4475204838892534</v>
+        <v>0.4475204838892725</v>
       </c>
       <c r="V25" t="n">
-        <v>0.4475204838892534</v>
+        <v>0.4475204838892725</v>
       </c>
       <c r="W25" t="n">
-        <v>0.4475204838892534</v>
+        <v>0.4475204838892725</v>
       </c>
       <c r="X25" t="n">
-        <v>0.4475204838892534</v>
+        <v>0.4475204838892725</v>
       </c>
       <c r="Y25" t="n">
-        <v>0.4475204838892534</v>
+        <v>0.4475204838892725</v>
       </c>
     </row>
     <row r="26">
@@ -29274,25 +29274,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.4475204838892534</v>
+        <v>0.4475204838892725</v>
       </c>
       <c r="C26" t="n">
-        <v>0.4475204838892534</v>
+        <v>0.4475204838892725</v>
       </c>
       <c r="D26" t="n">
-        <v>0.4475204838892534</v>
+        <v>0.4475204838892725</v>
       </c>
       <c r="E26" t="n">
-        <v>0.4475204838892534</v>
+        <v>0.4475204838892725</v>
       </c>
       <c r="F26" t="n">
-        <v>0.4475204838892534</v>
+        <v>0.4475204838892725</v>
       </c>
       <c r="G26" t="n">
-        <v>0.4475204838892534</v>
+        <v>0.4475204838892725</v>
       </c>
       <c r="H26" t="n">
-        <v>0.4475204838892534</v>
+        <v>0.4475204838892725</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29325,25 +29325,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0.4475204838892534</v>
+        <v>0.4475204838892725</v>
       </c>
       <c r="T26" t="n">
-        <v>0.4475204838892534</v>
+        <v>0.4475204838892725</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4475204838892534</v>
+        <v>0.4475204838892725</v>
       </c>
       <c r="V26" t="n">
-        <v>0.4475204838892534</v>
+        <v>0.4475204838892725</v>
       </c>
       <c r="W26" t="n">
-        <v>0.4475204838892534</v>
+        <v>0.4475204838892725</v>
       </c>
       <c r="X26" t="n">
-        <v>0.4475204838892534</v>
+        <v>0.4475204838892725</v>
       </c>
       <c r="Y26" t="n">
-        <v>0.4475204838892534</v>
+        <v>0.4475204838892725</v>
       </c>
     </row>
     <row r="27">
@@ -29432,76 +29432,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.4475204838892534</v>
+        <v>0.4475204838892725</v>
       </c>
       <c r="C28" t="n">
-        <v>0.4475204838892534</v>
+        <v>0.4475204838892725</v>
       </c>
       <c r="D28" t="n">
-        <v>0.4475204838892534</v>
+        <v>0.4475204838892725</v>
       </c>
       <c r="E28" t="n">
-        <v>0.4475204838892534</v>
+        <v>0.4475204838892725</v>
       </c>
       <c r="F28" t="n">
-        <v>0.4475204838892534</v>
+        <v>0.4475204838892725</v>
       </c>
       <c r="G28" t="n">
-        <v>0.4475204838892534</v>
+        <v>0.4475204838892725</v>
       </c>
       <c r="H28" t="n">
-        <v>0.4475204838892534</v>
+        <v>0.4475204838892725</v>
       </c>
       <c r="I28" t="n">
-        <v>0.4475204838892534</v>
+        <v>0.4475204838892725</v>
       </c>
       <c r="J28" t="n">
-        <v>0.4475204838892534</v>
+        <v>0.4475204838892725</v>
       </c>
       <c r="K28" t="n">
-        <v>0.4475204838892534</v>
+        <v>0.4475204838892725</v>
       </c>
       <c r="L28" t="n">
-        <v>0.4475204838892534</v>
+        <v>0.4475204838892725</v>
       </c>
       <c r="M28" t="n">
-        <v>0.4475204838892534</v>
+        <v>0.4475204838892725</v>
       </c>
       <c r="N28" t="n">
-        <v>0.4475204838892534</v>
+        <v>0.4475204838892725</v>
       </c>
       <c r="O28" t="n">
-        <v>0.4475204838892534</v>
+        <v>0.4475204838892725</v>
       </c>
       <c r="P28" t="n">
-        <v>0.4475204838892534</v>
+        <v>0.4475204838892725</v>
       </c>
       <c r="Q28" t="n">
-        <v>0.4475204838892534</v>
+        <v>0.4475204838892725</v>
       </c>
       <c r="R28" t="n">
-        <v>0.4475204838892534</v>
+        <v>0.4475204838892725</v>
       </c>
       <c r="S28" t="n">
-        <v>0.4475204838892534</v>
+        <v>0.4475204838892725</v>
       </c>
       <c r="T28" t="n">
-        <v>0.4475204838892534</v>
+        <v>0.4475204838892725</v>
       </c>
       <c r="U28" t="n">
-        <v>0.4475204838892534</v>
+        <v>0.4475204838892725</v>
       </c>
       <c r="V28" t="n">
-        <v>0.4475204838892534</v>
+        <v>0.4475204838892725</v>
       </c>
       <c r="W28" t="n">
-        <v>0.4475204838892534</v>
+        <v>0.4475204838892725</v>
       </c>
       <c r="X28" t="n">
-        <v>0.4475204838892534</v>
+        <v>0.4475204838892725</v>
       </c>
       <c r="Y28" t="n">
-        <v>0.4475204838892534</v>
+        <v>0.4475204838892725</v>
       </c>
     </row>
     <row r="29">
@@ -29511,25 +29511,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.4475204838892534</v>
+        <v>0.4475204838892725</v>
       </c>
       <c r="C29" t="n">
-        <v>0.4475204838892534</v>
+        <v>0.4475204838892725</v>
       </c>
       <c r="D29" t="n">
-        <v>0.4475204838892534</v>
+        <v>0.4475204838892725</v>
       </c>
       <c r="E29" t="n">
-        <v>0.4475204838892534</v>
+        <v>0.4475204838892725</v>
       </c>
       <c r="F29" t="n">
-        <v>0.4475204838892534</v>
+        <v>0.4475204838892725</v>
       </c>
       <c r="G29" t="n">
-        <v>0.4475204838892534</v>
+        <v>0.4475204838892725</v>
       </c>
       <c r="H29" t="n">
-        <v>0.4475204838892534</v>
+        <v>0.4475204838892725</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -29562,25 +29562,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0.4475204838892534</v>
+        <v>0.4475204838892725</v>
       </c>
       <c r="T29" t="n">
-        <v>0.4475204838892534</v>
+        <v>0.4475204838892725</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4475204838892534</v>
+        <v>0.4475204838892725</v>
       </c>
       <c r="V29" t="n">
-        <v>0.4475204838892534</v>
+        <v>0.4475204838892725</v>
       </c>
       <c r="W29" t="n">
-        <v>0.4475204838892534</v>
+        <v>0.4475204838892725</v>
       </c>
       <c r="X29" t="n">
-        <v>0.4475204838892534</v>
+        <v>0.4475204838892725</v>
       </c>
       <c r="Y29" t="n">
-        <v>0.4475204838892534</v>
+        <v>0.4475204838892725</v>
       </c>
     </row>
     <row r="30">
@@ -29669,76 +29669,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.4475204838892534</v>
+        <v>0.4475204838892725</v>
       </c>
       <c r="C31" t="n">
-        <v>0.4475204838892534</v>
+        <v>0.4475204838892725</v>
       </c>
       <c r="D31" t="n">
-        <v>0.4475204838892534</v>
+        <v>0.4475204838892725</v>
       </c>
       <c r="E31" t="n">
-        <v>0.4475204838892534</v>
+        <v>0.4475204838892725</v>
       </c>
       <c r="F31" t="n">
-        <v>0.4475204838892534</v>
+        <v>0.4475204838892725</v>
       </c>
       <c r="G31" t="n">
-        <v>0.4475204838892534</v>
+        <v>0.4475204838892725</v>
       </c>
       <c r="H31" t="n">
-        <v>0.4475204838892534</v>
+        <v>0.4475204838892725</v>
       </c>
       <c r="I31" t="n">
-        <v>0.4475204838892534</v>
+        <v>0.4475204838892725</v>
       </c>
       <c r="J31" t="n">
-        <v>0.4475204838892534</v>
+        <v>0.4475204838892725</v>
       </c>
       <c r="K31" t="n">
-        <v>0.4475204838892534</v>
+        <v>0.4475204838892725</v>
       </c>
       <c r="L31" t="n">
-        <v>0.4475204838892534</v>
+        <v>0.4475204838892725</v>
       </c>
       <c r="M31" t="n">
-        <v>0.4475204838892534</v>
+        <v>0.4475204838892725</v>
       </c>
       <c r="N31" t="n">
-        <v>0.4475204838892534</v>
+        <v>0.4475204838892725</v>
       </c>
       <c r="O31" t="n">
-        <v>0.4475204838892534</v>
+        <v>0.4475204838892725</v>
       </c>
       <c r="P31" t="n">
-        <v>0.4475204838892534</v>
+        <v>0.4475204838892725</v>
       </c>
       <c r="Q31" t="n">
-        <v>0.4475204838892534</v>
+        <v>0.4475204838892725</v>
       </c>
       <c r="R31" t="n">
-        <v>0.4475204838892534</v>
+        <v>0.4475204838892725</v>
       </c>
       <c r="S31" t="n">
-        <v>0.4475204838892534</v>
+        <v>0.4475204838892725</v>
       </c>
       <c r="T31" t="n">
-        <v>0.4475204838892534</v>
+        <v>0.4475204838892725</v>
       </c>
       <c r="U31" t="n">
-        <v>0.4475204838892534</v>
+        <v>0.4475204838892725</v>
       </c>
       <c r="V31" t="n">
-        <v>0.4475204838892534</v>
+        <v>0.4475204838892725</v>
       </c>
       <c r="W31" t="n">
-        <v>0.4475204838892534</v>
+        <v>0.4475204838892725</v>
       </c>
       <c r="X31" t="n">
-        <v>0.4475204838892534</v>
+        <v>0.4475204838892725</v>
       </c>
       <c r="Y31" t="n">
-        <v>0.4475204838892534</v>
+        <v>0.4475204838892725</v>
       </c>
     </row>
     <row r="32">
@@ -29748,25 +29748,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.4475204838892534</v>
+        <v>0.4475204838892725</v>
       </c>
       <c r="C32" t="n">
-        <v>0.4475204838892534</v>
+        <v>0.4475204838892725</v>
       </c>
       <c r="D32" t="n">
-        <v>0.4475204838892534</v>
+        <v>0.4475204838892725</v>
       </c>
       <c r="E32" t="n">
-        <v>0.4475204838892534</v>
+        <v>0.4475204838892725</v>
       </c>
       <c r="F32" t="n">
-        <v>0.4475204838892534</v>
+        <v>0.4475204838892725</v>
       </c>
       <c r="G32" t="n">
-        <v>0.4475204838892534</v>
+        <v>0.4475204838892725</v>
       </c>
       <c r="H32" t="n">
-        <v>0.4475204838892534</v>
+        <v>0.4475204838892725</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -29799,25 +29799,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0.4475204838892534</v>
+        <v>0.4475204838892725</v>
       </c>
       <c r="T32" t="n">
-        <v>0.4475204838892534</v>
+        <v>0.4475204838892725</v>
       </c>
       <c r="U32" t="n">
-        <v>0.4475204838892534</v>
+        <v>0.4475204838892725</v>
       </c>
       <c r="V32" t="n">
-        <v>0.4475204838892534</v>
+        <v>0.4475204838892725</v>
       </c>
       <c r="W32" t="n">
-        <v>0.4475204838892534</v>
+        <v>0.4475204838892725</v>
       </c>
       <c r="X32" t="n">
-        <v>0.4475204838892534</v>
+        <v>0.4475204838892725</v>
       </c>
       <c r="Y32" t="n">
-        <v>0.4475204838892534</v>
+        <v>0.4475204838892725</v>
       </c>
     </row>
     <row r="33">
@@ -29906,76 +29906,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.4475204838892534</v>
+        <v>0.4475204838892725</v>
       </c>
       <c r="C34" t="n">
-        <v>0.4475204838892534</v>
+        <v>0.4475204838892725</v>
       </c>
       <c r="D34" t="n">
-        <v>0.4475204838892534</v>
+        <v>0.4475204838892725</v>
       </c>
       <c r="E34" t="n">
-        <v>0.4475204838892534</v>
+        <v>0.4475204838892725</v>
       </c>
       <c r="F34" t="n">
-        <v>0.4475204838892534</v>
+        <v>0.4475204838892725</v>
       </c>
       <c r="G34" t="n">
-        <v>0.4475204838892534</v>
+        <v>0.4475204838892725</v>
       </c>
       <c r="H34" t="n">
-        <v>0.4475204838892534</v>
+        <v>0.4475204838892725</v>
       </c>
       <c r="I34" t="n">
-        <v>0.4475204838892534</v>
+        <v>0.4475204838892725</v>
       </c>
       <c r="J34" t="n">
-        <v>0.4475204838892534</v>
+        <v>0.4475204838892725</v>
       </c>
       <c r="K34" t="n">
-        <v>0.4475204838892534</v>
+        <v>0.4475204838892725</v>
       </c>
       <c r="L34" t="n">
-        <v>0.4475204838892534</v>
+        <v>0.4475204838892725</v>
       </c>
       <c r="M34" t="n">
-        <v>0.4475204838892534</v>
+        <v>0.4475204838892725</v>
       </c>
       <c r="N34" t="n">
-        <v>0.4475204838892534</v>
+        <v>0.4475204838892725</v>
       </c>
       <c r="O34" t="n">
-        <v>0.4475204838892534</v>
+        <v>0.4475204838892725</v>
       </c>
       <c r="P34" t="n">
-        <v>0.4475204838892534</v>
+        <v>0.4475204838892725</v>
       </c>
       <c r="Q34" t="n">
-        <v>0.4475204838892534</v>
+        <v>0.4475204838892725</v>
       </c>
       <c r="R34" t="n">
-        <v>0.4475204838892534</v>
+        <v>0.4475204838892725</v>
       </c>
       <c r="S34" t="n">
-        <v>0.4475204838892534</v>
+        <v>0.4475204838892725</v>
       </c>
       <c r="T34" t="n">
-        <v>0.4475204838892534</v>
+        <v>0.4475204838892725</v>
       </c>
       <c r="U34" t="n">
-        <v>0.4475204838892534</v>
+        <v>0.4475204838892725</v>
       </c>
       <c r="V34" t="n">
-        <v>0.4475204838892534</v>
+        <v>0.4475204838892725</v>
       </c>
       <c r="W34" t="n">
-        <v>0.4475204838892534</v>
+        <v>0.4475204838892725</v>
       </c>
       <c r="X34" t="n">
-        <v>0.4475204838892534</v>
+        <v>0.4475204838892725</v>
       </c>
       <c r="Y34" t="n">
-        <v>0.4475204838892534</v>
+        <v>0.4475204838892725</v>
       </c>
     </row>
     <row r="35">
@@ -29985,25 +29985,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.4475204838892534</v>
+        <v>0.4475204838892725</v>
       </c>
       <c r="C35" t="n">
-        <v>0.4475204838892534</v>
+        <v>0.4475204838892725</v>
       </c>
       <c r="D35" t="n">
-        <v>0.4475204838892534</v>
+        <v>0.4475204838892725</v>
       </c>
       <c r="E35" t="n">
-        <v>0.4475204838892534</v>
+        <v>0.4475204838892725</v>
       </c>
       <c r="F35" t="n">
-        <v>0.4475204838892534</v>
+        <v>0.4475204838892725</v>
       </c>
       <c r="G35" t="n">
-        <v>0.4475204838892534</v>
+        <v>0.4475204838892725</v>
       </c>
       <c r="H35" t="n">
-        <v>0.4475204838892534</v>
+        <v>0.4475204838892725</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30036,25 +30036,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0.4475204838892534</v>
+        <v>0.4475204838892725</v>
       </c>
       <c r="T35" t="n">
-        <v>0.4475204838892534</v>
+        <v>0.4475204838892725</v>
       </c>
       <c r="U35" t="n">
-        <v>0.4475204838892534</v>
+        <v>0.4475204838892725</v>
       </c>
       <c r="V35" t="n">
-        <v>0.4475204838892534</v>
+        <v>0.4475204838892725</v>
       </c>
       <c r="W35" t="n">
-        <v>0.4475204838892534</v>
+        <v>0.4475204838892725</v>
       </c>
       <c r="X35" t="n">
-        <v>0.4475204838892534</v>
+        <v>0.4475204838892725</v>
       </c>
       <c r="Y35" t="n">
-        <v>0.4475204838892534</v>
+        <v>0.4475204838892725</v>
       </c>
     </row>
     <row r="36">
@@ -30143,28 +30143,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.4475204838892534</v>
+        <v>0.4475204838892725</v>
       </c>
       <c r="C37" t="n">
-        <v>0.4475204838892534</v>
+        <v>0.4475204838892725</v>
       </c>
       <c r="D37" t="n">
-        <v>0.4475204838892534</v>
+        <v>0.4475204838892725</v>
       </c>
       <c r="E37" t="n">
-        <v>0.4475204838892534</v>
+        <v>0.4475204838892725</v>
       </c>
       <c r="F37" t="n">
-        <v>0.4475204838892534</v>
+        <v>0.4475204838892725</v>
       </c>
       <c r="G37" t="n">
-        <v>0.4475204838892534</v>
+        <v>0.4475204838892725</v>
       </c>
       <c r="H37" t="n">
-        <v>0.4475204838892534</v>
+        <v>0.4475204838892725</v>
       </c>
       <c r="I37" t="n">
-        <v>0.4475204838892534</v>
+        <v>0.4475204838892725</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -30191,28 +30191,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0.4475204838892534</v>
+        <v>0.4475204838892725</v>
       </c>
       <c r="S37" t="n">
-        <v>0.4475204838892534</v>
+        <v>0.4475204838892725</v>
       </c>
       <c r="T37" t="n">
-        <v>0.4475204838892534</v>
+        <v>0.4475204838892725</v>
       </c>
       <c r="U37" t="n">
-        <v>0.4475204838892534</v>
+        <v>0.4475204838892725</v>
       </c>
       <c r="V37" t="n">
-        <v>0.4475204838892534</v>
+        <v>0.4475204838892725</v>
       </c>
       <c r="W37" t="n">
-        <v>0.4475204838892534</v>
+        <v>0.4475204838892725</v>
       </c>
       <c r="X37" t="n">
-        <v>0.4475204838892534</v>
+        <v>0.4475204838892725</v>
       </c>
       <c r="Y37" t="n">
-        <v>0.4475204838892534</v>
+        <v>0.4475204838892725</v>
       </c>
     </row>
     <row r="38">
@@ -31758,7 +31758,7 @@
         <v>17.78189040326855</v>
       </c>
       <c r="I11" t="n">
-        <v>66.93873597187954</v>
+        <v>66.93873597187952</v>
       </c>
       <c r="J11" t="n">
         <v>147.366358658798</v>
@@ -31767,7 +31767,7 @@
         <v>220.8639708419161</v>
       </c>
       <c r="L11" t="n">
-        <v>274.001285957652</v>
+        <v>274.0012859576519</v>
       </c>
       <c r="M11" t="n">
         <v>304.8792250235987</v>
@@ -31776,10 +31776,10 @@
         <v>309.8124896258969</v>
       </c>
       <c r="O11" t="n">
-        <v>292.5471487058431</v>
+        <v>292.547148705843</v>
       </c>
       <c r="P11" t="n">
-        <v>249.6822231029438</v>
+        <v>249.6822231029437</v>
       </c>
       <c r="Q11" t="n">
         <v>187.5009512789911</v>
@@ -31791,7 +31791,7 @@
         <v>39.56595411346099</v>
       </c>
       <c r="T11" t="n">
-        <v>7.600656681587511</v>
+        <v>7.60065668158751</v>
       </c>
       <c r="U11" t="n">
         <v>0.1389040627131926</v>
@@ -31831,16 +31831,16 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.9290028203748495</v>
+        <v>0.9290028203748494</v>
       </c>
       <c r="H12" t="n">
-        <v>8.972211449409732</v>
+        <v>8.97221144940973</v>
       </c>
       <c r="I12" t="n">
         <v>31.98540412255513</v>
       </c>
       <c r="J12" t="n">
-        <v>87.77039365655543</v>
+        <v>87.77039365655541</v>
       </c>
       <c r="K12" t="n">
         <v>150.0135826216703</v>
@@ -31852,7 +31852,7 @@
         <v>235.3881268993642</v>
       </c>
       <c r="N12" t="n">
-        <v>241.6181501991588</v>
+        <v>241.6181501991587</v>
       </c>
       <c r="O12" t="n">
         <v>221.0334034950634</v>
@@ -31910,10 +31910,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.7788447573749456</v>
+        <v>0.7788447573749455</v>
       </c>
       <c r="H13" t="n">
-        <v>6.924637933751795</v>
+        <v>6.924637933751794</v>
       </c>
       <c r="I13" t="n">
         <v>23.42198597633019</v>
@@ -31922,10 +31922,10 @@
         <v>55.06432434640865</v>
       </c>
       <c r="K13" t="n">
-        <v>90.48759999319822</v>
+        <v>90.4875999931982</v>
       </c>
       <c r="L13" t="n">
-        <v>115.7929742009988</v>
+        <v>115.7929742009987</v>
       </c>
       <c r="M13" t="n">
         <v>122.0874559219653</v>
@@ -31943,7 +31943,7 @@
         <v>65.21762781982386</v>
       </c>
       <c r="R13" t="n">
-        <v>35.01969245433164</v>
+        <v>35.01969245433163</v>
       </c>
       <c r="S13" t="n">
         <v>13.57313999897973</v>
@@ -31992,46 +31992,46 @@
         <v>1.736300783914907</v>
       </c>
       <c r="H14" t="n">
-        <v>17.78189040326855</v>
+        <v>17.78189040326854</v>
       </c>
       <c r="I14" t="n">
-        <v>66.93873597187954</v>
+        <v>66.93873597187951</v>
       </c>
       <c r="J14" t="n">
         <v>147.366358658798</v>
       </c>
       <c r="K14" t="n">
-        <v>220.8639708419161</v>
+        <v>220.863970841916</v>
       </c>
       <c r="L14" t="n">
-        <v>274.001285957652</v>
+        <v>274.0012859576519</v>
       </c>
       <c r="M14" t="n">
-        <v>304.8792250235987</v>
+        <v>304.8792250235986</v>
       </c>
       <c r="N14" t="n">
         <v>309.8124896258969</v>
       </c>
       <c r="O14" t="n">
-        <v>292.5471487058431</v>
+        <v>292.547148705843</v>
       </c>
       <c r="P14" t="n">
-        <v>249.6822231029438</v>
+        <v>249.6822231029437</v>
       </c>
       <c r="Q14" t="n">
-        <v>187.5009512789911</v>
+        <v>187.500951278991</v>
       </c>
       <c r="R14" t="n">
         <v>109.0679041175949</v>
       </c>
       <c r="S14" t="n">
-        <v>39.56595411346099</v>
+        <v>39.56595411346098</v>
       </c>
       <c r="T14" t="n">
-        <v>7.600656681587511</v>
+        <v>7.600656681587509</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1389040627131926</v>
+        <v>0.1389040627131925</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,28 +32068,28 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.9290028203748495</v>
+        <v>0.9290028203748493</v>
       </c>
       <c r="H15" t="n">
-        <v>8.972211449409732</v>
+        <v>8.97221144940973</v>
       </c>
       <c r="I15" t="n">
-        <v>31.98540412255513</v>
+        <v>31.98540412255512</v>
       </c>
       <c r="J15" t="n">
-        <v>87.77039365655543</v>
+        <v>87.7703936565554</v>
       </c>
       <c r="K15" t="n">
         <v>150.0135826216703</v>
       </c>
       <c r="L15" t="n">
-        <v>201.711774660776</v>
+        <v>201.7117746607759</v>
       </c>
       <c r="M15" t="n">
         <v>235.3881268993642</v>
       </c>
       <c r="N15" t="n">
-        <v>241.6181501991588</v>
+        <v>241.6181501991587</v>
       </c>
       <c r="O15" t="n">
         <v>221.0334034950634</v>
@@ -32101,16 +32101,16 @@
         <v>118.5863951060948</v>
       </c>
       <c r="R15" t="n">
-        <v>57.67966633871217</v>
+        <v>57.67966633871216</v>
       </c>
       <c r="S15" t="n">
         <v>17.25581993108546</v>
       </c>
       <c r="T15" t="n">
-        <v>3.744533297914414</v>
+        <v>3.744533297914413</v>
       </c>
       <c r="U15" t="n">
-        <v>0.06111860660360854</v>
+        <v>0.06111860660360853</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,22 +32147,22 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.7788447573749456</v>
+        <v>0.7788447573749454</v>
       </c>
       <c r="H16" t="n">
-        <v>6.924637933751795</v>
+        <v>6.924637933751793</v>
       </c>
       <c r="I16" t="n">
-        <v>23.42198597633019</v>
+        <v>23.42198597633018</v>
       </c>
       <c r="J16" t="n">
-        <v>55.06432434640865</v>
+        <v>55.06432434640864</v>
       </c>
       <c r="K16" t="n">
-        <v>90.48759999319822</v>
+        <v>90.48759999319819</v>
       </c>
       <c r="L16" t="n">
-        <v>115.7929742009988</v>
+        <v>115.7929742009987</v>
       </c>
       <c r="M16" t="n">
         <v>122.0874559219653</v>
@@ -32174,22 +32174,22 @@
         <v>110.086166251506</v>
       </c>
       <c r="P16" t="n">
-        <v>94.19773320105702</v>
+        <v>94.19773320105701</v>
       </c>
       <c r="Q16" t="n">
-        <v>65.21762781982386</v>
+        <v>65.21762781982385</v>
       </c>
       <c r="R16" t="n">
-        <v>35.01969245433164</v>
+        <v>35.01969245433163</v>
       </c>
       <c r="S16" t="n">
         <v>13.57313999897973</v>
       </c>
       <c r="T16" t="n">
-        <v>3.327791236056585</v>
+        <v>3.327791236056584</v>
       </c>
       <c r="U16" t="n">
-        <v>0.04248244131136072</v>
+        <v>0.04248244131136071</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32229,46 +32229,46 @@
         <v>1.736300783914907</v>
       </c>
       <c r="H17" t="n">
-        <v>17.78189040326855</v>
+        <v>17.78189040326854</v>
       </c>
       <c r="I17" t="n">
-        <v>66.93873597187954</v>
+        <v>66.93873597187951</v>
       </c>
       <c r="J17" t="n">
         <v>147.366358658798</v>
       </c>
       <c r="K17" t="n">
-        <v>220.8639708419161</v>
+        <v>220.863970841916</v>
       </c>
       <c r="L17" t="n">
-        <v>274.001285957652</v>
+        <v>274.0012859576519</v>
       </c>
       <c r="M17" t="n">
-        <v>304.8792250235987</v>
+        <v>304.8792250235986</v>
       </c>
       <c r="N17" t="n">
         <v>309.8124896258969</v>
       </c>
       <c r="O17" t="n">
-        <v>292.5471487058431</v>
+        <v>292.547148705843</v>
       </c>
       <c r="P17" t="n">
-        <v>249.6822231029438</v>
+        <v>249.6822231029437</v>
       </c>
       <c r="Q17" t="n">
-        <v>187.5009512789911</v>
+        <v>187.500951278991</v>
       </c>
       <c r="R17" t="n">
         <v>109.0679041175949</v>
       </c>
       <c r="S17" t="n">
-        <v>39.56595411346099</v>
+        <v>39.56595411346098</v>
       </c>
       <c r="T17" t="n">
-        <v>7.600656681587511</v>
+        <v>7.600656681587509</v>
       </c>
       <c r="U17" t="n">
-        <v>0.1389040627131926</v>
+        <v>0.1389040627131925</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,28 +32305,28 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9290028203748495</v>
+        <v>0.9290028203748493</v>
       </c>
       <c r="H18" t="n">
-        <v>8.972211449409732</v>
+        <v>8.97221144940973</v>
       </c>
       <c r="I18" t="n">
-        <v>31.98540412255513</v>
+        <v>31.98540412255512</v>
       </c>
       <c r="J18" t="n">
-        <v>87.77039365655543</v>
+        <v>87.7703936565554</v>
       </c>
       <c r="K18" t="n">
         <v>150.0135826216703</v>
       </c>
       <c r="L18" t="n">
-        <v>201.711774660776</v>
+        <v>201.7117746607759</v>
       </c>
       <c r="M18" t="n">
         <v>235.3881268993642</v>
       </c>
       <c r="N18" t="n">
-        <v>241.6181501991588</v>
+        <v>241.6181501991587</v>
       </c>
       <c r="O18" t="n">
         <v>221.0334034950634</v>
@@ -32338,16 +32338,16 @@
         <v>118.5863951060948</v>
       </c>
       <c r="R18" t="n">
-        <v>57.67966633871217</v>
+        <v>57.67966633871216</v>
       </c>
       <c r="S18" t="n">
         <v>17.25581993108546</v>
       </c>
       <c r="T18" t="n">
-        <v>3.744533297914414</v>
+        <v>3.744533297914413</v>
       </c>
       <c r="U18" t="n">
-        <v>0.06111860660360854</v>
+        <v>0.06111860660360853</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,22 +32384,22 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.7788447573749456</v>
+        <v>0.7788447573749454</v>
       </c>
       <c r="H19" t="n">
-        <v>6.924637933751795</v>
+        <v>6.924637933751793</v>
       </c>
       <c r="I19" t="n">
-        <v>23.42198597633019</v>
+        <v>23.42198597633018</v>
       </c>
       <c r="J19" t="n">
-        <v>55.06432434640865</v>
+        <v>55.06432434640864</v>
       </c>
       <c r="K19" t="n">
-        <v>90.48759999319822</v>
+        <v>90.48759999319819</v>
       </c>
       <c r="L19" t="n">
-        <v>115.7929742009988</v>
+        <v>115.7929742009987</v>
       </c>
       <c r="M19" t="n">
         <v>122.0874559219653</v>
@@ -32411,22 +32411,22 @@
         <v>110.086166251506</v>
       </c>
       <c r="P19" t="n">
-        <v>94.19773320105702</v>
+        <v>94.19773320105701</v>
       </c>
       <c r="Q19" t="n">
-        <v>65.21762781982386</v>
+        <v>65.21762781982385</v>
       </c>
       <c r="R19" t="n">
-        <v>35.01969245433164</v>
+        <v>35.01969245433163</v>
       </c>
       <c r="S19" t="n">
         <v>13.57313999897973</v>
       </c>
       <c r="T19" t="n">
-        <v>3.327791236056585</v>
+        <v>3.327791236056584</v>
       </c>
       <c r="U19" t="n">
-        <v>0.04248244131136072</v>
+        <v>0.04248244131136071</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32466,46 +32466,46 @@
         <v>1.736300783914907</v>
       </c>
       <c r="H20" t="n">
-        <v>17.78189040326855</v>
+        <v>17.78189040326854</v>
       </c>
       <c r="I20" t="n">
-        <v>66.93873597187954</v>
+        <v>66.93873597187951</v>
       </c>
       <c r="J20" t="n">
         <v>147.366358658798</v>
       </c>
       <c r="K20" t="n">
-        <v>220.8639708419161</v>
+        <v>220.863970841916</v>
       </c>
       <c r="L20" t="n">
-        <v>274.001285957652</v>
+        <v>274.0012859576519</v>
       </c>
       <c r="M20" t="n">
-        <v>304.8792250235987</v>
+        <v>304.8792250235986</v>
       </c>
       <c r="N20" t="n">
         <v>309.8124896258969</v>
       </c>
       <c r="O20" t="n">
-        <v>292.5471487058431</v>
+        <v>292.547148705843</v>
       </c>
       <c r="P20" t="n">
-        <v>249.6822231029438</v>
+        <v>249.6822231029437</v>
       </c>
       <c r="Q20" t="n">
-        <v>187.5009512789911</v>
+        <v>187.500951278991</v>
       </c>
       <c r="R20" t="n">
         <v>109.0679041175949</v>
       </c>
       <c r="S20" t="n">
-        <v>39.56595411346099</v>
+        <v>39.56595411346098</v>
       </c>
       <c r="T20" t="n">
-        <v>7.600656681587511</v>
+        <v>7.600656681587509</v>
       </c>
       <c r="U20" t="n">
-        <v>0.1389040627131926</v>
+        <v>0.1389040627131925</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,28 +32542,28 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.9290028203748495</v>
+        <v>0.9290028203748493</v>
       </c>
       <c r="H21" t="n">
-        <v>8.972211449409732</v>
+        <v>8.97221144940973</v>
       </c>
       <c r="I21" t="n">
-        <v>31.98540412255513</v>
+        <v>31.98540412255512</v>
       </c>
       <c r="J21" t="n">
-        <v>87.77039365655543</v>
+        <v>87.7703936565554</v>
       </c>
       <c r="K21" t="n">
         <v>150.0135826216703</v>
       </c>
       <c r="L21" t="n">
-        <v>201.711774660776</v>
+        <v>201.7117746607759</v>
       </c>
       <c r="M21" t="n">
         <v>235.3881268993642</v>
       </c>
       <c r="N21" t="n">
-        <v>241.6181501991588</v>
+        <v>241.6181501991587</v>
       </c>
       <c r="O21" t="n">
         <v>221.0334034950634</v>
@@ -32575,16 +32575,16 @@
         <v>118.5863951060948</v>
       </c>
       <c r="R21" t="n">
-        <v>57.67966633871217</v>
+        <v>57.67966633871216</v>
       </c>
       <c r="S21" t="n">
         <v>17.25581993108546</v>
       </c>
       <c r="T21" t="n">
-        <v>3.744533297914414</v>
+        <v>3.744533297914413</v>
       </c>
       <c r="U21" t="n">
-        <v>0.06111860660360854</v>
+        <v>0.06111860660360853</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,22 +32621,22 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.7788447573749456</v>
+        <v>0.7788447573749454</v>
       </c>
       <c r="H22" t="n">
-        <v>6.924637933751795</v>
+        <v>6.924637933751793</v>
       </c>
       <c r="I22" t="n">
-        <v>23.42198597633019</v>
+        <v>23.42198597633018</v>
       </c>
       <c r="J22" t="n">
-        <v>55.06432434640865</v>
+        <v>55.06432434640864</v>
       </c>
       <c r="K22" t="n">
-        <v>90.48759999319822</v>
+        <v>90.48759999319819</v>
       </c>
       <c r="L22" t="n">
-        <v>115.7929742009988</v>
+        <v>115.7929742009987</v>
       </c>
       <c r="M22" t="n">
         <v>122.0874559219653</v>
@@ -32648,22 +32648,22 @@
         <v>110.086166251506</v>
       </c>
       <c r="P22" t="n">
-        <v>94.19773320105702</v>
+        <v>94.19773320105701</v>
       </c>
       <c r="Q22" t="n">
-        <v>65.21762781982386</v>
+        <v>65.21762781982385</v>
       </c>
       <c r="R22" t="n">
-        <v>35.01969245433164</v>
+        <v>35.01969245433163</v>
       </c>
       <c r="S22" t="n">
         <v>13.57313999897973</v>
       </c>
       <c r="T22" t="n">
-        <v>3.327791236056585</v>
+        <v>3.327791236056584</v>
       </c>
       <c r="U22" t="n">
-        <v>0.04248244131136072</v>
+        <v>0.04248244131136071</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32703,46 +32703,46 @@
         <v>1.736300783914907</v>
       </c>
       <c r="H23" t="n">
-        <v>17.78189040326855</v>
+        <v>17.78189040326854</v>
       </c>
       <c r="I23" t="n">
-        <v>66.93873597187954</v>
+        <v>66.93873597187951</v>
       </c>
       <c r="J23" t="n">
         <v>147.366358658798</v>
       </c>
       <c r="K23" t="n">
-        <v>220.8639708419161</v>
+        <v>220.863970841916</v>
       </c>
       <c r="L23" t="n">
-        <v>274.001285957652</v>
+        <v>274.0012859576519</v>
       </c>
       <c r="M23" t="n">
-        <v>304.8792250235987</v>
+        <v>304.8792250235986</v>
       </c>
       <c r="N23" t="n">
         <v>309.8124896258969</v>
       </c>
       <c r="O23" t="n">
-        <v>292.5471487058431</v>
+        <v>292.547148705843</v>
       </c>
       <c r="P23" t="n">
-        <v>249.6822231029438</v>
+        <v>249.6822231029437</v>
       </c>
       <c r="Q23" t="n">
-        <v>187.5009512789911</v>
+        <v>187.500951278991</v>
       </c>
       <c r="R23" t="n">
         <v>109.0679041175949</v>
       </c>
       <c r="S23" t="n">
-        <v>39.56595411346099</v>
+        <v>39.56595411346098</v>
       </c>
       <c r="T23" t="n">
-        <v>7.600656681587511</v>
+        <v>7.600656681587509</v>
       </c>
       <c r="U23" t="n">
-        <v>0.1389040627131926</v>
+        <v>0.1389040627131925</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,28 +32779,28 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.9290028203748495</v>
+        <v>0.9290028203748493</v>
       </c>
       <c r="H24" t="n">
-        <v>8.972211449409732</v>
+        <v>8.97221144940973</v>
       </c>
       <c r="I24" t="n">
-        <v>31.98540412255513</v>
+        <v>31.98540412255512</v>
       </c>
       <c r="J24" t="n">
-        <v>87.77039365655543</v>
+        <v>87.7703936565554</v>
       </c>
       <c r="K24" t="n">
         <v>150.0135826216703</v>
       </c>
       <c r="L24" t="n">
-        <v>201.711774660776</v>
+        <v>201.7117746607759</v>
       </c>
       <c r="M24" t="n">
         <v>235.3881268993642</v>
       </c>
       <c r="N24" t="n">
-        <v>241.6181501991588</v>
+        <v>241.6181501991587</v>
       </c>
       <c r="O24" t="n">
         <v>221.0334034950634</v>
@@ -32812,16 +32812,16 @@
         <v>118.5863951060948</v>
       </c>
       <c r="R24" t="n">
-        <v>57.67966633871217</v>
+        <v>57.67966633871216</v>
       </c>
       <c r="S24" t="n">
         <v>17.25581993108546</v>
       </c>
       <c r="T24" t="n">
-        <v>3.744533297914414</v>
+        <v>3.744533297914413</v>
       </c>
       <c r="U24" t="n">
-        <v>0.06111860660360854</v>
+        <v>0.06111860660360853</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,22 +32858,22 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.7788447573749456</v>
+        <v>0.7788447573749454</v>
       </c>
       <c r="H25" t="n">
-        <v>6.924637933751795</v>
+        <v>6.924637933751793</v>
       </c>
       <c r="I25" t="n">
-        <v>23.42198597633019</v>
+        <v>23.42198597633018</v>
       </c>
       <c r="J25" t="n">
-        <v>55.06432434640865</v>
+        <v>55.06432434640864</v>
       </c>
       <c r="K25" t="n">
-        <v>90.48759999319822</v>
+        <v>90.48759999319819</v>
       </c>
       <c r="L25" t="n">
-        <v>115.7929742009988</v>
+        <v>115.7929742009987</v>
       </c>
       <c r="M25" t="n">
         <v>122.0874559219653</v>
@@ -32885,22 +32885,22 @@
         <v>110.086166251506</v>
       </c>
       <c r="P25" t="n">
-        <v>94.19773320105702</v>
+        <v>94.19773320105701</v>
       </c>
       <c r="Q25" t="n">
-        <v>65.21762781982386</v>
+        <v>65.21762781982385</v>
       </c>
       <c r="R25" t="n">
-        <v>35.01969245433164</v>
+        <v>35.01969245433163</v>
       </c>
       <c r="S25" t="n">
         <v>13.57313999897973</v>
       </c>
       <c r="T25" t="n">
-        <v>3.327791236056585</v>
+        <v>3.327791236056584</v>
       </c>
       <c r="U25" t="n">
-        <v>0.04248244131136072</v>
+        <v>0.04248244131136071</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32940,46 +32940,46 @@
         <v>1.736300783914907</v>
       </c>
       <c r="H26" t="n">
-        <v>17.78189040326855</v>
+        <v>17.78189040326854</v>
       </c>
       <c r="I26" t="n">
-        <v>66.93873597187954</v>
+        <v>66.93873597187951</v>
       </c>
       <c r="J26" t="n">
         <v>147.366358658798</v>
       </c>
       <c r="K26" t="n">
-        <v>220.8639708419161</v>
+        <v>220.863970841916</v>
       </c>
       <c r="L26" t="n">
-        <v>274.001285957652</v>
+        <v>274.0012859576519</v>
       </c>
       <c r="M26" t="n">
-        <v>304.8792250235987</v>
+        <v>304.8792250235986</v>
       </c>
       <c r="N26" t="n">
         <v>309.8124896258969</v>
       </c>
       <c r="O26" t="n">
-        <v>292.5471487058431</v>
+        <v>292.547148705843</v>
       </c>
       <c r="P26" t="n">
-        <v>249.6822231029438</v>
+        <v>249.6822231029437</v>
       </c>
       <c r="Q26" t="n">
-        <v>187.5009512789911</v>
+        <v>187.500951278991</v>
       </c>
       <c r="R26" t="n">
         <v>109.0679041175949</v>
       </c>
       <c r="S26" t="n">
-        <v>39.56595411346099</v>
+        <v>39.56595411346098</v>
       </c>
       <c r="T26" t="n">
-        <v>7.600656681587511</v>
+        <v>7.600656681587509</v>
       </c>
       <c r="U26" t="n">
-        <v>0.1389040627131926</v>
+        <v>0.1389040627131925</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,28 +33016,28 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.9290028203748495</v>
+        <v>0.9290028203748493</v>
       </c>
       <c r="H27" t="n">
-        <v>8.972211449409732</v>
+        <v>8.97221144940973</v>
       </c>
       <c r="I27" t="n">
-        <v>31.98540412255513</v>
+        <v>31.98540412255512</v>
       </c>
       <c r="J27" t="n">
-        <v>87.77039365655543</v>
+        <v>87.7703936565554</v>
       </c>
       <c r="K27" t="n">
         <v>150.0135826216703</v>
       </c>
       <c r="L27" t="n">
-        <v>201.711774660776</v>
+        <v>201.7117746607759</v>
       </c>
       <c r="M27" t="n">
         <v>235.3881268993642</v>
       </c>
       <c r="N27" t="n">
-        <v>241.6181501991588</v>
+        <v>241.6181501991587</v>
       </c>
       <c r="O27" t="n">
         <v>221.0334034950634</v>
@@ -33049,16 +33049,16 @@
         <v>118.5863951060948</v>
       </c>
       <c r="R27" t="n">
-        <v>57.67966633871217</v>
+        <v>57.67966633871216</v>
       </c>
       <c r="S27" t="n">
         <v>17.25581993108546</v>
       </c>
       <c r="T27" t="n">
-        <v>3.744533297914414</v>
+        <v>3.744533297914413</v>
       </c>
       <c r="U27" t="n">
-        <v>0.06111860660360854</v>
+        <v>0.06111860660360853</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,22 +33095,22 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.7788447573749456</v>
+        <v>0.7788447573749454</v>
       </c>
       <c r="H28" t="n">
-        <v>6.924637933751795</v>
+        <v>6.924637933751793</v>
       </c>
       <c r="I28" t="n">
-        <v>23.42198597633019</v>
+        <v>23.42198597633018</v>
       </c>
       <c r="J28" t="n">
-        <v>55.06432434640865</v>
+        <v>55.06432434640864</v>
       </c>
       <c r="K28" t="n">
-        <v>90.48759999319822</v>
+        <v>90.48759999319819</v>
       </c>
       <c r="L28" t="n">
-        <v>115.7929742009988</v>
+        <v>115.7929742009987</v>
       </c>
       <c r="M28" t="n">
         <v>122.0874559219653</v>
@@ -33122,22 +33122,22 @@
         <v>110.086166251506</v>
       </c>
       <c r="P28" t="n">
-        <v>94.19773320105702</v>
+        <v>94.19773320105701</v>
       </c>
       <c r="Q28" t="n">
-        <v>65.21762781982386</v>
+        <v>65.21762781982385</v>
       </c>
       <c r="R28" t="n">
-        <v>35.01969245433164</v>
+        <v>35.01969245433163</v>
       </c>
       <c r="S28" t="n">
         <v>13.57313999897973</v>
       </c>
       <c r="T28" t="n">
-        <v>3.327791236056585</v>
+        <v>3.327791236056584</v>
       </c>
       <c r="U28" t="n">
-        <v>0.04248244131136072</v>
+        <v>0.04248244131136071</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33177,46 +33177,46 @@
         <v>1.736300783914907</v>
       </c>
       <c r="H29" t="n">
-        <v>17.78189040326855</v>
+        <v>17.78189040326854</v>
       </c>
       <c r="I29" t="n">
-        <v>66.93873597187954</v>
+        <v>66.93873597187951</v>
       </c>
       <c r="J29" t="n">
         <v>147.366358658798</v>
       </c>
       <c r="K29" t="n">
-        <v>220.8639708419161</v>
+        <v>220.863970841916</v>
       </c>
       <c r="L29" t="n">
-        <v>274.001285957652</v>
+        <v>274.0012859576519</v>
       </c>
       <c r="M29" t="n">
-        <v>304.8792250235987</v>
+        <v>304.8792250235986</v>
       </c>
       <c r="N29" t="n">
         <v>309.8124896258969</v>
       </c>
       <c r="O29" t="n">
-        <v>292.5471487058431</v>
+        <v>292.547148705843</v>
       </c>
       <c r="P29" t="n">
-        <v>249.6822231029438</v>
+        <v>249.6822231029437</v>
       </c>
       <c r="Q29" t="n">
-        <v>187.5009512789911</v>
+        <v>187.500951278991</v>
       </c>
       <c r="R29" t="n">
         <v>109.0679041175949</v>
       </c>
       <c r="S29" t="n">
-        <v>39.56595411346099</v>
+        <v>39.56595411346098</v>
       </c>
       <c r="T29" t="n">
-        <v>7.600656681587511</v>
+        <v>7.600656681587509</v>
       </c>
       <c r="U29" t="n">
-        <v>0.1389040627131926</v>
+        <v>0.1389040627131925</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,28 +33253,28 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.9290028203748495</v>
+        <v>0.9290028203748493</v>
       </c>
       <c r="H30" t="n">
-        <v>8.972211449409732</v>
+        <v>8.97221144940973</v>
       </c>
       <c r="I30" t="n">
-        <v>31.98540412255513</v>
+        <v>31.98540412255512</v>
       </c>
       <c r="J30" t="n">
-        <v>87.77039365655543</v>
+        <v>87.7703936565554</v>
       </c>
       <c r="K30" t="n">
         <v>150.0135826216703</v>
       </c>
       <c r="L30" t="n">
-        <v>201.711774660776</v>
+        <v>201.7117746607759</v>
       </c>
       <c r="M30" t="n">
         <v>235.3881268993642</v>
       </c>
       <c r="N30" t="n">
-        <v>241.6181501991588</v>
+        <v>241.6181501991587</v>
       </c>
       <c r="O30" t="n">
         <v>221.0334034950634</v>
@@ -33286,16 +33286,16 @@
         <v>118.5863951060948</v>
       </c>
       <c r="R30" t="n">
-        <v>57.67966633871217</v>
+        <v>57.67966633871216</v>
       </c>
       <c r="S30" t="n">
         <v>17.25581993108546</v>
       </c>
       <c r="T30" t="n">
-        <v>3.744533297914414</v>
+        <v>3.744533297914413</v>
       </c>
       <c r="U30" t="n">
-        <v>0.06111860660360854</v>
+        <v>0.06111860660360853</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,22 +33332,22 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.7788447573749456</v>
+        <v>0.7788447573749454</v>
       </c>
       <c r="H31" t="n">
-        <v>6.924637933751795</v>
+        <v>6.924637933751793</v>
       </c>
       <c r="I31" t="n">
-        <v>23.42198597633019</v>
+        <v>23.42198597633018</v>
       </c>
       <c r="J31" t="n">
-        <v>55.06432434640865</v>
+        <v>55.06432434640864</v>
       </c>
       <c r="K31" t="n">
-        <v>90.48759999319822</v>
+        <v>90.48759999319819</v>
       </c>
       <c r="L31" t="n">
-        <v>115.7929742009988</v>
+        <v>115.7929742009987</v>
       </c>
       <c r="M31" t="n">
         <v>122.0874559219653</v>
@@ -33359,22 +33359,22 @@
         <v>110.086166251506</v>
       </c>
       <c r="P31" t="n">
-        <v>94.19773320105702</v>
+        <v>94.19773320105701</v>
       </c>
       <c r="Q31" t="n">
-        <v>65.21762781982386</v>
+        <v>65.21762781982385</v>
       </c>
       <c r="R31" t="n">
-        <v>35.01969245433164</v>
+        <v>35.01969245433163</v>
       </c>
       <c r="S31" t="n">
         <v>13.57313999897973</v>
       </c>
       <c r="T31" t="n">
-        <v>3.327791236056585</v>
+        <v>3.327791236056584</v>
       </c>
       <c r="U31" t="n">
-        <v>0.04248244131136072</v>
+        <v>0.04248244131136071</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33414,46 +33414,46 @@
         <v>1.736300783914907</v>
       </c>
       <c r="H32" t="n">
-        <v>17.78189040326855</v>
+        <v>17.78189040326854</v>
       </c>
       <c r="I32" t="n">
-        <v>66.93873597187954</v>
+        <v>66.93873597187951</v>
       </c>
       <c r="J32" t="n">
         <v>147.366358658798</v>
       </c>
       <c r="K32" t="n">
-        <v>220.8639708419161</v>
+        <v>220.863970841916</v>
       </c>
       <c r="L32" t="n">
-        <v>274.001285957652</v>
+        <v>274.0012859576519</v>
       </c>
       <c r="M32" t="n">
-        <v>304.8792250235987</v>
+        <v>304.8792250235986</v>
       </c>
       <c r="N32" t="n">
         <v>309.8124896258969</v>
       </c>
       <c r="O32" t="n">
-        <v>292.5471487058431</v>
+        <v>292.547148705843</v>
       </c>
       <c r="P32" t="n">
-        <v>249.6822231029438</v>
+        <v>249.6822231029437</v>
       </c>
       <c r="Q32" t="n">
-        <v>187.5009512789911</v>
+        <v>187.500951278991</v>
       </c>
       <c r="R32" t="n">
         <v>109.0679041175949</v>
       </c>
       <c r="S32" t="n">
-        <v>39.56595411346099</v>
+        <v>39.56595411346098</v>
       </c>
       <c r="T32" t="n">
-        <v>7.600656681587511</v>
+        <v>7.600656681587509</v>
       </c>
       <c r="U32" t="n">
-        <v>0.1389040627131926</v>
+        <v>0.1389040627131925</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,28 +33490,28 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.9290028203748495</v>
+        <v>0.9290028203748493</v>
       </c>
       <c r="H33" t="n">
-        <v>8.972211449409732</v>
+        <v>8.97221144940973</v>
       </c>
       <c r="I33" t="n">
-        <v>31.98540412255513</v>
+        <v>31.98540412255512</v>
       </c>
       <c r="J33" t="n">
-        <v>87.77039365655543</v>
+        <v>87.7703936565554</v>
       </c>
       <c r="K33" t="n">
         <v>150.0135826216703</v>
       </c>
       <c r="L33" t="n">
-        <v>201.711774660776</v>
+        <v>201.7117746607759</v>
       </c>
       <c r="M33" t="n">
         <v>235.3881268993642</v>
       </c>
       <c r="N33" t="n">
-        <v>241.6181501991588</v>
+        <v>241.6181501991587</v>
       </c>
       <c r="O33" t="n">
         <v>221.0334034950634</v>
@@ -33523,16 +33523,16 @@
         <v>118.5863951060948</v>
       </c>
       <c r="R33" t="n">
-        <v>57.67966633871217</v>
+        <v>57.67966633871216</v>
       </c>
       <c r="S33" t="n">
         <v>17.25581993108546</v>
       </c>
       <c r="T33" t="n">
-        <v>3.744533297914414</v>
+        <v>3.744533297914413</v>
       </c>
       <c r="U33" t="n">
-        <v>0.06111860660360854</v>
+        <v>0.06111860660360853</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,22 +33569,22 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.7788447573749456</v>
+        <v>0.7788447573749454</v>
       </c>
       <c r="H34" t="n">
-        <v>6.924637933751795</v>
+        <v>6.924637933751793</v>
       </c>
       <c r="I34" t="n">
-        <v>23.42198597633019</v>
+        <v>23.42198597633018</v>
       </c>
       <c r="J34" t="n">
-        <v>55.06432434640865</v>
+        <v>55.06432434640864</v>
       </c>
       <c r="K34" t="n">
-        <v>90.48759999319822</v>
+        <v>90.48759999319819</v>
       </c>
       <c r="L34" t="n">
-        <v>115.7929742009988</v>
+        <v>115.7929742009987</v>
       </c>
       <c r="M34" t="n">
         <v>122.0874559219653</v>
@@ -33596,22 +33596,22 @@
         <v>110.086166251506</v>
       </c>
       <c r="P34" t="n">
-        <v>94.19773320105702</v>
+        <v>94.19773320105701</v>
       </c>
       <c r="Q34" t="n">
-        <v>65.21762781982386</v>
+        <v>65.21762781982385</v>
       </c>
       <c r="R34" t="n">
-        <v>35.01969245433164</v>
+        <v>35.01969245433163</v>
       </c>
       <c r="S34" t="n">
         <v>13.57313999897973</v>
       </c>
       <c r="T34" t="n">
-        <v>3.327791236056585</v>
+        <v>3.327791236056584</v>
       </c>
       <c r="U34" t="n">
-        <v>0.04248244131136072</v>
+        <v>0.04248244131136071</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33651,46 +33651,46 @@
         <v>1.736300783914907</v>
       </c>
       <c r="H35" t="n">
-        <v>17.78189040326855</v>
+        <v>17.78189040326854</v>
       </c>
       <c r="I35" t="n">
-        <v>66.93873597187954</v>
+        <v>66.93873597187951</v>
       </c>
       <c r="J35" t="n">
         <v>147.366358658798</v>
       </c>
       <c r="K35" t="n">
-        <v>220.8639708419161</v>
+        <v>220.863970841916</v>
       </c>
       <c r="L35" t="n">
-        <v>274.001285957652</v>
+        <v>274.0012859576519</v>
       </c>
       <c r="M35" t="n">
-        <v>304.8792250235987</v>
+        <v>304.8792250235986</v>
       </c>
       <c r="N35" t="n">
         <v>309.8124896258969</v>
       </c>
       <c r="O35" t="n">
-        <v>292.5471487058431</v>
+        <v>292.547148705843</v>
       </c>
       <c r="P35" t="n">
-        <v>249.6822231029438</v>
+        <v>249.6822231029437</v>
       </c>
       <c r="Q35" t="n">
-        <v>187.5009512789911</v>
+        <v>187.500951278991</v>
       </c>
       <c r="R35" t="n">
         <v>109.0679041175949</v>
       </c>
       <c r="S35" t="n">
-        <v>39.56595411346099</v>
+        <v>39.56595411346098</v>
       </c>
       <c r="T35" t="n">
-        <v>7.600656681587511</v>
+        <v>7.600656681587509</v>
       </c>
       <c r="U35" t="n">
-        <v>0.1389040627131926</v>
+        <v>0.1389040627131925</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,28 +33727,28 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.9290028203748495</v>
+        <v>0.9290028203748493</v>
       </c>
       <c r="H36" t="n">
-        <v>8.972211449409732</v>
+        <v>8.97221144940973</v>
       </c>
       <c r="I36" t="n">
-        <v>31.98540412255513</v>
+        <v>31.98540412255512</v>
       </c>
       <c r="J36" t="n">
-        <v>87.77039365655543</v>
+        <v>87.7703936565554</v>
       </c>
       <c r="K36" t="n">
         <v>150.0135826216703</v>
       </c>
       <c r="L36" t="n">
-        <v>201.711774660776</v>
+        <v>201.7117746607759</v>
       </c>
       <c r="M36" t="n">
         <v>235.3881268993642</v>
       </c>
       <c r="N36" t="n">
-        <v>241.6181501991588</v>
+        <v>241.6181501991587</v>
       </c>
       <c r="O36" t="n">
         <v>221.0334034950634</v>
@@ -33760,16 +33760,16 @@
         <v>118.5863951060948</v>
       </c>
       <c r="R36" t="n">
-        <v>57.67966633871217</v>
+        <v>57.67966633871216</v>
       </c>
       <c r="S36" t="n">
         <v>17.25581993108546</v>
       </c>
       <c r="T36" t="n">
-        <v>3.744533297914414</v>
+        <v>3.744533297914413</v>
       </c>
       <c r="U36" t="n">
-        <v>0.06111860660360854</v>
+        <v>0.06111860660360853</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,22 +33806,22 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.7788447573749456</v>
+        <v>0.7788447573749454</v>
       </c>
       <c r="H37" t="n">
-        <v>6.924637933751795</v>
+        <v>6.924637933751793</v>
       </c>
       <c r="I37" t="n">
-        <v>23.42198597633019</v>
+        <v>23.42198597633018</v>
       </c>
       <c r="J37" t="n">
-        <v>55.06432434640865</v>
+        <v>55.06432434640864</v>
       </c>
       <c r="K37" t="n">
-        <v>90.48759999319822</v>
+        <v>90.48759999319819</v>
       </c>
       <c r="L37" t="n">
-        <v>115.7929742009988</v>
+        <v>115.7929742009987</v>
       </c>
       <c r="M37" t="n">
         <v>122.0874559219653</v>
@@ -33833,22 +33833,22 @@
         <v>110.086166251506</v>
       </c>
       <c r="P37" t="n">
-        <v>94.19773320105702</v>
+        <v>94.19773320105701</v>
       </c>
       <c r="Q37" t="n">
-        <v>65.21762781982386</v>
+        <v>65.21762781982385</v>
       </c>
       <c r="R37" t="n">
-        <v>35.01969245433164</v>
+        <v>35.01969245433163</v>
       </c>
       <c r="S37" t="n">
         <v>13.57313999897973</v>
       </c>
       <c r="T37" t="n">
-        <v>3.327791236056585</v>
+        <v>3.327791236056584</v>
       </c>
       <c r="U37" t="n">
-        <v>0.04248244131136072</v>
+        <v>0.04248244131136071</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33888,46 +33888,46 @@
         <v>1.736300783914907</v>
       </c>
       <c r="H38" t="n">
-        <v>17.78189040326855</v>
+        <v>17.78189040326854</v>
       </c>
       <c r="I38" t="n">
-        <v>66.93873597187954</v>
+        <v>66.93873597187951</v>
       </c>
       <c r="J38" t="n">
         <v>147.366358658798</v>
       </c>
       <c r="K38" t="n">
-        <v>220.8639708419161</v>
+        <v>220.863970841916</v>
       </c>
       <c r="L38" t="n">
-        <v>274.001285957652</v>
+        <v>274.0012859576519</v>
       </c>
       <c r="M38" t="n">
-        <v>304.8792250235987</v>
+        <v>304.8792250235986</v>
       </c>
       <c r="N38" t="n">
         <v>309.8124896258969</v>
       </c>
       <c r="O38" t="n">
-        <v>292.5471487058431</v>
+        <v>292.547148705843</v>
       </c>
       <c r="P38" t="n">
-        <v>249.6822231029438</v>
+        <v>249.6822231029437</v>
       </c>
       <c r="Q38" t="n">
-        <v>187.5009512789911</v>
+        <v>187.500951278991</v>
       </c>
       <c r="R38" t="n">
         <v>109.0679041175949</v>
       </c>
       <c r="S38" t="n">
-        <v>39.56595411346099</v>
+        <v>39.56595411346098</v>
       </c>
       <c r="T38" t="n">
-        <v>7.600656681587511</v>
+        <v>7.600656681587509</v>
       </c>
       <c r="U38" t="n">
-        <v>0.1389040627131926</v>
+        <v>0.1389040627131925</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,28 +33964,28 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.9290028203748495</v>
+        <v>0.9290028203748493</v>
       </c>
       <c r="H39" t="n">
-        <v>8.972211449409732</v>
+        <v>8.97221144940973</v>
       </c>
       <c r="I39" t="n">
-        <v>31.98540412255513</v>
+        <v>31.98540412255512</v>
       </c>
       <c r="J39" t="n">
-        <v>87.77039365655543</v>
+        <v>87.7703936565554</v>
       </c>
       <c r="K39" t="n">
         <v>150.0135826216703</v>
       </c>
       <c r="L39" t="n">
-        <v>201.711774660776</v>
+        <v>201.7117746607759</v>
       </c>
       <c r="M39" t="n">
         <v>235.3881268993642</v>
       </c>
       <c r="N39" t="n">
-        <v>241.6181501991588</v>
+        <v>241.6181501991587</v>
       </c>
       <c r="O39" t="n">
         <v>221.0334034950634</v>
@@ -33997,16 +33997,16 @@
         <v>118.5863951060948</v>
       </c>
       <c r="R39" t="n">
-        <v>57.67966633871217</v>
+        <v>57.67966633871216</v>
       </c>
       <c r="S39" t="n">
         <v>17.25581993108546</v>
       </c>
       <c r="T39" t="n">
-        <v>3.744533297914414</v>
+        <v>3.744533297914413</v>
       </c>
       <c r="U39" t="n">
-        <v>0.06111860660360854</v>
+        <v>0.06111860660360853</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,22 +34043,22 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.7788447573749456</v>
+        <v>0.7788447573749454</v>
       </c>
       <c r="H40" t="n">
-        <v>6.924637933751795</v>
+        <v>6.924637933751793</v>
       </c>
       <c r="I40" t="n">
-        <v>23.42198597633019</v>
+        <v>23.42198597633018</v>
       </c>
       <c r="J40" t="n">
-        <v>55.06432434640865</v>
+        <v>55.06432434640864</v>
       </c>
       <c r="K40" t="n">
-        <v>90.48759999319822</v>
+        <v>90.48759999319819</v>
       </c>
       <c r="L40" t="n">
-        <v>115.7929742009988</v>
+        <v>115.7929742009987</v>
       </c>
       <c r="M40" t="n">
         <v>122.0874559219653</v>
@@ -34070,22 +34070,22 @@
         <v>110.086166251506</v>
       </c>
       <c r="P40" t="n">
-        <v>94.19773320105702</v>
+        <v>94.19773320105701</v>
       </c>
       <c r="Q40" t="n">
-        <v>65.21762781982386</v>
+        <v>65.21762781982385</v>
       </c>
       <c r="R40" t="n">
-        <v>35.01969245433164</v>
+        <v>35.01969245433163</v>
       </c>
       <c r="S40" t="n">
         <v>13.57313999897973</v>
       </c>
       <c r="T40" t="n">
-        <v>3.327791236056585</v>
+        <v>3.327791236056584</v>
       </c>
       <c r="U40" t="n">
-        <v>0.04248244131136072</v>
+        <v>0.04248244131136071</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34125,46 +34125,46 @@
         <v>1.736300783914907</v>
       </c>
       <c r="H41" t="n">
-        <v>17.78189040326855</v>
+        <v>17.78189040326854</v>
       </c>
       <c r="I41" t="n">
-        <v>66.93873597187954</v>
+        <v>66.93873597187951</v>
       </c>
       <c r="J41" t="n">
         <v>147.366358658798</v>
       </c>
       <c r="K41" t="n">
-        <v>220.8639708419161</v>
+        <v>220.863970841916</v>
       </c>
       <c r="L41" t="n">
-        <v>274.001285957652</v>
+        <v>274.0012859576519</v>
       </c>
       <c r="M41" t="n">
-        <v>304.8792250235987</v>
+        <v>304.8792250235986</v>
       </c>
       <c r="N41" t="n">
         <v>309.8124896258969</v>
       </c>
       <c r="O41" t="n">
-        <v>292.5471487058431</v>
+        <v>292.547148705843</v>
       </c>
       <c r="P41" t="n">
-        <v>249.6822231029438</v>
+        <v>249.6822231029437</v>
       </c>
       <c r="Q41" t="n">
-        <v>187.5009512789911</v>
+        <v>187.500951278991</v>
       </c>
       <c r="R41" t="n">
         <v>109.0679041175949</v>
       </c>
       <c r="S41" t="n">
-        <v>39.56595411346099</v>
+        <v>39.56595411346098</v>
       </c>
       <c r="T41" t="n">
-        <v>7.600656681587511</v>
+        <v>7.600656681587509</v>
       </c>
       <c r="U41" t="n">
-        <v>0.1389040627131926</v>
+        <v>0.1389040627131925</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,28 +34201,28 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.9290028203748495</v>
+        <v>0.9290028203748493</v>
       </c>
       <c r="H42" t="n">
-        <v>8.972211449409732</v>
+        <v>8.97221144940973</v>
       </c>
       <c r="I42" t="n">
-        <v>31.98540412255513</v>
+        <v>31.98540412255512</v>
       </c>
       <c r="J42" t="n">
-        <v>87.77039365655543</v>
+        <v>87.7703936565554</v>
       </c>
       <c r="K42" t="n">
         <v>150.0135826216703</v>
       </c>
       <c r="L42" t="n">
-        <v>201.711774660776</v>
+        <v>201.7117746607759</v>
       </c>
       <c r="M42" t="n">
         <v>235.3881268993642</v>
       </c>
       <c r="N42" t="n">
-        <v>241.6181501991588</v>
+        <v>241.6181501991587</v>
       </c>
       <c r="O42" t="n">
         <v>221.0334034950634</v>
@@ -34234,16 +34234,16 @@
         <v>118.5863951060948</v>
       </c>
       <c r="R42" t="n">
-        <v>57.67966633871217</v>
+        <v>57.67966633871216</v>
       </c>
       <c r="S42" t="n">
         <v>17.25581993108546</v>
       </c>
       <c r="T42" t="n">
-        <v>3.744533297914414</v>
+        <v>3.744533297914413</v>
       </c>
       <c r="U42" t="n">
-        <v>0.06111860660360854</v>
+        <v>0.06111860660360853</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,22 +34280,22 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.7788447573749456</v>
+        <v>0.7788447573749454</v>
       </c>
       <c r="H43" t="n">
-        <v>6.924637933751795</v>
+        <v>6.924637933751793</v>
       </c>
       <c r="I43" t="n">
-        <v>23.42198597633019</v>
+        <v>23.42198597633018</v>
       </c>
       <c r="J43" t="n">
-        <v>55.06432434640865</v>
+        <v>55.06432434640864</v>
       </c>
       <c r="K43" t="n">
-        <v>90.48759999319822</v>
+        <v>90.48759999319819</v>
       </c>
       <c r="L43" t="n">
-        <v>115.7929742009988</v>
+        <v>115.7929742009987</v>
       </c>
       <c r="M43" t="n">
         <v>122.0874559219653</v>
@@ -34307,22 +34307,22 @@
         <v>110.086166251506</v>
       </c>
       <c r="P43" t="n">
-        <v>94.19773320105702</v>
+        <v>94.19773320105701</v>
       </c>
       <c r="Q43" t="n">
-        <v>65.21762781982386</v>
+        <v>65.21762781982385</v>
       </c>
       <c r="R43" t="n">
-        <v>35.01969245433164</v>
+        <v>35.01969245433163</v>
       </c>
       <c r="S43" t="n">
         <v>13.57313999897973</v>
       </c>
       <c r="T43" t="n">
-        <v>3.327791236056585</v>
+        <v>3.327791236056584</v>
       </c>
       <c r="U43" t="n">
-        <v>0.04248244131136072</v>
+        <v>0.04248244131136071</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34362,46 +34362,46 @@
         <v>1.736300783914907</v>
       </c>
       <c r="H44" t="n">
-        <v>17.78189040326855</v>
+        <v>17.78189040326854</v>
       </c>
       <c r="I44" t="n">
-        <v>66.93873597187954</v>
+        <v>66.93873597187951</v>
       </c>
       <c r="J44" t="n">
         <v>147.366358658798</v>
       </c>
       <c r="K44" t="n">
-        <v>220.8639708419161</v>
+        <v>220.863970841916</v>
       </c>
       <c r="L44" t="n">
-        <v>274.001285957652</v>
+        <v>274.0012859576519</v>
       </c>
       <c r="M44" t="n">
-        <v>304.8792250235987</v>
+        <v>304.8792250235986</v>
       </c>
       <c r="N44" t="n">
         <v>309.8124896258969</v>
       </c>
       <c r="O44" t="n">
-        <v>292.5471487058431</v>
+        <v>292.547148705843</v>
       </c>
       <c r="P44" t="n">
-        <v>249.6822231029438</v>
+        <v>249.6822231029437</v>
       </c>
       <c r="Q44" t="n">
-        <v>187.5009512789911</v>
+        <v>187.500951278991</v>
       </c>
       <c r="R44" t="n">
         <v>109.0679041175949</v>
       </c>
       <c r="S44" t="n">
-        <v>39.56595411346099</v>
+        <v>39.56595411346098</v>
       </c>
       <c r="T44" t="n">
-        <v>7.600656681587511</v>
+        <v>7.600656681587509</v>
       </c>
       <c r="U44" t="n">
-        <v>0.1389040627131926</v>
+        <v>0.1389040627131925</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,28 +34438,28 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.9290028203748495</v>
+        <v>0.9290028203748493</v>
       </c>
       <c r="H45" t="n">
-        <v>8.972211449409732</v>
+        <v>8.97221144940973</v>
       </c>
       <c r="I45" t="n">
-        <v>31.98540412255513</v>
+        <v>31.98540412255512</v>
       </c>
       <c r="J45" t="n">
-        <v>87.77039365655543</v>
+        <v>87.7703936565554</v>
       </c>
       <c r="K45" t="n">
         <v>150.0135826216703</v>
       </c>
       <c r="L45" t="n">
-        <v>201.711774660776</v>
+        <v>201.7117746607759</v>
       </c>
       <c r="M45" t="n">
         <v>235.3881268993642</v>
       </c>
       <c r="N45" t="n">
-        <v>241.6181501991588</v>
+        <v>241.6181501991587</v>
       </c>
       <c r="O45" t="n">
         <v>221.0334034950634</v>
@@ -34471,16 +34471,16 @@
         <v>118.5863951060948</v>
       </c>
       <c r="R45" t="n">
-        <v>57.67966633871217</v>
+        <v>57.67966633871216</v>
       </c>
       <c r="S45" t="n">
         <v>17.25581993108546</v>
       </c>
       <c r="T45" t="n">
-        <v>3.744533297914414</v>
+        <v>3.744533297914413</v>
       </c>
       <c r="U45" t="n">
-        <v>0.06111860660360854</v>
+        <v>0.06111860660360853</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,22 +34517,22 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.7788447573749456</v>
+        <v>0.7788447573749454</v>
       </c>
       <c r="H46" t="n">
-        <v>6.924637933751795</v>
+        <v>6.924637933751793</v>
       </c>
       <c r="I46" t="n">
-        <v>23.42198597633019</v>
+        <v>23.42198597633018</v>
       </c>
       <c r="J46" t="n">
-        <v>55.06432434640865</v>
+        <v>55.06432434640864</v>
       </c>
       <c r="K46" t="n">
-        <v>90.48759999319822</v>
+        <v>90.48759999319819</v>
       </c>
       <c r="L46" t="n">
-        <v>115.7929742009988</v>
+        <v>115.7929742009987</v>
       </c>
       <c r="M46" t="n">
         <v>122.0874559219653</v>
@@ -34544,22 +34544,22 @@
         <v>110.086166251506</v>
       </c>
       <c r="P46" t="n">
-        <v>94.19773320105702</v>
+        <v>94.19773320105701</v>
       </c>
       <c r="Q46" t="n">
-        <v>65.21762781982386</v>
+        <v>65.21762781982385</v>
       </c>
       <c r="R46" t="n">
-        <v>35.01969245433164</v>
+        <v>35.01969245433163</v>
       </c>
       <c r="S46" t="n">
         <v>13.57313999897973</v>
       </c>
       <c r="T46" t="n">
-        <v>3.327791236056585</v>
+        <v>3.327791236056584</v>
       </c>
       <c r="U46" t="n">
-        <v>0.04248244131136072</v>
+        <v>0.04248244131136071</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35406,7 +35406,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>32.39083342791604</v>
+        <v>32.39083342791602</v>
       </c>
       <c r="J11" t="n">
         <v>117.9463991732115</v>
@@ -35415,7 +35415,7 @@
         <v>185.0993700471067</v>
       </c>
       <c r="L11" t="n">
-        <v>235.6892435250291</v>
+        <v>235.689243525029</v>
       </c>
       <c r="M11" t="n">
         <v>267.4479621241668</v>
@@ -35424,13 +35424,13 @@
         <v>272.5328667914509</v>
       </c>
       <c r="O11" t="n">
-        <v>255.156189349819</v>
+        <v>255.1561893498189</v>
       </c>
       <c r="P11" t="n">
-        <v>212.1068612927125</v>
+        <v>212.1068612927124</v>
       </c>
       <c r="Q11" t="n">
-        <v>151.3762766743931</v>
+        <v>151.376276674393</v>
       </c>
       <c r="R11" t="n">
         <v>74.03525422279841</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>15.81301737255513</v>
+        <v>39.50726570024386</v>
       </c>
       <c r="J12" t="n">
         <v>362.2123020197787</v>
@@ -35497,7 +35497,7 @@
         <v>179.1966879465464</v>
       </c>
       <c r="M12" t="n">
-        <v>300.3980938006897</v>
+        <v>212.2913463870362</v>
       </c>
       <c r="N12" t="n">
         <v>220.2751219856171</v>
@@ -35509,7 +35509,7 @@
         <v>155.6279517490319</v>
       </c>
       <c r="Q12" t="n">
-        <v>95.83935681711634</v>
+        <v>160.2518559030813</v>
       </c>
       <c r="R12" t="n">
         <v>140.5274543030587</v>
@@ -35567,25 +35567,25 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>34.42756836250679</v>
+        <v>34.42756836250678</v>
       </c>
       <c r="K13" t="n">
-        <v>69.52294554048622</v>
+        <v>319.3033587869731</v>
       </c>
       <c r="L13" t="n">
-        <v>455.546796954673</v>
+        <v>368.2255726175839</v>
       </c>
       <c r="M13" t="n">
-        <v>99.51201603047951</v>
+        <v>99.5120160304795</v>
       </c>
       <c r="N13" t="n">
-        <v>455.546796954673</v>
+        <v>98.43558812342204</v>
       </c>
       <c r="O13" t="n">
         <v>455.546796954673</v>
       </c>
       <c r="P13" t="n">
-        <v>193.0802707760736</v>
+        <v>387.7322906979267</v>
       </c>
       <c r="Q13" t="n">
         <v>40.59806505503892</v>
@@ -35643,16 +35643,16 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>32.39083342791604</v>
+        <v>32.39083342791601</v>
       </c>
       <c r="J14" t="n">
-        <v>117.9463991732115</v>
+        <v>117.9463991732114</v>
       </c>
       <c r="K14" t="n">
         <v>185.0993700471067</v>
       </c>
       <c r="L14" t="n">
-        <v>235.6892435250291</v>
+        <v>235.689243525029</v>
       </c>
       <c r="M14" t="n">
         <v>267.4479621241668</v>
@@ -35661,16 +35661,16 @@
         <v>272.5328667914509</v>
       </c>
       <c r="O14" t="n">
-        <v>255.156189349819</v>
+        <v>255.1561893498189</v>
       </c>
       <c r="P14" t="n">
-        <v>212.1068612927125</v>
+        <v>212.1068612927124</v>
       </c>
       <c r="Q14" t="n">
-        <v>151.3762766743931</v>
+        <v>151.3762766743938</v>
       </c>
       <c r="R14" t="n">
-        <v>74.03525422279841</v>
+        <v>74.03525422279839</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,10 +35722,10 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>15.81301737255513</v>
+        <v>39.50726570024385</v>
       </c>
       <c r="J15" t="n">
-        <v>67.15927932322209</v>
+        <v>362.2123020197787</v>
       </c>
       <c r="K15" t="n">
         <v>127.614348788337</v>
@@ -35734,19 +35734,19 @@
         <v>179.1966879465464</v>
       </c>
       <c r="M15" t="n">
-        <v>212.2913463870363</v>
+        <v>212.2913463870362</v>
       </c>
       <c r="N15" t="n">
-        <v>455.546796954673</v>
+        <v>220.2751219856171</v>
       </c>
       <c r="O15" t="n">
-        <v>197.8615137728412</v>
+        <v>197.8615137728411</v>
       </c>
       <c r="P15" t="n">
-        <v>155.6279517490319</v>
+        <v>155.6279517490318</v>
       </c>
       <c r="Q15" t="n">
-        <v>243.7274519582707</v>
+        <v>160.2518559030813</v>
       </c>
       <c r="R15" t="n">
         <v>140.5274543030587</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>34.42756836250679</v>
+        <v>34.42756836250678</v>
       </c>
       <c r="K16" t="n">
-        <v>69.52294554048622</v>
+        <v>69.52294554048619</v>
       </c>
       <c r="L16" t="n">
         <v>455.546796954673</v>
       </c>
       <c r="M16" t="n">
-        <v>220.7753542634827</v>
+        <v>99.51201603047949</v>
       </c>
       <c r="N16" t="n">
-        <v>455.546796954673</v>
+        <v>260.8947770328199</v>
       </c>
       <c r="O16" t="n">
         <v>455.546796954673</v>
       </c>
       <c r="P16" t="n">
-        <v>71.81693254307054</v>
+        <v>387.7322906979267</v>
       </c>
       <c r="Q16" t="n">
-        <v>40.59806505503892</v>
+        <v>40.5980650550389</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,16 +35880,16 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>32.39083342791604</v>
+        <v>32.39083342791601</v>
       </c>
       <c r="J17" t="n">
-        <v>117.9463991732115</v>
+        <v>513.6324786758641</v>
       </c>
       <c r="K17" t="n">
         <v>185.0993700471067</v>
       </c>
       <c r="L17" t="n">
-        <v>235.6892435250291</v>
+        <v>235.689243525029</v>
       </c>
       <c r="M17" t="n">
         <v>267.4479621241668</v>
@@ -35898,13 +35898,13 @@
         <v>272.5328667914509</v>
       </c>
       <c r="O17" t="n">
-        <v>255.156189349819</v>
+        <v>337.3479687242751</v>
       </c>
       <c r="P17" t="n">
-        <v>732.287876278535</v>
+        <v>751.2270955456044</v>
       </c>
       <c r="Q17" t="n">
-        <v>648.19335481857</v>
+        <v>151.376276674393</v>
       </c>
       <c r="R17" t="n">
         <v>227.8116767255773</v>
@@ -35959,34 +35959,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>15.81301737255513</v>
+        <v>39.50726570024385</v>
       </c>
       <c r="J18" t="n">
-        <v>67.15927932322209</v>
+        <v>362.2123020197787</v>
       </c>
       <c r="K18" t="n">
-        <v>127.614348788337</v>
+        <v>192.0268478743021</v>
       </c>
       <c r="L18" t="n">
         <v>179.1966879465464</v>
       </c>
       <c r="M18" t="n">
-        <v>212.2913463870363</v>
+        <v>212.2913463870362</v>
       </c>
       <c r="N18" t="n">
         <v>220.2751219856171</v>
       </c>
       <c r="O18" t="n">
-        <v>197.8615137728412</v>
+        <v>197.8615137728411</v>
       </c>
       <c r="P18" t="n">
-        <v>155.6279517490319</v>
+        <v>155.6279517490318</v>
       </c>
       <c r="Q18" t="n">
-        <v>585.519834285817</v>
+        <v>95.83935681711631</v>
       </c>
       <c r="R18" t="n">
-        <v>34.00674694456803</v>
+        <v>140.5274543030587</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>113.1363730576796</v>
+        <v>113.1363730576794</v>
       </c>
       <c r="K19" t="n">
         <v>319.3033587869731</v>
@@ -36056,7 +36056,7 @@
         <v>500.4890455394626</v>
       </c>
       <c r="O19" t="n">
-        <v>469.1044780492465</v>
+        <v>469.1044780492469</v>
       </c>
       <c r="P19" t="n">
         <v>387.7322906979267</v>
@@ -36117,7 +36117,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>32.39083342791604</v>
+        <v>32.39083342791601</v>
       </c>
       <c r="J20" t="n">
         <v>513.6324786758641</v>
@@ -36126,7 +36126,7 @@
         <v>185.0993700471067</v>
       </c>
       <c r="L20" t="n">
-        <v>235.6892435250291</v>
+        <v>235.689243525029</v>
       </c>
       <c r="M20" t="n">
         <v>267.4479621241668</v>
@@ -36135,13 +36135,13 @@
         <v>272.5328667914509</v>
       </c>
       <c r="O20" t="n">
-        <v>255.156189349819</v>
+        <v>255.1561893498189</v>
       </c>
       <c r="P20" t="n">
-        <v>336.6017967758823</v>
+        <v>336.6017967758835</v>
       </c>
       <c r="Q20" t="n">
-        <v>648.19335481857</v>
+        <v>648.1933548185699</v>
       </c>
       <c r="R20" t="n">
         <v>227.8116767255773</v>
@@ -36196,34 +36196,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>15.81301737255513</v>
+        <v>39.50726570024385</v>
       </c>
       <c r="J21" t="n">
-        <v>67.15927932322209</v>
+        <v>362.2123020197787</v>
       </c>
       <c r="K21" t="n">
-        <v>127.614348788337</v>
+        <v>298.5475552327929</v>
       </c>
       <c r="L21" t="n">
         <v>179.1966879465464</v>
       </c>
       <c r="M21" t="n">
-        <v>212.2913463870363</v>
+        <v>212.2913463870362</v>
       </c>
       <c r="N21" t="n">
         <v>220.2751219856171</v>
       </c>
       <c r="O21" t="n">
-        <v>197.8615137728412</v>
+        <v>197.8615137728411</v>
       </c>
       <c r="P21" t="n">
-        <v>155.6279517490319</v>
+        <v>155.6279517490318</v>
       </c>
       <c r="Q21" t="n">
-        <v>585.519834285817</v>
+        <v>95.83935681711631</v>
       </c>
       <c r="R21" t="n">
-        <v>34.00674694456803</v>
+        <v>34.00674694456801</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36293,7 +36293,7 @@
         <v>500.4890455394626</v>
       </c>
       <c r="O22" t="n">
-        <v>469.1044780492465</v>
+        <v>469.1044780492464</v>
       </c>
       <c r="P22" t="n">
         <v>387.7322906979267</v>
@@ -36354,31 +36354,31 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>32.39083342791604</v>
+        <v>32.39083342791601</v>
       </c>
       <c r="J23" t="n">
         <v>513.6324786758641</v>
       </c>
       <c r="K23" t="n">
-        <v>239.808606073942</v>
+        <v>943.5996354636322</v>
       </c>
       <c r="L23" t="n">
-        <v>235.6892435250291</v>
+        <v>235.689243525029</v>
       </c>
       <c r="M23" t="n">
-        <v>1206.773892500276</v>
+        <v>267.4479621241668</v>
       </c>
       <c r="N23" t="n">
-        <v>1206.773892500276</v>
+        <v>272.5328667914509</v>
       </c>
       <c r="O23" t="n">
-        <v>255.156189349819</v>
+        <v>1146.228613504643</v>
       </c>
       <c r="P23" t="n">
-        <v>212.1068612927125</v>
+        <v>490.8103638331382</v>
       </c>
       <c r="Q23" t="n">
-        <v>648.19335481857</v>
+        <v>648.1933548185699</v>
       </c>
       <c r="R23" t="n">
         <v>227.8116767255773</v>
@@ -36433,10 +36433,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>15.81301737255513</v>
+        <v>39.50726570024385</v>
       </c>
       <c r="J24" t="n">
-        <v>67.15927932322209</v>
+        <v>362.2123020197787</v>
       </c>
       <c r="K24" t="n">
         <v>127.614348788337</v>
@@ -36445,22 +36445,22 @@
         <v>179.1966879465464</v>
       </c>
       <c r="M24" t="n">
-        <v>212.2913463870363</v>
+        <v>212.2913463870362</v>
       </c>
       <c r="N24" t="n">
-        <v>220.2751219856171</v>
+        <v>284.6876210715822</v>
       </c>
       <c r="O24" t="n">
-        <v>197.8615137728412</v>
+        <v>197.8615137728411</v>
       </c>
       <c r="P24" t="n">
-        <v>645.3084292177326</v>
+        <v>155.6279517490318</v>
       </c>
       <c r="Q24" t="n">
-        <v>95.83935681711634</v>
+        <v>95.83935681711631</v>
       </c>
       <c r="R24" t="n">
-        <v>34.00674694456803</v>
+        <v>140.5274543030587</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>32.39083342791604</v>
+        <v>32.39083342791601</v>
       </c>
       <c r="J26" t="n">
-        <v>117.9463991732115</v>
+        <v>513.6324786758641</v>
       </c>
       <c r="K26" t="n">
-        <v>185.0993700471067</v>
+        <v>943.5996354636322</v>
       </c>
       <c r="L26" t="n">
-        <v>445.6056355466491</v>
+        <v>235.689243525029</v>
       </c>
       <c r="M26" t="n">
-        <v>1206.773892500276</v>
+        <v>684.2149116981469</v>
       </c>
       <c r="N26" t="n">
-        <v>1206.773892500276</v>
+        <v>272.5328667914509</v>
       </c>
       <c r="O26" t="n">
-        <v>1146.228613504643</v>
+        <v>255.1561893498189</v>
       </c>
       <c r="P26" t="n">
-        <v>212.1068612927125</v>
+        <v>965.1158384139817</v>
       </c>
       <c r="Q26" t="n">
-        <v>151.3762766743931</v>
+        <v>648.1933548185699</v>
       </c>
       <c r="R26" t="n">
-        <v>74.03525422279841</v>
+        <v>227.8116767255773</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,10 +36670,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>15.81301737255513</v>
+        <v>39.50726570024385</v>
       </c>
       <c r="J27" t="n">
-        <v>67.15927932322209</v>
+        <v>362.2123020197787</v>
       </c>
       <c r="K27" t="n">
         <v>127.614348788337</v>
@@ -36682,22 +36682,22 @@
         <v>179.1966879465464</v>
       </c>
       <c r="M27" t="n">
-        <v>212.2913463870363</v>
+        <v>212.2913463870362</v>
       </c>
       <c r="N27" t="n">
-        <v>220.2751219856171</v>
+        <v>284.6876210715822</v>
       </c>
       <c r="O27" t="n">
-        <v>687.541991241542</v>
+        <v>197.8615137728411</v>
       </c>
       <c r="P27" t="n">
-        <v>155.6279517490319</v>
+        <v>155.6279517490318</v>
       </c>
       <c r="Q27" t="n">
-        <v>95.83935681711634</v>
+        <v>95.83935681711631</v>
       </c>
       <c r="R27" t="n">
-        <v>34.00674694456803</v>
+        <v>140.5274543030587</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>32.39083342791604</v>
+        <v>32.39083342791601</v>
       </c>
       <c r="J29" t="n">
-        <v>117.9463991732115</v>
+        <v>513.6324786758641</v>
       </c>
       <c r="K29" t="n">
         <v>185.0993700471067</v>
       </c>
       <c r="L29" t="n">
-        <v>1206.773892500276</v>
+        <v>235.689243525029</v>
       </c>
       <c r="M29" t="n">
-        <v>445.605635546649</v>
+        <v>1206.773892500277</v>
       </c>
       <c r="N29" t="n">
-        <v>1206.773892500276</v>
+        <v>272.5328667914509</v>
       </c>
       <c r="O29" t="n">
-        <v>1146.228613504643</v>
+        <v>491.0974739642145</v>
       </c>
       <c r="P29" t="n">
-        <v>212.1068612927125</v>
+        <v>965.1158384139817</v>
       </c>
       <c r="Q29" t="n">
-        <v>151.3762766743931</v>
+        <v>648.1933548185699</v>
       </c>
       <c r="R29" t="n">
-        <v>74.03525422279841</v>
+        <v>227.8116767255773</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,10 +36907,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>15.81301737255513</v>
+        <v>39.50726570024385</v>
       </c>
       <c r="J30" t="n">
-        <v>67.15927932322209</v>
+        <v>362.2123020197787</v>
       </c>
       <c r="K30" t="n">
         <v>127.614348788337</v>
@@ -36919,22 +36919,22 @@
         <v>179.1966879465464</v>
       </c>
       <c r="M30" t="n">
-        <v>701.9718238557372</v>
+        <v>212.2913463870362</v>
       </c>
       <c r="N30" t="n">
         <v>220.2751219856171</v>
       </c>
       <c r="O30" t="n">
-        <v>197.8615137728412</v>
+        <v>197.8615137728411</v>
       </c>
       <c r="P30" t="n">
-        <v>155.6279517490319</v>
+        <v>155.6279517490318</v>
       </c>
       <c r="Q30" t="n">
-        <v>95.83935681711634</v>
+        <v>160.2518559030813</v>
       </c>
       <c r="R30" t="n">
-        <v>34.00674694456803</v>
+        <v>140.5274543030587</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>32.39083342791604</v>
+        <v>32.39083342791601</v>
       </c>
       <c r="J32" t="n">
-        <v>117.9463991732115</v>
+        <v>117.9463991732114</v>
       </c>
       <c r="K32" t="n">
         <v>943.5996354636322</v>
       </c>
       <c r="L32" t="n">
-        <v>235.6892435250291</v>
+        <v>235.689243525029</v>
       </c>
       <c r="M32" t="n">
-        <v>1206.773892500276</v>
+        <v>267.4479621241668</v>
       </c>
       <c r="N32" t="n">
-        <v>796.2534661389253</v>
+        <v>272.5328667914509</v>
       </c>
       <c r="O32" t="n">
-        <v>255.156189349819</v>
+        <v>1146.228613504643</v>
       </c>
       <c r="P32" t="n">
-        <v>965.1158384139818</v>
+        <v>965.1158384139817</v>
       </c>
       <c r="Q32" t="n">
-        <v>151.3762766743931</v>
+        <v>648.1933548185699</v>
       </c>
       <c r="R32" t="n">
-        <v>74.03525422279841</v>
+        <v>149.1922816473855</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,10 +37144,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>15.81301737255513</v>
+        <v>39.50726570024385</v>
       </c>
       <c r="J33" t="n">
-        <v>67.15927932322209</v>
+        <v>362.2123020197787</v>
       </c>
       <c r="K33" t="n">
         <v>127.614348788337</v>
@@ -37156,22 +37156,22 @@
         <v>179.1966879465464</v>
       </c>
       <c r="M33" t="n">
-        <v>212.2913463870363</v>
+        <v>212.2913463870362</v>
       </c>
       <c r="N33" t="n">
-        <v>709.955599454318</v>
+        <v>284.6876210715822</v>
       </c>
       <c r="O33" t="n">
-        <v>197.8615137728412</v>
+        <v>197.8615137728411</v>
       </c>
       <c r="P33" t="n">
-        <v>155.6279517490319</v>
+        <v>155.6279517490318</v>
       </c>
       <c r="Q33" t="n">
-        <v>95.83935681711634</v>
+        <v>95.83935681711631</v>
       </c>
       <c r="R33" t="n">
-        <v>34.00674694456803</v>
+        <v>140.5274543030587</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37235,13 +37235,13 @@
         <v>474.5125363964241</v>
       </c>
       <c r="M34" t="n">
-        <v>517.6721430424715</v>
+        <v>517.6721430424716</v>
       </c>
       <c r="N34" t="n">
         <v>500.9365660233519</v>
       </c>
       <c r="O34" t="n">
-        <v>469.5519985331358</v>
+        <v>469.5519985331357</v>
       </c>
       <c r="P34" t="n">
         <v>388.179811181816</v>
@@ -37302,31 +37302,31 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>32.39083342791604</v>
+        <v>32.39083342791601</v>
       </c>
       <c r="J35" t="n">
-        <v>513.6324786758641</v>
+        <v>172.4711301276211</v>
       </c>
       <c r="K35" t="n">
         <v>185.0993700471067</v>
       </c>
       <c r="L35" t="n">
-        <v>235.6892435250291</v>
+        <v>235.689243525029</v>
       </c>
       <c r="M35" t="n">
-        <v>267.4479621241668</v>
+        <v>751.2270955456045</v>
       </c>
       <c r="N35" t="n">
-        <v>272.5328667914509</v>
+        <v>751.2270955456045</v>
       </c>
       <c r="O35" t="n">
-        <v>379.6511248329887</v>
+        <v>255.1561893498189</v>
       </c>
       <c r="P35" t="n">
-        <v>212.1068612927125</v>
+        <v>212.1068612927124</v>
       </c>
       <c r="Q35" t="n">
-        <v>648.19335481857</v>
+        <v>151.376276674393</v>
       </c>
       <c r="R35" t="n">
         <v>227.8116767255773</v>
@@ -37381,10 +37381,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>15.81301737255513</v>
+        <v>39.50726570024385</v>
       </c>
       <c r="J36" t="n">
-        <v>67.15927932322209</v>
+        <v>362.2123020197787</v>
       </c>
       <c r="K36" t="n">
         <v>127.614348788337</v>
@@ -37393,22 +37393,22 @@
         <v>179.1966879465464</v>
       </c>
       <c r="M36" t="n">
-        <v>212.2913463870363</v>
+        <v>212.2913463870362</v>
       </c>
       <c r="N36" t="n">
         <v>220.2751219856171</v>
       </c>
       <c r="O36" t="n">
-        <v>197.8615137728412</v>
+        <v>197.8615137728411</v>
       </c>
       <c r="P36" t="n">
-        <v>155.6279517490319</v>
+        <v>155.6279517490318</v>
       </c>
       <c r="Q36" t="n">
-        <v>585.519834285817</v>
+        <v>160.2518559030816</v>
       </c>
       <c r="R36" t="n">
-        <v>34.00674694456803</v>
+        <v>140.5274543030587</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,13 +37463,13 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>113.1363730576796</v>
+        <v>113.1363730576794</v>
       </c>
       <c r="K37" t="n">
         <v>319.3033587869731</v>
       </c>
       <c r="L37" t="n">
-        <v>474.0650159125349</v>
+        <v>474.0650159125356</v>
       </c>
       <c r="M37" t="n">
         <v>517.2246225585823</v>
@@ -37478,7 +37478,7 @@
         <v>500.4890455394626</v>
       </c>
       <c r="O37" t="n">
-        <v>469.1044780492465</v>
+        <v>469.1044780492464</v>
       </c>
       <c r="P37" t="n">
         <v>387.7322906979267</v>
@@ -37539,31 +37539,31 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>32.39083342791604</v>
+        <v>32.39083342791601</v>
       </c>
       <c r="J38" t="n">
         <v>513.6324786758641</v>
       </c>
       <c r="K38" t="n">
-        <v>185.0993700471067</v>
+        <v>309.594305530278</v>
       </c>
       <c r="L38" t="n">
-        <v>235.6892435250291</v>
+        <v>235.689243525029</v>
       </c>
       <c r="M38" t="n">
         <v>267.4479621241668</v>
       </c>
       <c r="N38" t="n">
-        <v>397.0278022746208</v>
+        <v>272.5328667914509</v>
       </c>
       <c r="O38" t="n">
-        <v>255.156189349819</v>
+        <v>255.1561893498189</v>
       </c>
       <c r="P38" t="n">
-        <v>212.1068612927125</v>
+        <v>212.1068612927124</v>
       </c>
       <c r="Q38" t="n">
-        <v>648.19335481857</v>
+        <v>648.1933548185699</v>
       </c>
       <c r="R38" t="n">
         <v>227.8116767255773</v>
@@ -37618,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>15.81301737255513</v>
+        <v>39.50726570024385</v>
       </c>
       <c r="J39" t="n">
-        <v>67.15927932322209</v>
+        <v>362.2123020197787</v>
       </c>
       <c r="K39" t="n">
-        <v>617.2948262570377</v>
+        <v>192.0268478743021</v>
       </c>
       <c r="L39" t="n">
         <v>179.1966879465464</v>
       </c>
       <c r="M39" t="n">
-        <v>212.2913463870363</v>
+        <v>212.2913463870362</v>
       </c>
       <c r="N39" t="n">
         <v>220.2751219856171</v>
       </c>
       <c r="O39" t="n">
-        <v>197.8615137728412</v>
+        <v>197.8615137728411</v>
       </c>
       <c r="P39" t="n">
-        <v>155.6279517490319</v>
+        <v>155.6279517490318</v>
       </c>
       <c r="Q39" t="n">
-        <v>95.83935681711634</v>
+        <v>95.83935681711631</v>
       </c>
       <c r="R39" t="n">
-        <v>34.00674694456803</v>
+        <v>140.5274543030587</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37715,7 +37715,7 @@
         <v>500.4890455394626</v>
       </c>
       <c r="O40" t="n">
-        <v>469.1044780492465</v>
+        <v>469.1044780492464</v>
       </c>
       <c r="P40" t="n">
         <v>387.7322906979267</v>
@@ -37776,16 +37776,16 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>32.39083342791604</v>
+        <v>32.39083342791601</v>
       </c>
       <c r="J41" t="n">
-        <v>117.9463991732115</v>
+        <v>117.9463991732114</v>
       </c>
       <c r="K41" t="n">
         <v>185.0993700471067</v>
       </c>
       <c r="L41" t="n">
-        <v>235.6892435250291</v>
+        <v>235.689243525029</v>
       </c>
       <c r="M41" t="n">
         <v>267.4479621241668</v>
@@ -37794,16 +37794,16 @@
         <v>272.5328667914509</v>
       </c>
       <c r="O41" t="n">
-        <v>255.156189349819</v>
+        <v>255.1561893498189</v>
       </c>
       <c r="P41" t="n">
-        <v>212.1068612927125</v>
+        <v>212.1068612927124</v>
       </c>
       <c r="Q41" t="n">
-        <v>151.3762766743933</v>
+        <v>151.376276674393</v>
       </c>
       <c r="R41" t="n">
-        <v>74.03525422279841</v>
+        <v>74.03525422279945</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>39.50726570024386</v>
+        <v>39.50726570024385</v>
       </c>
       <c r="J42" t="n">
         <v>362.2123020197787</v>
@@ -37867,22 +37867,22 @@
         <v>179.1966879465464</v>
       </c>
       <c r="M42" t="n">
-        <v>212.2913463870363</v>
+        <v>212.2913463870362</v>
       </c>
       <c r="N42" t="n">
         <v>220.2751219856171</v>
       </c>
       <c r="O42" t="n">
-        <v>197.8615137728412</v>
+        <v>197.8615137728411</v>
       </c>
       <c r="P42" t="n">
-        <v>155.6279517490319</v>
+        <v>155.6279517490318</v>
       </c>
       <c r="Q42" t="n">
-        <v>266.7725632615716</v>
+        <v>160.2518559030813</v>
       </c>
       <c r="R42" t="n">
-        <v>34.00674694456803</v>
+        <v>140.5274543030587</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>34.42756836250679</v>
+        <v>113.1363730576794</v>
       </c>
       <c r="K43" t="n">
-        <v>69.52294554048622</v>
+        <v>319.3033587869731</v>
       </c>
       <c r="L43" t="n">
-        <v>220.7753542634827</v>
+        <v>107.3434319194765</v>
       </c>
       <c r="M43" t="n">
-        <v>455.546796954673</v>
+        <v>455.5467969546731</v>
       </c>
       <c r="N43" t="n">
-        <v>455.546796954673</v>
+        <v>455.5467969546731</v>
       </c>
       <c r="O43" t="n">
-        <v>455.546796954673</v>
+        <v>87.58697875308152</v>
       </c>
       <c r="P43" t="n">
-        <v>71.81693254307054</v>
+        <v>71.81693254307052</v>
       </c>
       <c r="Q43" t="n">
-        <v>40.59806505503892</v>
+        <v>193.5005876589773</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38013,16 +38013,16 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>32.39083342791604</v>
+        <v>32.39083342791601</v>
       </c>
       <c r="J44" t="n">
-        <v>117.9463991732117</v>
+        <v>117.9463991732127</v>
       </c>
       <c r="K44" t="n">
         <v>185.0993700471067</v>
       </c>
       <c r="L44" t="n">
-        <v>235.6892435250291</v>
+        <v>235.689243525029</v>
       </c>
       <c r="M44" t="n">
         <v>267.4479621241668</v>
@@ -38031,16 +38031,16 @@
         <v>272.5328667914509</v>
       </c>
       <c r="O44" t="n">
-        <v>255.156189349819</v>
+        <v>255.1561893498189</v>
       </c>
       <c r="P44" t="n">
-        <v>212.1068612927125</v>
+        <v>212.1068612927124</v>
       </c>
       <c r="Q44" t="n">
-        <v>151.3762766743931</v>
+        <v>151.376276674393</v>
       </c>
       <c r="R44" t="n">
-        <v>74.03525422279841</v>
+        <v>74.03525422279839</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>15.81301737255513</v>
+        <v>39.50726570024385</v>
       </c>
       <c r="J45" t="n">
-        <v>67.15927932322209</v>
+        <v>362.2123020197787</v>
       </c>
       <c r="K45" t="n">
-        <v>257.587386119481</v>
+        <v>192.0268478743022</v>
       </c>
       <c r="L45" t="n">
         <v>179.1966879465464</v>
       </c>
       <c r="M45" t="n">
-        <v>212.2913463870363</v>
+        <v>212.2913463870362</v>
       </c>
       <c r="N45" t="n">
         <v>220.2751219856171</v>
       </c>
       <c r="O45" t="n">
-        <v>197.8615137728412</v>
+        <v>197.8615137728411</v>
       </c>
       <c r="P45" t="n">
-        <v>155.6279517490319</v>
+        <v>155.6279517490318</v>
       </c>
       <c r="Q45" t="n">
-        <v>455.546796954673</v>
+        <v>95.83935681711631</v>
       </c>
       <c r="R45" t="n">
-        <v>34.00674694456803</v>
+        <v>140.5274543030587</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,28 +38174,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>34.42756836250679</v>
+        <v>113.1363730576794</v>
       </c>
       <c r="K46" t="n">
-        <v>69.52294554048622</v>
+        <v>319.3033587869731</v>
       </c>
       <c r="L46" t="n">
-        <v>220.7753542634827</v>
+        <v>455.5467969546731</v>
       </c>
       <c r="M46" t="n">
-        <v>455.546796954673</v>
+        <v>99.51201603047949</v>
       </c>
       <c r="N46" t="n">
-        <v>455.546796954673</v>
+        <v>98.43558812342202</v>
       </c>
       <c r="O46" t="n">
-        <v>455.546796954673</v>
+        <v>136.614245318473</v>
       </c>
       <c r="P46" t="n">
-        <v>71.81693254307054</v>
+        <v>387.7322906979267</v>
       </c>
       <c r="Q46" t="n">
-        <v>40.59806505503892</v>
+        <v>193.5005876589773</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
